--- a/storage/jurnal-opex-2022.xlsx
+++ b/storage/jurnal-opex-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2057">
   <si>
     <t>No ID</t>
   </si>
@@ -6015,132 +6015,6 @@
     <t>2022-07-29 08:53:17</t>
   </si>
   <si>
-    <t>2022-07-26</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan jasa Tgl 26/07/2022 pk 5063</t>
-  </si>
-  <si>
-    <t>2022-07-26/1659059827/M03PK5063</t>
-  </si>
-  <si>
-    <t>2022-07-29 08:57:07</t>
-  </si>
-  <si>
-    <t>2022-07-27</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan jasa Tgl 27/07/2022 pk 5055</t>
-  </si>
-  <si>
-    <t>2022-07-27/1659060014/M03PK5055</t>
-  </si>
-  <si>
-    <t>2022-07-29 09:00:14</t>
-  </si>
-  <si>
-    <t>2022-07-28</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan jasa Tgl 28/07/2022 pk 5041</t>
-  </si>
-  <si>
-    <t>2022-07-28/1659060220/M03PK5041</t>
-  </si>
-  <si>
-    <t>2022-07-29 09:03:40</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan jasa Tgl 28/07/2022 pk 5038</t>
-  </si>
-  <si>
-    <t>2022-07-28/1659315993/M03PK5038</t>
-  </si>
-  <si>
-    <t>2022-08-01 08:06:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angsuran Pokok Tgl 28/07/2022 pk 5061 </t>
-  </si>
-  <si>
-    <t>2022-07-28/1659316775/M03PK5061</t>
-  </si>
-  <si>
-    <t>2022-08-01 08:19:35</t>
-  </si>
-  <si>
-    <t>Angsuran jasa Tgl 28/07/2022 pk 5061</t>
-  </si>
-  <si>
-    <t>2022-07-28/1659316846/M03PK5061</t>
-  </si>
-  <si>
-    <t>2022-08-01 08:20:46</t>
-  </si>
-  <si>
-    <t>2022-07-30</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan jasa Tgl 30/07/2022 pk 5096</t>
-  </si>
-  <si>
-    <t>2022-07-30/1659329944/M03PK5096</t>
-  </si>
-  <si>
-    <t>2022-08-01 11:59:04</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan jasa Tgl 30/07/2022 pk 5064</t>
-  </si>
-  <si>
-    <t>Gunawan</t>
-  </si>
-  <si>
-    <t>2022-07-30/1659330065/M03PK5064</t>
-  </si>
-  <si>
-    <t>2022-08-01 12:01:05</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan jasa Tgl 30/07/2022 pk 5111</t>
-  </si>
-  <si>
-    <t>2022-07-30/1659330163/M03PK5111</t>
-  </si>
-  <si>
-    <t>2022-08-01 12:02:43</t>
-  </si>
-  <si>
-    <t>2022-07-31</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan jasa Tgl 31/07/2022 pk 5076</t>
-  </si>
-  <si>
-    <t>2022-07-31/1659330334/M03PK5076</t>
-  </si>
-  <si>
-    <t>2022-08-01 12:05:34</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan jasa Tgl 31/07/2022 pk 5106</t>
-  </si>
-  <si>
-    <t>2022-07-31/1659330455/M03PK5106</t>
-  </si>
-  <si>
-    <t>2022-08-01 12:07:35</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan jasa Tgl 31/07/2022 pk 5093</t>
-  </si>
-  <si>
-    <t>2022-07-31/1659330584/M03PK5093</t>
-  </si>
-  <si>
-    <t>2022-08-01 12:09:44</t>
-  </si>
-  <si>
     <t>Angsuran Pokok dan jasa Tgl 18/07/2022 pk 5094</t>
   </si>
   <si>
@@ -6174,15 +6048,6 @@
     <t>2022-08-02 09:41:01</t>
   </si>
   <si>
-    <t>Angsuran Pokok dan jasa Tgl 28/07/2022 pk 5051</t>
-  </si>
-  <si>
-    <t>2022-07-28/1659410335/M03PK5051</t>
-  </si>
-  <si>
-    <t>2022-08-02 10:18:55</t>
-  </si>
-  <si>
     <t>2022-07-19</t>
   </si>
   <si>
@@ -6261,144 +6126,45 @@
     <t>2022-08-02 11:35:42</t>
   </si>
   <si>
-    <t>ab sisih sektor industri juli 2022</t>
-  </si>
-  <si>
-    <t>2022-07-31/1659493904/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-03 09:31:44</t>
-  </si>
-  <si>
-    <t>ab sisih sektor perdagangan juli 2022</t>
-  </si>
-  <si>
-    <t>2022-07-31/1659494057/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-03 09:34:17</t>
-  </si>
-  <si>
-    <t>ab sisih sektor pertanian juli 2022</t>
-  </si>
-  <si>
-    <t>2022-07-31/1659494234/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-03 09:37:14</t>
-  </si>
-  <si>
-    <t>ab sisih sektor perkebunan juli 2022</t>
-  </si>
-  <si>
-    <t>2022-07-31/1659494408/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-03 09:40:08</t>
-  </si>
-  <si>
-    <t>ab sisih sektor perikanan juli 2022</t>
-  </si>
-  <si>
-    <t>2022-07-31/1659494532/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-03 09:42:12</t>
-  </si>
-  <si>
-    <t>ab sisih sektor peternakan juli 2022</t>
-  </si>
-  <si>
-    <t>2022-07-31/1659494633/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-03 09:43:53</t>
-  </si>
-  <si>
-    <t>ab sisih sektor jasa juli 2022</t>
-  </si>
-  <si>
-    <t>2022-07-31/1659494759/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-03 09:45:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aktiva Lancar/Alokasi Penyisihan Piutang Mitra Binaan/Sektor Lain-lain </t>
-  </si>
-  <si>
-    <t>ab sisih sektor lain-lain juli 2022</t>
-  </si>
-  <si>
-    <t>2022-07-31/1659494966/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-03 09:49:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Beban Penyisihan Piutang/Lain-lain/Lain-lain </t>
+    <t>Angsuran Pokok Tgl 13/07/2022 pk 4942</t>
+  </si>
+  <si>
+    <t>2022-07-13/1659496544/M01PK4942</t>
+  </si>
+  <si>
+    <t>2022-08-03 10:15:44</t>
+  </si>
+  <si>
+    <t>jurnal silang juli 2022</t>
+  </si>
+  <si>
+    <t>2022-07-08/1659499485/tjsl</t>
+  </si>
+  <si>
+    <t>2022-08-03 11:04:45</t>
+  </si>
+  <si>
+    <t>2022-07-08/1659499575/tjsl</t>
+  </si>
+  <si>
+    <t>2022-08-03 11:06:15</t>
+  </si>
+  <si>
+    <t>2022-07-21/1659500201/tjsl</t>
+  </si>
+  <si>
+    <t>2022-08-03 11:16:41</t>
+  </si>
+  <si>
+    <t>2022-07-21/1659500290/tjsl</t>
+  </si>
+  <si>
+    <t>2022-08-03 11:18:10</t>
   </si>
   <si>
     <t>beban administrasi dan umum juli 2022</t>
   </si>
   <si>
-    <t>2022-07-31/1659495643/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-03 10:00:43</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok Tgl 13/07/2022 pk 4942</t>
-  </si>
-  <si>
-    <t>2022-07-13/1659496544/M01PK4942</t>
-  </si>
-  <si>
-    <t>2022-08-03 10:15:44</t>
-  </si>
-  <si>
-    <t>jurnal silang juli 2022</t>
-  </si>
-  <si>
-    <t>2022-07-08/1659499485/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-03 11:04:45</t>
-  </si>
-  <si>
-    <t>2022-07-08/1659499575/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-03 11:06:15</t>
-  </si>
-  <si>
-    <t>pendapatan jasa giro juli 2022</t>
-  </si>
-  <si>
-    <t>2022-07-25/1659499811/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-03 11:10:11</t>
-  </si>
-  <si>
-    <t>2022-07-25/1659500078/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-03 11:14:38</t>
-  </si>
-  <si>
-    <t>2022-07-21/1659500201/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-03 11:16:41</t>
-  </si>
-  <si>
-    <t>2022-07-21/1659500290/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-03 11:18:10</t>
-  </si>
-  <si>
     <t>2022-07-09/1659500465/tjsl</t>
   </si>
   <si>
@@ -6411,15 +6177,6 @@
     <t>2022-08-03 11:29:13</t>
   </si>
   <si>
-    <t>pendapatan jasa giro mandiri juli 2022</t>
-  </si>
-  <si>
-    <t>2022-07-31/1659583164/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-04 10:19:24</t>
-  </si>
-  <si>
     <t>Angsuran Pokok dan jasa Tgl 13/01/2022 pk 2978 masalah</t>
   </si>
   <si>
@@ -6430,15 +6187,6 @@
   </si>
   <si>
     <t>YUYUN RUMNASIH/Angsuran Pokok dan jasa Tgl 13/01/2022 pk 2978 masalah</t>
-  </si>
-  <si>
-    <t>ab sisih bermasalah jul 2022</t>
-  </si>
-  <si>
-    <t>2022-07-31/1659930659/tjsl</t>
-  </si>
-  <si>
-    <t>2022-08-08 10:50:59</t>
   </si>
 </sst>
 </file>
@@ -6774,7 +6522,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O1843"/>
+  <dimension ref="A1:O1778"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -80507,97 +80255,97 @@
     </row>
     <row r="1729" spans="1:15">
       <c r="A1729">
-        <v>76464</v>
+        <v>76500</v>
       </c>
       <c r="B1729">
         <v>101010204</v>
       </c>
       <c r="C1729" t="s">
-        <v>1999</v>
+        <v>1982</v>
       </c>
       <c r="D1729">
-        <v>2650000.0</v>
+        <v>2800000.0</v>
       </c>
       <c r="E1729">
         <v>0.0</v>
       </c>
       <c r="F1729">
-        <v>2650000.0</v>
+        <v>2800000.0</v>
       </c>
       <c r="G1729"/>
       <c r="H1729" t="s">
+        <v>1999</v>
+      </c>
+      <c r="I1729" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1729" t="s">
         <v>2000</v>
       </c>
-      <c r="I1729" t="s">
-        <v>246</v>
-      </c>
-      <c r="J1729" t="s">
+      <c r="K1729">
+        <v>2723078228.3</v>
+      </c>
+      <c r="L1729">
+        <v>2720278228.3</v>
+      </c>
+      <c r="M1729" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1729" t="s">
         <v>2001</v>
-      </c>
-      <c r="K1729">
-        <v>2793170235.3</v>
-      </c>
-      <c r="L1729">
-        <v>2790520235.3</v>
-      </c>
-      <c r="M1729" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1729" t="s">
-        <v>2002</v>
       </c>
     </row>
     <row r="1730" spans="1:15">
       <c r="A1730">
-        <v>76465</v>
+        <v>76501</v>
       </c>
       <c r="B1730">
         <v>403010100</v>
       </c>
       <c r="C1730" t="s">
-        <v>1999</v>
+        <v>1982</v>
       </c>
       <c r="D1730">
         <v>0.0</v>
       </c>
       <c r="E1730">
-        <v>150000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="F1730">
         <v>0</v>
       </c>
       <c r="G1730"/>
       <c r="H1730" t="s">
+        <v>1999</v>
+      </c>
+      <c r="I1730" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1730" t="s">
         <v>2000</v>
       </c>
-      <c r="I1730" t="s">
-        <v>246</v>
-      </c>
-      <c r="J1730" t="s">
+      <c r="K1730">
+        <v>2723078228.3</v>
+      </c>
+      <c r="L1730">
+        <v>2720578228.3</v>
+      </c>
+      <c r="M1730" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1730" t="s">
         <v>2001</v>
-      </c>
-      <c r="K1730">
-        <v>2793170235.3</v>
-      </c>
-      <c r="L1730">
-        <v>2790670235.3</v>
-      </c>
-      <c r="M1730" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1730" t="s">
-        <v>2002</v>
       </c>
     </row>
     <row r="1731" spans="1:15">
       <c r="A1731">
-        <v>76466</v>
+        <v>76502</v>
       </c>
       <c r="B1731">
         <v>101060202</v>
       </c>
       <c r="C1731" t="s">
-        <v>1999</v>
+        <v>1982</v>
       </c>
       <c r="D1731">
         <v>0.0</v>
@@ -80612,126 +80360,126 @@
         <v>15</v>
       </c>
       <c r="H1731" t="s">
+        <v>1999</v>
+      </c>
+      <c r="I1731" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1731" t="s">
         <v>2000</v>
       </c>
-      <c r="I1731" t="s">
-        <v>246</v>
-      </c>
-      <c r="J1731" t="s">
+      <c r="K1731">
+        <v>2723078228.3</v>
+      </c>
+      <c r="L1731">
+        <v>2723078228.3</v>
+      </c>
+      <c r="M1731" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1731" t="s">
         <v>2001</v>
-      </c>
-      <c r="K1731">
-        <v>2793170235.3</v>
-      </c>
-      <c r="L1731">
-        <v>2793170235.3</v>
-      </c>
-      <c r="M1731" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1731" t="s">
-        <v>2002</v>
       </c>
     </row>
     <row r="1732" spans="1:15">
       <c r="A1732">
-        <v>76467</v>
+        <v>76503</v>
       </c>
       <c r="B1732">
         <v>101010204</v>
       </c>
       <c r="C1732" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D1732">
-        <v>2650000.0</v>
+        <v>1867000.0</v>
       </c>
       <c r="E1732">
         <v>0.0</v>
       </c>
       <c r="F1732">
-        <v>2650000.0</v>
+        <v>1867000.0</v>
       </c>
       <c r="G1732"/>
       <c r="H1732" t="s">
+        <v>2003</v>
+      </c>
+      <c r="I1732" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1732" t="s">
         <v>2004</v>
       </c>
-      <c r="I1732" t="s">
-        <v>305</v>
-      </c>
-      <c r="J1732" t="s">
+      <c r="K1732">
+        <v>2732345228.3</v>
+      </c>
+      <c r="L1732">
+        <v>2730478228.3</v>
+      </c>
+      <c r="M1732" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1732" t="s">
         <v>2005</v>
-      </c>
-      <c r="K1732">
-        <v>2795820235.3</v>
-      </c>
-      <c r="L1732">
-        <v>2793170235.3</v>
-      </c>
-      <c r="M1732" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1732" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="1733" spans="1:15">
       <c r="A1733">
-        <v>76468</v>
+        <v>76504</v>
       </c>
       <c r="B1733">
         <v>403010100</v>
       </c>
       <c r="C1733" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D1733">
         <v>0.0</v>
       </c>
       <c r="E1733">
-        <v>150000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="F1733">
         <v>0</v>
       </c>
       <c r="G1733"/>
       <c r="H1733" t="s">
+        <v>2003</v>
+      </c>
+      <c r="I1733" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1733" t="s">
         <v>2004</v>
       </c>
-      <c r="I1733" t="s">
-        <v>305</v>
-      </c>
-      <c r="J1733" t="s">
+      <c r="K1733">
+        <v>2732345228.3</v>
+      </c>
+      <c r="L1733">
+        <v>2730678228.3</v>
+      </c>
+      <c r="M1733" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1733" t="s">
         <v>2005</v>
-      </c>
-      <c r="K1733">
-        <v>2795820235.3</v>
-      </c>
-      <c r="L1733">
-        <v>2793320235.3</v>
-      </c>
-      <c r="M1733" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1733" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="1734" spans="1:15">
       <c r="A1734">
-        <v>76469</v>
+        <v>76505</v>
       </c>
       <c r="B1734">
         <v>101060202</v>
       </c>
       <c r="C1734" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D1734">
         <v>0.0</v>
       </c>
       <c r="E1734">
-        <v>2500000.0</v>
+        <v>1667000.0</v>
       </c>
       <c r="F1734">
         <v>0</v>
@@ -80740,126 +80488,126 @@
         <v>15</v>
       </c>
       <c r="H1734" t="s">
+        <v>2003</v>
+      </c>
+      <c r="I1734" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1734" t="s">
         <v>2004</v>
       </c>
-      <c r="I1734" t="s">
-        <v>305</v>
-      </c>
-      <c r="J1734" t="s">
+      <c r="K1734">
+        <v>2732345228.3</v>
+      </c>
+      <c r="L1734">
+        <v>2732345228.3</v>
+      </c>
+      <c r="M1734" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1734" t="s">
         <v>2005</v>
-      </c>
-      <c r="K1734">
-        <v>2795820235.3</v>
-      </c>
-      <c r="L1734">
-        <v>2795820235.3</v>
-      </c>
-      <c r="M1734" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1734" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="1735" spans="1:15">
       <c r="A1735">
-        <v>76470</v>
+        <v>76506</v>
       </c>
       <c r="B1735">
         <v>101010204</v>
       </c>
       <c r="C1735" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D1735">
-        <v>1752000.0</v>
+        <v>3400000.0</v>
       </c>
       <c r="E1735">
         <v>0.0</v>
       </c>
       <c r="F1735">
-        <v>1752000.0</v>
+        <v>3400000.0</v>
       </c>
       <c r="G1735"/>
       <c r="H1735" t="s">
+        <v>2007</v>
+      </c>
+      <c r="I1735" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1735" t="s">
         <v>2008</v>
       </c>
-      <c r="I1735" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1735" t="s">
+      <c r="K1735">
+        <v>2778645228.3</v>
+      </c>
+      <c r="L1735">
+        <v>2775245228.3</v>
+      </c>
+      <c r="M1735" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1735" t="s">
         <v>2009</v>
-      </c>
-      <c r="K1735">
-        <v>2797572235.3</v>
-      </c>
-      <c r="L1735">
-        <v>2795820235.3</v>
-      </c>
-      <c r="M1735" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1735" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="1736" spans="1:15">
       <c r="A1736">
-        <v>76471</v>
+        <v>76507</v>
       </c>
       <c r="B1736">
         <v>403010100</v>
       </c>
       <c r="C1736" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D1736">
         <v>0.0</v>
       </c>
       <c r="E1736">
-        <v>100000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F1736">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G1736"/>
       <c r="H1736" t="s">
+        <v>2007</v>
+      </c>
+      <c r="I1736" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1736" t="s">
         <v>2008</v>
       </c>
-      <c r="I1736" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1736" t="s">
+      <c r="K1736">
+        <v>2778645228.3</v>
+      </c>
+      <c r="L1736">
+        <v>2775245228.3</v>
+      </c>
+      <c r="M1736" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1736" t="s">
         <v>2009</v>
-      </c>
-      <c r="K1736">
-        <v>2797572235.3</v>
-      </c>
-      <c r="L1736">
-        <v>2795920235.3</v>
-      </c>
-      <c r="M1736" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1736" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="1737" spans="1:15">
       <c r="A1737">
-        <v>76472</v>
+        <v>76508</v>
       </c>
       <c r="B1737">
-        <v>101060202</v>
+        <v>101060203</v>
       </c>
       <c r="C1737" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D1737">
         <v>0.0</v>
       </c>
       <c r="E1737">
-        <v>1652000.0</v>
+        <v>3400000.0</v>
       </c>
       <c r="F1737">
         <v>0</v>
@@ -80868,61 +80616,61 @@
         <v>15</v>
       </c>
       <c r="H1737" t="s">
+        <v>2007</v>
+      </c>
+      <c r="I1737" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1737" t="s">
         <v>2008</v>
       </c>
-      <c r="I1737" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1737" t="s">
+      <c r="K1737">
+        <v>2778645228.3</v>
+      </c>
+      <c r="L1737">
+        <v>2778645228.3</v>
+      </c>
+      <c r="M1737" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1737" t="s">
         <v>2009</v>
-      </c>
-      <c r="K1737">
-        <v>2797572235.3</v>
-      </c>
-      <c r="L1737">
-        <v>2797572235.3</v>
-      </c>
-      <c r="M1737" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1737" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="1738" spans="1:15">
       <c r="A1738">
-        <v>76473</v>
+        <v>76512</v>
       </c>
       <c r="B1738">
         <v>101010204</v>
       </c>
       <c r="C1738" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D1738">
-        <v>2209000.0</v>
+        <v>4415000.0</v>
       </c>
       <c r="E1738">
         <v>0.0</v>
       </c>
       <c r="F1738">
-        <v>2209000.0</v>
+        <v>4415000.0</v>
       </c>
       <c r="G1738"/>
       <c r="H1738" t="s">
         <v>2011</v>
       </c>
       <c r="I1738" t="s">
-        <v>369</v>
+        <v>553</v>
       </c>
       <c r="J1738" t="s">
         <v>2012</v>
       </c>
       <c r="K1738">
-        <v>2799781235.3</v>
+        <v>2730493228.3</v>
       </c>
       <c r="L1738">
-        <v>2797572235.3</v>
+        <v>2726078228.3</v>
       </c>
       <c r="M1738" t="s">
         <v>60</v>
@@ -80933,19 +80681,19 @@
     </row>
     <row r="1739" spans="1:15">
       <c r="A1739">
-        <v>76474</v>
+        <v>76513</v>
       </c>
       <c r="B1739">
         <v>403010100</v>
       </c>
       <c r="C1739" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D1739">
         <v>0.0</v>
       </c>
       <c r="E1739">
-        <v>125000.0</v>
+        <v>262500.0</v>
       </c>
       <c r="F1739">
         <v>0</v>
@@ -80955,16 +80703,16 @@
         <v>2011</v>
       </c>
       <c r="I1739" t="s">
-        <v>369</v>
+        <v>553</v>
       </c>
       <c r="J1739" t="s">
         <v>2012</v>
       </c>
       <c r="K1739">
-        <v>2799781235.3</v>
+        <v>2730493228.3</v>
       </c>
       <c r="L1739">
-        <v>2797697235.3</v>
+        <v>2726340728.3</v>
       </c>
       <c r="M1739" t="s">
         <v>60</v>
@@ -80975,19 +80723,19 @@
     </row>
     <row r="1740" spans="1:15">
       <c r="A1740">
-        <v>76475</v>
+        <v>76514</v>
       </c>
       <c r="B1740">
-        <v>101060207</v>
+        <v>101060202</v>
       </c>
       <c r="C1740" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D1740">
         <v>0.0</v>
       </c>
       <c r="E1740">
-        <v>2084000.0</v>
+        <v>4152500.0</v>
       </c>
       <c r="F1740">
         <v>0</v>
@@ -80999,16 +80747,16 @@
         <v>2011</v>
       </c>
       <c r="I1740" t="s">
-        <v>369</v>
+        <v>553</v>
       </c>
       <c r="J1740" t="s">
         <v>2012</v>
       </c>
       <c r="K1740">
-        <v>2799781235.3</v>
+        <v>2730493228.3</v>
       </c>
       <c r="L1740">
-        <v>2799781235.3</v>
+        <v>2730493228.3</v>
       </c>
       <c r="M1740" t="s">
         <v>60</v>
@@ -81019,38 +80767,38 @@
     </row>
     <row r="1741" spans="1:15">
       <c r="A1741">
-        <v>76476</v>
+        <v>76515</v>
       </c>
       <c r="B1741">
-        <v>101010204</v>
+        <v>101010101</v>
       </c>
       <c r="C1741" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D1741">
-        <v>2500000.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="E1741">
         <v>0.0</v>
       </c>
       <c r="F1741">
-        <v>2500000.0</v>
+        <v>0</v>
       </c>
       <c r="G1741"/>
       <c r="H1741" t="s">
         <v>2014</v>
       </c>
       <c r="I1741" t="s">
-        <v>360</v>
+        <v>553</v>
       </c>
       <c r="J1741" t="s">
         <v>2015</v>
       </c>
       <c r="K1741">
-        <v>2802281235.3</v>
+        <v>2730478228.3</v>
       </c>
       <c r="L1741">
-        <v>2799781235.3</v>
+        <v>2730493228.3</v>
       </c>
       <c r="M1741" t="s">
         <v>60</v>
@@ -81061,13 +80809,13 @@
     </row>
     <row r="1742" spans="1:15">
       <c r="A1742">
-        <v>76477</v>
+        <v>76516</v>
       </c>
       <c r="B1742">
         <v>403010100</v>
       </c>
       <c r="C1742" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D1742">
         <v>0.0</v>
@@ -81083,16 +80831,16 @@
         <v>2014</v>
       </c>
       <c r="I1742" t="s">
-        <v>360</v>
+        <v>553</v>
       </c>
       <c r="J1742" t="s">
         <v>2015</v>
       </c>
       <c r="K1742">
-        <v>2802281235.3</v>
+        <v>2730478228.3</v>
       </c>
       <c r="L1742">
-        <v>2799781235.3</v>
+        <v>2730493228.3</v>
       </c>
       <c r="M1742" t="s">
         <v>60</v>
@@ -81103,22 +80851,22 @@
     </row>
     <row r="1743" spans="1:15">
       <c r="A1743">
-        <v>76478</v>
+        <v>76517</v>
       </c>
       <c r="B1743">
         <v>101060202</v>
       </c>
       <c r="C1743" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D1743">
         <v>0.0</v>
       </c>
       <c r="E1743">
-        <v>2500000.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="F1743">
-        <v>0</v>
+        <v>15000.0</v>
       </c>
       <c r="G1743" t="s">
         <v>15</v>
@@ -81127,16 +80875,16 @@
         <v>2014</v>
       </c>
       <c r="I1743" t="s">
-        <v>360</v>
+        <v>553</v>
       </c>
       <c r="J1743" t="s">
         <v>2015</v>
       </c>
       <c r="K1743">
-        <v>2802281235.3</v>
+        <v>2730478228.3</v>
       </c>
       <c r="L1743">
-        <v>2802281235.3</v>
+        <v>2730478228.3</v>
       </c>
       <c r="M1743" t="s">
         <v>60</v>
@@ -81147,38 +80895,38 @@
     </row>
     <row r="1744" spans="1:15">
       <c r="A1744">
-        <v>76479</v>
+        <v>76518</v>
       </c>
       <c r="B1744">
         <v>101010204</v>
       </c>
       <c r="C1744" t="s">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="D1744">
-        <v>150000.0</v>
+        <v>1100000.0</v>
       </c>
       <c r="E1744">
         <v>0.0</v>
       </c>
       <c r="F1744">
-        <v>150000.0</v>
+        <v>1100000.0</v>
       </c>
       <c r="G1744"/>
       <c r="H1744" t="s">
         <v>2017</v>
       </c>
       <c r="I1744" t="s">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="J1744" t="s">
         <v>2018</v>
       </c>
       <c r="K1744">
-        <v>2802431235.3</v>
+        <v>2733445228.3</v>
       </c>
       <c r="L1744">
-        <v>2802281235.3</v>
+        <v>2732345228.3</v>
       </c>
       <c r="M1744" t="s">
         <v>60</v>
@@ -81189,40 +80937,38 @@
     </row>
     <row r="1745" spans="1:15">
       <c r="A1745">
-        <v>76480</v>
+        <v>76519</v>
       </c>
       <c r="B1745">
         <v>403010100</v>
       </c>
       <c r="C1745" t="s">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="D1745">
         <v>0.0</v>
       </c>
       <c r="E1745">
-        <v>150000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="F1745">
         <v>0</v>
       </c>
-      <c r="G1745" t="s">
-        <v>15</v>
-      </c>
+      <c r="G1745"/>
       <c r="H1745" t="s">
         <v>2017</v>
       </c>
       <c r="I1745" t="s">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="J1745" t="s">
         <v>2018</v>
       </c>
       <c r="K1745">
-        <v>2802431235.3</v>
+        <v>2733445228.3</v>
       </c>
       <c r="L1745">
-        <v>2802431235.3</v>
+        <v>2732545228.3</v>
       </c>
       <c r="M1745" t="s">
         <v>60</v>
@@ -81233,22 +80979,22 @@
     </row>
     <row r="1746" spans="1:15">
       <c r="A1746">
-        <v>76481</v>
+        <v>76520</v>
       </c>
       <c r="B1746">
-        <v>101060202</v>
+        <v>101060207</v>
       </c>
       <c r="C1746" t="s">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="D1746">
         <v>0.0</v>
       </c>
       <c r="E1746">
-        <v>0.0</v>
+        <v>900000.0</v>
       </c>
       <c r="F1746">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G1746" t="s">
         <v>15</v>
@@ -81257,16 +81003,16 @@
         <v>2017</v>
       </c>
       <c r="I1746" t="s">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="J1746" t="s">
         <v>2018</v>
       </c>
       <c r="K1746">
-        <v>2802431235.3</v>
+        <v>2733445228.3</v>
       </c>
       <c r="L1746">
-        <v>2802431235.3</v>
+        <v>2733445228.3</v>
       </c>
       <c r="M1746" t="s">
         <v>60</v>
@@ -81277,7 +81023,7 @@
     </row>
     <row r="1747" spans="1:15">
       <c r="A1747">
-        <v>76482</v>
+        <v>76521</v>
       </c>
       <c r="B1747">
         <v>101010204</v>
@@ -81286,29 +81032,29 @@
         <v>2020</v>
       </c>
       <c r="D1747">
-        <v>3734000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="E1747">
         <v>0.0</v>
       </c>
       <c r="F1747">
-        <v>3734000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="G1747"/>
       <c r="H1747" t="s">
         <v>2021</v>
       </c>
       <c r="I1747" t="s">
-        <v>255</v>
+        <v>926</v>
       </c>
       <c r="J1747" t="s">
         <v>2022</v>
       </c>
       <c r="K1747">
-        <v>2806770235.3</v>
+        <v>2734945228.3</v>
       </c>
       <c r="L1747">
-        <v>2803036235.3</v>
+        <v>2733445228.3</v>
       </c>
       <c r="M1747" t="s">
         <v>60</v>
@@ -81319,7 +81065,7 @@
     </row>
     <row r="1748" spans="1:15">
       <c r="A1748">
-        <v>76483</v>
+        <v>76522</v>
       </c>
       <c r="B1748">
         <v>403010100</v>
@@ -81331,7 +81077,7 @@
         <v>0.0</v>
       </c>
       <c r="E1748">
-        <v>400000.0</v>
+        <v>750000.0</v>
       </c>
       <c r="F1748">
         <v>0</v>
@@ -81341,16 +81087,16 @@
         <v>2021</v>
       </c>
       <c r="I1748" t="s">
-        <v>255</v>
+        <v>926</v>
       </c>
       <c r="J1748" t="s">
         <v>2022</v>
       </c>
       <c r="K1748">
-        <v>2806770235.3</v>
+        <v>2734945228.3</v>
       </c>
       <c r="L1748">
-        <v>2803436235.3</v>
+        <v>2734195228.3</v>
       </c>
       <c r="M1748" t="s">
         <v>60</v>
@@ -81361,7 +81107,7 @@
     </row>
     <row r="1749" spans="1:15">
       <c r="A1749">
-        <v>76484</v>
+        <v>76523</v>
       </c>
       <c r="B1749">
         <v>101060202</v>
@@ -81373,7 +81119,7 @@
         <v>0.0</v>
       </c>
       <c r="E1749">
-        <v>3334000.0</v>
+        <v>750000.0</v>
       </c>
       <c r="F1749">
         <v>0</v>
@@ -81385,16 +81131,16 @@
         <v>2021</v>
       </c>
       <c r="I1749" t="s">
-        <v>255</v>
+        <v>926</v>
       </c>
       <c r="J1749" t="s">
         <v>2022</v>
       </c>
       <c r="K1749">
-        <v>2806770235.3</v>
+        <v>2734945228.3</v>
       </c>
       <c r="L1749">
-        <v>2806770235.3</v>
+        <v>2734945228.3</v>
       </c>
       <c r="M1749" t="s">
         <v>60</v>
@@ -81405,61 +81151,61 @@
     </row>
     <row r="1750" spans="1:15">
       <c r="A1750">
-        <v>76485</v>
+        <v>76524</v>
       </c>
       <c r="B1750">
         <v>101010204</v>
       </c>
       <c r="C1750" t="s">
-        <v>2020</v>
+        <v>1989</v>
       </c>
       <c r="D1750">
-        <v>1350000.0</v>
+        <v>2209000.0</v>
       </c>
       <c r="E1750">
         <v>0.0</v>
       </c>
       <c r="F1750">
-        <v>1350000.0</v>
+        <v>2209000.0</v>
       </c>
       <c r="G1750"/>
       <c r="H1750" t="s">
         <v>2024</v>
       </c>
       <c r="I1750" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1750" t="s">
         <v>2025</v>
       </c>
-      <c r="J1750" t="s">
+      <c r="K1750">
+        <v>2790004228.3</v>
+      </c>
+      <c r="L1750">
+        <v>2787795228.3</v>
+      </c>
+      <c r="M1750" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1750" t="s">
         <v>2026</v>
-      </c>
-      <c r="K1750">
-        <v>2808120235.3</v>
-      </c>
-      <c r="L1750">
-        <v>2806770235.3</v>
-      </c>
-      <c r="M1750" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1750" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="1751" spans="1:15">
       <c r="A1751">
-        <v>76486</v>
+        <v>76525</v>
       </c>
       <c r="B1751">
         <v>403010100</v>
       </c>
       <c r="C1751" t="s">
-        <v>2020</v>
+        <v>1989</v>
       </c>
       <c r="D1751">
         <v>0.0</v>
       </c>
       <c r="E1751">
-        <v>150000.0</v>
+        <v>125000.0</v>
       </c>
       <c r="F1751">
         <v>0</v>
@@ -81469,39 +81215,39 @@
         <v>2024</v>
       </c>
       <c r="I1751" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1751" t="s">
         <v>2025</v>
       </c>
-      <c r="J1751" t="s">
+      <c r="K1751">
+        <v>2790004228.3</v>
+      </c>
+      <c r="L1751">
+        <v>2787920228.3</v>
+      </c>
+      <c r="M1751" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1751" t="s">
         <v>2026</v>
-      </c>
-      <c r="K1751">
-        <v>2808120235.3</v>
-      </c>
-      <c r="L1751">
-        <v>2806920235.3</v>
-      </c>
-      <c r="M1751" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1751" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="1752" spans="1:15">
       <c r="A1752">
-        <v>76487</v>
+        <v>76526</v>
       </c>
       <c r="B1752">
         <v>101060202</v>
       </c>
       <c r="C1752" t="s">
-        <v>2020</v>
+        <v>1989</v>
       </c>
       <c r="D1752">
         <v>0.0</v>
       </c>
       <c r="E1752">
-        <v>1200000.0</v>
+        <v>2084000.0</v>
       </c>
       <c r="F1752">
         <v>0</v>
@@ -81513,123 +81259,123 @@
         <v>2024</v>
       </c>
       <c r="I1752" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1752" t="s">
         <v>2025</v>
       </c>
-      <c r="J1752" t="s">
+      <c r="K1752">
+        <v>2790004228.3</v>
+      </c>
+      <c r="L1752">
+        <v>2790004228.3</v>
+      </c>
+      <c r="M1752" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1752" t="s">
         <v>2026</v>
-      </c>
-      <c r="K1752">
-        <v>2808120235.3</v>
-      </c>
-      <c r="L1752">
-        <v>2808120235.3</v>
-      </c>
-      <c r="M1752" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1752" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="1753" spans="1:15">
       <c r="A1753">
-        <v>76488</v>
+        <v>76530</v>
       </c>
       <c r="B1753">
         <v>101010204</v>
       </c>
       <c r="C1753" t="s">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="D1753">
-        <v>2500000.0</v>
+        <v>3500000.0</v>
       </c>
       <c r="E1753">
         <v>0.0</v>
       </c>
       <c r="F1753">
-        <v>2500000.0</v>
+        <v>3500000.0</v>
       </c>
       <c r="G1753"/>
       <c r="H1753" t="s">
+        <v>2027</v>
+      </c>
+      <c r="I1753" t="s">
+        <v>352</v>
+      </c>
+      <c r="J1753" t="s">
         <v>2028</v>
       </c>
-      <c r="I1753" t="s">
-        <v>234</v>
-      </c>
-      <c r="J1753" t="s">
+      <c r="K1753">
+        <v>2782145228.3</v>
+      </c>
+      <c r="L1753">
+        <v>2778645228.3</v>
+      </c>
+      <c r="M1753" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1753" t="s">
         <v>2029</v>
-      </c>
-      <c r="K1753">
-        <v>2810620235.3</v>
-      </c>
-      <c r="L1753">
-        <v>2808120235.3</v>
-      </c>
-      <c r="M1753" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1753" t="s">
-        <v>2030</v>
       </c>
     </row>
     <row r="1754" spans="1:15">
       <c r="A1754">
-        <v>76489</v>
+        <v>76531</v>
       </c>
       <c r="B1754">
         <v>403010100</v>
       </c>
       <c r="C1754" t="s">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="D1754">
         <v>0.0</v>
       </c>
       <c r="E1754">
-        <v>250000.0</v>
+        <v>750000.0</v>
       </c>
       <c r="F1754">
         <v>0</v>
       </c>
       <c r="G1754"/>
       <c r="H1754" t="s">
+        <v>2027</v>
+      </c>
+      <c r="I1754" t="s">
+        <v>352</v>
+      </c>
+      <c r="J1754" t="s">
         <v>2028</v>
       </c>
-      <c r="I1754" t="s">
-        <v>234</v>
-      </c>
-      <c r="J1754" t="s">
+      <c r="K1754">
+        <v>2782145228.3</v>
+      </c>
+      <c r="L1754">
+        <v>2779395228.3</v>
+      </c>
+      <c r="M1754" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1754" t="s">
         <v>2029</v>
-      </c>
-      <c r="K1754">
-        <v>2810620235.3</v>
-      </c>
-      <c r="L1754">
-        <v>2808370235.3</v>
-      </c>
-      <c r="M1754" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1754" t="s">
-        <v>2030</v>
       </c>
     </row>
     <row r="1755" spans="1:15">
       <c r="A1755">
-        <v>76490</v>
+        <v>76532</v>
       </c>
       <c r="B1755">
-        <v>101060202</v>
+        <v>101060203</v>
       </c>
       <c r="C1755" t="s">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="D1755">
         <v>0.0</v>
       </c>
       <c r="E1755">
-        <v>2250000.0</v>
+        <v>2750000.0</v>
       </c>
       <c r="F1755">
         <v>0</v>
@@ -81638,126 +81384,126 @@
         <v>15</v>
       </c>
       <c r="H1755" t="s">
+        <v>2027</v>
+      </c>
+      <c r="I1755" t="s">
+        <v>352</v>
+      </c>
+      <c r="J1755" t="s">
         <v>2028</v>
       </c>
-      <c r="I1755" t="s">
-        <v>234</v>
-      </c>
-      <c r="J1755" t="s">
+      <c r="K1755">
+        <v>2782145228.3</v>
+      </c>
+      <c r="L1755">
+        <v>2782145228.3</v>
+      </c>
+      <c r="M1755" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1755" t="s">
         <v>2029</v>
-      </c>
-      <c r="K1755">
-        <v>2810620235.3</v>
-      </c>
-      <c r="L1755">
-        <v>2810620235.3</v>
-      </c>
-      <c r="M1755" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1755" t="s">
-        <v>2030</v>
       </c>
     </row>
     <row r="1756" spans="1:15">
       <c r="A1756">
-        <v>76491</v>
+        <v>76533</v>
       </c>
       <c r="B1756">
         <v>101010204</v>
       </c>
       <c r="C1756" t="s">
-        <v>2031</v>
+        <v>1982</v>
       </c>
       <c r="D1756">
-        <v>1105000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="E1756">
         <v>0.0</v>
       </c>
       <c r="F1756">
-        <v>1105000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="G1756"/>
       <c r="H1756" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1756" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J1756" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K1756">
+        <v>2726078228.3</v>
+      </c>
+      <c r="L1756">
+        <v>2723078228.3</v>
+      </c>
+      <c r="M1756" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1756" t="s">
         <v>2032</v>
-      </c>
-      <c r="I1756" t="s">
-        <v>251</v>
-      </c>
-      <c r="J1756" t="s">
-        <v>2033</v>
-      </c>
-      <c r="K1756">
-        <v>2811725235.3</v>
-      </c>
-      <c r="L1756">
-        <v>2810620235.3</v>
-      </c>
-      <c r="M1756" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1756" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="1757" spans="1:15">
       <c r="A1757">
-        <v>76492</v>
+        <v>76534</v>
       </c>
       <c r="B1757">
         <v>403010100</v>
       </c>
       <c r="C1757" t="s">
-        <v>2031</v>
+        <v>1982</v>
       </c>
       <c r="D1757">
         <v>0.0</v>
       </c>
       <c r="E1757">
-        <v>62500.0</v>
+        <v>262500.0</v>
       </c>
       <c r="F1757">
         <v>0</v>
       </c>
       <c r="G1757"/>
       <c r="H1757" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1757" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J1757" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K1757">
+        <v>2726078228.3</v>
+      </c>
+      <c r="L1757">
+        <v>2723340728.3</v>
+      </c>
+      <c r="M1757" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1757" t="s">
         <v>2032</v>
-      </c>
-      <c r="I1757" t="s">
-        <v>251</v>
-      </c>
-      <c r="J1757" t="s">
-        <v>2033</v>
-      </c>
-      <c r="K1757">
-        <v>2811725235.3</v>
-      </c>
-      <c r="L1757">
-        <v>2810682735.3</v>
-      </c>
-      <c r="M1757" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1757" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="1758" spans="1:15">
       <c r="A1758">
-        <v>76493</v>
+        <v>76535</v>
       </c>
       <c r="B1758">
-        <v>101060201</v>
+        <v>101060207</v>
       </c>
       <c r="C1758" t="s">
-        <v>2031</v>
+        <v>1982</v>
       </c>
       <c r="D1758">
         <v>0.0</v>
       </c>
       <c r="E1758">
-        <v>1042500.0</v>
+        <v>2737500.0</v>
       </c>
       <c r="F1758">
         <v>0</v>
@@ -81766,126 +81512,126 @@
         <v>15</v>
       </c>
       <c r="H1758" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1758" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J1758" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K1758">
+        <v>2726078228.3</v>
+      </c>
+      <c r="L1758">
+        <v>2726078228.3</v>
+      </c>
+      <c r="M1758" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1758" t="s">
         <v>2032</v>
-      </c>
-      <c r="I1758" t="s">
-        <v>251</v>
-      </c>
-      <c r="J1758" t="s">
-        <v>2033</v>
-      </c>
-      <c r="K1758">
-        <v>2811725235.3</v>
-      </c>
-      <c r="L1758">
-        <v>2811725235.3</v>
-      </c>
-      <c r="M1758" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1758" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="1759" spans="1:15">
       <c r="A1759">
-        <v>76494</v>
+        <v>76536</v>
       </c>
       <c r="B1759">
         <v>101010204</v>
       </c>
       <c r="C1759" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="D1759">
-        <v>1867000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="E1759">
         <v>0.0</v>
       </c>
       <c r="F1759">
-        <v>1867000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="G1759"/>
       <c r="H1759" t="s">
+        <v>2033</v>
+      </c>
+      <c r="I1759" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1759" t="s">
+        <v>2034</v>
+      </c>
+      <c r="K1759">
+        <v>2735245228.3</v>
+      </c>
+      <c r="L1759">
+        <v>2734945228.3</v>
+      </c>
+      <c r="M1759" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1759" t="s">
         <v>2035</v>
-      </c>
-      <c r="I1759" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1759" t="s">
-        <v>2036</v>
-      </c>
-      <c r="K1759">
-        <v>2813592235.3</v>
-      </c>
-      <c r="L1759">
-        <v>2811725235.3</v>
-      </c>
-      <c r="M1759" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1759" t="s">
-        <v>2037</v>
       </c>
     </row>
     <row r="1760" spans="1:15">
       <c r="A1760">
-        <v>76495</v>
+        <v>76537</v>
       </c>
       <c r="B1760">
         <v>403010100</v>
       </c>
       <c r="C1760" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="D1760">
         <v>0.0</v>
       </c>
       <c r="E1760">
-        <v>200000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F1760">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G1760"/>
       <c r="H1760" t="s">
+        <v>2033</v>
+      </c>
+      <c r="I1760" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1760" t="s">
+        <v>2034</v>
+      </c>
+      <c r="K1760">
+        <v>2735245228.3</v>
+      </c>
+      <c r="L1760">
+        <v>2734945228.3</v>
+      </c>
+      <c r="M1760" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1760" t="s">
         <v>2035</v>
-      </c>
-      <c r="I1760" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1760" t="s">
-        <v>2036</v>
-      </c>
-      <c r="K1760">
-        <v>2813592235.3</v>
-      </c>
-      <c r="L1760">
-        <v>2811925235.3</v>
-      </c>
-      <c r="M1760" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1760" t="s">
-        <v>2037</v>
       </c>
     </row>
     <row r="1761" spans="1:15">
       <c r="A1761">
-        <v>76496</v>
+        <v>76538</v>
       </c>
       <c r="B1761">
-        <v>101060207</v>
+        <v>101060202</v>
       </c>
       <c r="C1761" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="D1761">
         <v>0.0</v>
       </c>
       <c r="E1761">
-        <v>1667000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="F1761">
         <v>0</v>
@@ -81894,126 +81640,126 @@
         <v>15</v>
       </c>
       <c r="H1761" t="s">
+        <v>2033</v>
+      </c>
+      <c r="I1761" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1761" t="s">
+        <v>2034</v>
+      </c>
+      <c r="K1761">
+        <v>2735245228.3</v>
+      </c>
+      <c r="L1761">
+        <v>2735245228.3</v>
+      </c>
+      <c r="M1761" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1761" t="s">
         <v>2035</v>
-      </c>
-      <c r="I1761" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1761" t="s">
-        <v>2036</v>
-      </c>
-      <c r="K1761">
-        <v>2813592235.3</v>
-      </c>
-      <c r="L1761">
-        <v>2813592235.3</v>
-      </c>
-      <c r="M1761" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1761" t="s">
-        <v>2037</v>
       </c>
     </row>
     <row r="1762" spans="1:15">
       <c r="A1762">
-        <v>76497</v>
+        <v>76561</v>
       </c>
       <c r="B1762">
-        <v>101010204</v>
+        <v>101010101</v>
       </c>
       <c r="C1762" t="s">
-        <v>2031</v>
+        <v>1958</v>
       </c>
       <c r="D1762">
-        <v>4200000.0</v>
+        <v>10238000.0</v>
       </c>
       <c r="E1762">
         <v>0.0</v>
       </c>
       <c r="F1762">
-        <v>4200000.0</v>
+        <v>10238000.0</v>
       </c>
       <c r="G1762"/>
       <c r="H1762" t="s">
+        <v>2036</v>
+      </c>
+      <c r="I1762" t="s">
+        <v>603</v>
+      </c>
+      <c r="J1762" t="s">
+        <v>2037</v>
+      </c>
+      <c r="K1762">
+        <v>2714434228.3</v>
+      </c>
+      <c r="L1762">
+        <v>2704196228.3</v>
+      </c>
+      <c r="M1762" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1762" t="s">
         <v>2038</v>
-      </c>
-      <c r="I1762" t="s">
-        <v>347</v>
-      </c>
-      <c r="J1762" t="s">
-        <v>2039</v>
-      </c>
-      <c r="K1762">
-        <v>2817792235.3</v>
-      </c>
-      <c r="L1762">
-        <v>2813592235.3</v>
-      </c>
-      <c r="M1762" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1762" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="1763" spans="1:15">
       <c r="A1763">
-        <v>76498</v>
+        <v>76562</v>
       </c>
       <c r="B1763">
         <v>403010100</v>
       </c>
       <c r="C1763" t="s">
-        <v>2031</v>
+        <v>1958</v>
       </c>
       <c r="D1763">
         <v>0.0</v>
       </c>
       <c r="E1763">
-        <v>450000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F1763">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G1763"/>
       <c r="H1763" t="s">
+        <v>2036</v>
+      </c>
+      <c r="I1763" t="s">
+        <v>603</v>
+      </c>
+      <c r="J1763" t="s">
+        <v>2037</v>
+      </c>
+      <c r="K1763">
+        <v>2714434228.3</v>
+      </c>
+      <c r="L1763">
+        <v>2704196228.3</v>
+      </c>
+      <c r="M1763" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1763" t="s">
         <v>2038</v>
-      </c>
-      <c r="I1763" t="s">
-        <v>347</v>
-      </c>
-      <c r="J1763" t="s">
-        <v>2039</v>
-      </c>
-      <c r="K1763">
-        <v>2817792235.3</v>
-      </c>
-      <c r="L1763">
-        <v>2814042235.3</v>
-      </c>
-      <c r="M1763" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1763" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="1764" spans="1:15">
       <c r="A1764">
-        <v>76499</v>
+        <v>76563</v>
       </c>
       <c r="B1764">
         <v>101060202</v>
       </c>
       <c r="C1764" t="s">
-        <v>2031</v>
+        <v>1958</v>
       </c>
       <c r="D1764">
         <v>0.0</v>
       </c>
       <c r="E1764">
-        <v>3750000.0</v>
+        <v>10238000.0</v>
       </c>
       <c r="F1764">
         <v>0</v>
@@ -82022,147 +81768,147 @@
         <v>15</v>
       </c>
       <c r="H1764" t="s">
+        <v>2036</v>
+      </c>
+      <c r="I1764" t="s">
+        <v>603</v>
+      </c>
+      <c r="J1764" t="s">
+        <v>2037</v>
+      </c>
+      <c r="K1764">
+        <v>2714434228.3</v>
+      </c>
+      <c r="L1764">
+        <v>2714434228.3</v>
+      </c>
+      <c r="M1764" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1764" t="s">
         <v>2038</v>
-      </c>
-      <c r="I1764" t="s">
-        <v>347</v>
-      </c>
-      <c r="J1764" t="s">
-        <v>2039</v>
-      </c>
-      <c r="K1764">
-        <v>2817792235.3</v>
-      </c>
-      <c r="L1764">
-        <v>2817792235.3</v>
-      </c>
-      <c r="M1764" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1764" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="1765" spans="1:15">
       <c r="A1765">
-        <v>76500</v>
+        <v>76564</v>
       </c>
       <c r="B1765">
-        <v>101010204</v>
+        <v>101120000</v>
       </c>
       <c r="C1765" t="s">
-        <v>1982</v>
+        <v>1920</v>
       </c>
       <c r="D1765">
-        <v>2800000.0</v>
+        <v>65000000.0</v>
       </c>
       <c r="E1765">
         <v>0.0</v>
       </c>
       <c r="F1765">
-        <v>2800000.0</v>
+        <v>65000000.0</v>
       </c>
       <c r="G1765"/>
       <c r="H1765" t="s">
+        <v>414</v>
+      </c>
+      <c r="I1765" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J1765" t="s">
+        <v>2040</v>
+      </c>
+      <c r="K1765">
+        <v>2621128728.3</v>
+      </c>
+      <c r="L1765">
+        <v>2556128728.3</v>
+      </c>
+      <c r="M1765" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1765" t="s">
         <v>2041</v>
-      </c>
-      <c r="I1765" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1765" t="s">
-        <v>2042</v>
-      </c>
-      <c r="K1765">
-        <v>2723078228.3</v>
-      </c>
-      <c r="L1765">
-        <v>2720278228.3</v>
-      </c>
-      <c r="M1765" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1765" t="s">
-        <v>2043</v>
       </c>
     </row>
     <row r="1766" spans="1:15">
       <c r="A1766">
-        <v>76501</v>
+        <v>76565</v>
       </c>
       <c r="B1766">
-        <v>403010100</v>
+        <v>101010101</v>
       </c>
       <c r="C1766" t="s">
-        <v>1982</v>
+        <v>1920</v>
       </c>
       <c r="D1766">
         <v>0.0</v>
       </c>
       <c r="E1766">
-        <v>300000.0</v>
+        <v>65000000.0</v>
       </c>
       <c r="F1766">
         <v>0</v>
       </c>
-      <c r="G1766"/>
+      <c r="G1766" t="s">
+        <v>15</v>
+      </c>
       <c r="H1766" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1766" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J1766" t="s">
+        <v>2040</v>
+      </c>
+      <c r="K1766">
+        <v>2621128728.3</v>
+      </c>
+      <c r="L1766">
+        <v>2621128728.3</v>
+      </c>
+      <c r="M1766" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1766" t="s">
         <v>2041</v>
-      </c>
-      <c r="I1766" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1766" t="s">
-        <v>2042</v>
-      </c>
-      <c r="K1766">
-        <v>2723078228.3</v>
-      </c>
-      <c r="L1766">
-        <v>2720578228.3</v>
-      </c>
-      <c r="M1766" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1766" t="s">
-        <v>2043</v>
       </c>
     </row>
     <row r="1767" spans="1:15">
       <c r="A1767">
-        <v>76502</v>
+        <v>76566</v>
       </c>
       <c r="B1767">
-        <v>101060202</v>
+        <v>101010204</v>
       </c>
       <c r="C1767" t="s">
-        <v>1982</v>
+        <v>1920</v>
       </c>
       <c r="D1767">
-        <v>0.0</v>
+        <v>65000000.0</v>
       </c>
       <c r="E1767">
-        <v>2500000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F1767">
-        <v>0</v>
-      </c>
-      <c r="G1767" t="s">
-        <v>15</v>
-      </c>
+        <v>65000000.0</v>
+      </c>
+      <c r="G1767"/>
       <c r="H1767" t="s">
-        <v>2041</v>
+        <v>407</v>
       </c>
       <c r="I1767" t="s">
-        <v>338</v>
+        <v>2039</v>
       </c>
       <c r="J1767" t="s">
         <v>2042</v>
       </c>
       <c r="K1767">
-        <v>2723078228.3</v>
+        <v>2686128728.3</v>
       </c>
       <c r="L1767">
-        <v>2723078228.3</v>
+        <v>2621128728.3</v>
       </c>
       <c r="M1767" t="s">
         <v>60</v>
@@ -82173,103 +81919,105 @@
     </row>
     <row r="1768" spans="1:15">
       <c r="A1768">
-        <v>76503</v>
+        <v>76567</v>
       </c>
       <c r="B1768">
-        <v>101010204</v>
+        <v>101120000</v>
       </c>
       <c r="C1768" t="s">
-        <v>2044</v>
+        <v>1920</v>
       </c>
       <c r="D1768">
-        <v>1867000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E1768">
-        <v>0.0</v>
+        <v>65000000.0</v>
       </c>
       <c r="F1768">
-        <v>1867000.0</v>
-      </c>
-      <c r="G1768"/>
+        <v>0</v>
+      </c>
+      <c r="G1768" t="s">
+        <v>15</v>
+      </c>
       <c r="H1768" t="s">
-        <v>2045</v>
+        <v>414</v>
       </c>
       <c r="I1768" t="s">
-        <v>217</v>
+        <v>2039</v>
       </c>
       <c r="J1768" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="K1768">
-        <v>2732345228.3</v>
+        <v>2686128728.3</v>
       </c>
       <c r="L1768">
-        <v>2730478228.3</v>
+        <v>2686128728.3</v>
       </c>
       <c r="M1768" t="s">
         <v>60</v>
       </c>
       <c r="N1768" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1769" spans="1:15">
       <c r="A1769">
-        <v>76504</v>
+        <v>76572</v>
       </c>
       <c r="B1769">
-        <v>403010100</v>
+        <v>101010204</v>
       </c>
       <c r="C1769" t="s">
-        <v>2044</v>
+        <v>2020</v>
       </c>
       <c r="D1769">
-        <v>0.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="E1769">
-        <v>200000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F1769">
-        <v>0</v>
+        <v>20000000.0</v>
       </c>
       <c r="G1769"/>
       <c r="H1769" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1769" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J1769" t="s">
+        <v>2044</v>
+      </c>
+      <c r="K1769">
+        <v>2755245228.3</v>
+      </c>
+      <c r="L1769">
+        <v>2735245228.3</v>
+      </c>
+      <c r="M1769" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1769" t="s">
         <v>2045</v>
-      </c>
-      <c r="I1769" t="s">
-        <v>217</v>
-      </c>
-      <c r="J1769" t="s">
-        <v>2046</v>
-      </c>
-      <c r="K1769">
-        <v>2732345228.3</v>
-      </c>
-      <c r="L1769">
-        <v>2730678228.3</v>
-      </c>
-      <c r="M1769" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1769" t="s">
-        <v>2047</v>
       </c>
     </row>
     <row r="1770" spans="1:15">
       <c r="A1770">
-        <v>76505</v>
+        <v>76573</v>
       </c>
       <c r="B1770">
-        <v>101060202</v>
+        <v>101120000</v>
       </c>
       <c r="C1770" t="s">
-        <v>2044</v>
+        <v>2020</v>
       </c>
       <c r="D1770">
         <v>0.0</v>
       </c>
       <c r="E1770">
-        <v>1667000.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="F1770">
         <v>0</v>
@@ -82278,100 +82026,102 @@
         <v>15</v>
       </c>
       <c r="H1770" t="s">
+        <v>414</v>
+      </c>
+      <c r="I1770" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J1770" t="s">
+        <v>2044</v>
+      </c>
+      <c r="K1770">
+        <v>2755245228.3</v>
+      </c>
+      <c r="L1770">
+        <v>2755245228.3</v>
+      </c>
+      <c r="M1770" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1770" t="s">
         <v>2045</v>
-      </c>
-      <c r="I1770" t="s">
-        <v>217</v>
-      </c>
-      <c r="J1770" t="s">
-        <v>2046</v>
-      </c>
-      <c r="K1770">
-        <v>2732345228.3</v>
-      </c>
-      <c r="L1770">
-        <v>2732345228.3</v>
-      </c>
-      <c r="M1770" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1770" t="s">
-        <v>2047</v>
       </c>
     </row>
     <row r="1771" spans="1:15">
       <c r="A1771">
-        <v>76506</v>
+        <v>76574</v>
       </c>
       <c r="B1771">
-        <v>101010204</v>
+        <v>101120000</v>
       </c>
       <c r="C1771" t="s">
-        <v>2048</v>
+        <v>2020</v>
       </c>
       <c r="D1771">
-        <v>3400000.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="E1771">
         <v>0.0</v>
       </c>
       <c r="F1771">
-        <v>3400000.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="G1771"/>
       <c r="H1771" t="s">
-        <v>2049</v>
+        <v>414</v>
       </c>
       <c r="I1771" t="s">
-        <v>356</v>
+        <v>2039</v>
       </c>
       <c r="J1771" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="K1771">
-        <v>2778645228.3</v>
+        <v>2775245228.3</v>
       </c>
       <c r="L1771">
-        <v>2775245228.3</v>
+        <v>2755245228.3</v>
       </c>
       <c r="M1771" t="s">
         <v>60</v>
       </c>
       <c r="N1771" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1772" spans="1:15">
       <c r="A1772">
-        <v>76507</v>
+        <v>76575</v>
       </c>
       <c r="B1772">
-        <v>403010100</v>
+        <v>101010101</v>
       </c>
       <c r="C1772" t="s">
-        <v>2048</v>
+        <v>2020</v>
       </c>
       <c r="D1772">
         <v>0.0</v>
       </c>
       <c r="E1772">
-        <v>0.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="F1772">
-        <v>0.0</v>
-      </c>
-      <c r="G1772"/>
+        <v>0</v>
+      </c>
+      <c r="G1772" t="s">
+        <v>15</v>
+      </c>
       <c r="H1772" t="s">
-        <v>2049</v>
+        <v>415</v>
       </c>
       <c r="I1772" t="s">
-        <v>356</v>
+        <v>2039</v>
       </c>
       <c r="J1772" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="K1772">
-        <v>2778645228.3</v>
+        <v>2775245228.3</v>
       </c>
       <c r="L1772">
         <v>2775245228.3</v>
@@ -82380,3055 +82130,267 @@
         <v>60</v>
       </c>
       <c r="N1772" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1773" spans="1:15">
       <c r="A1773">
-        <v>76508</v>
+        <v>76576</v>
       </c>
       <c r="B1773">
-        <v>101060203</v>
+        <v>407010000</v>
       </c>
       <c r="C1773" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D1773">
+        <v>200000.0</v>
+      </c>
+      <c r="E1773">
+        <v>0.0</v>
+      </c>
+      <c r="F1773">
+        <v>200000.0</v>
+      </c>
+      <c r="G1773"/>
+      <c r="H1773" t="s">
+        <v>403</v>
+      </c>
+      <c r="I1773" t="s">
         <v>2048</v>
       </c>
-      <c r="D1773">
-        <v>0.0</v>
-      </c>
-      <c r="E1773">
-        <v>3400000.0</v>
-      </c>
-      <c r="F1773">
-        <v>0</v>
-      </c>
-      <c r="G1773" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1773" t="s">
+      <c r="J1773" t="s">
         <v>2049</v>
       </c>
-      <c r="I1773" t="s">
-        <v>356</v>
-      </c>
-      <c r="J1773" t="s">
+      <c r="K1773">
+        <v>2689328728.3</v>
+      </c>
+      <c r="L1773">
+        <v>2689128728.3</v>
+      </c>
+      <c r="M1773" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1773" t="s">
         <v>2050</v>
-      </c>
-      <c r="K1773">
-        <v>2778645228.3</v>
-      </c>
-      <c r="L1773">
-        <v>2778645228.3</v>
-      </c>
-      <c r="M1773" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1773" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="1774" spans="1:15">
       <c r="A1774">
-        <v>76509</v>
+        <v>76577</v>
       </c>
       <c r="B1774">
         <v>101010204</v>
       </c>
       <c r="C1774" t="s">
-        <v>2007</v>
+        <v>1936</v>
       </c>
       <c r="D1774">
-        <v>605000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E1774">
-        <v>0.0</v>
+        <v>200000.0</v>
       </c>
       <c r="F1774">
-        <v>605000.0</v>
-      </c>
-      <c r="G1774"/>
+        <v>0</v>
+      </c>
+      <c r="G1774" t="s">
+        <v>15</v>
+      </c>
       <c r="H1774" t="s">
-        <v>2052</v>
+        <v>407</v>
       </c>
       <c r="I1774" t="s">
-        <v>167</v>
+        <v>2048</v>
       </c>
       <c r="J1774" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="K1774">
-        <v>2803036235.3</v>
+        <v>2689328728.3</v>
       </c>
       <c r="L1774">
-        <v>2802431235.3</v>
+        <v>2689328728.3</v>
       </c>
       <c r="M1774" t="s">
         <v>60</v>
       </c>
       <c r="N1774" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1775" spans="1:15">
       <c r="A1775">
-        <v>76510</v>
+        <v>76578</v>
       </c>
       <c r="B1775">
-        <v>403010100</v>
+        <v>101010101</v>
       </c>
       <c r="C1775" t="s">
-        <v>2007</v>
+        <v>1821</v>
       </c>
       <c r="D1775">
         <v>0.0</v>
       </c>
       <c r="E1775">
-        <v>75000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F1775">
-        <v>0</v>
-      </c>
-      <c r="G1775"/>
+        <v>0.0</v>
+      </c>
+      <c r="G1775" t="s">
+        <v>15</v>
+      </c>
       <c r="H1775" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1775" t="s">
+        <v>2048</v>
+      </c>
+      <c r="J1775" t="s">
+        <v>2051</v>
+      </c>
+      <c r="K1775">
+        <v>2465233228.3</v>
+      </c>
+      <c r="L1775">
+        <v>2465233228.3</v>
+      </c>
+      <c r="M1775" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1775" t="s">
         <v>2052</v>
-      </c>
-      <c r="I1775" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1775" t="s">
-        <v>2053</v>
-      </c>
-      <c r="K1775">
-        <v>2803036235.3</v>
-      </c>
-      <c r="L1775">
-        <v>2802506235.3</v>
-      </c>
-      <c r="M1775" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1775" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="1776" spans="1:15">
       <c r="A1776">
-        <v>76511</v>
+        <v>76579</v>
       </c>
       <c r="B1776">
-        <v>101060206</v>
+        <v>407020000</v>
       </c>
       <c r="C1776" t="s">
-        <v>2007</v>
+        <v>1821</v>
       </c>
       <c r="D1776">
         <v>0.0</v>
       </c>
       <c r="E1776">
-        <v>530000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F1776">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G1776" t="s">
         <v>15</v>
       </c>
       <c r="H1776" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I1776" t="s">
+        <v>2048</v>
+      </c>
+      <c r="J1776" t="s">
+        <v>2051</v>
+      </c>
+      <c r="K1776">
+        <v>2465233228.3</v>
+      </c>
+      <c r="L1776">
+        <v>2465233228.3</v>
+      </c>
+      <c r="M1776" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1776" t="s">
         <v>2052</v>
-      </c>
-      <c r="I1776" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1776" t="s">
-        <v>2053</v>
-      </c>
-      <c r="K1776">
-        <v>2803036235.3</v>
-      </c>
-      <c r="L1776">
-        <v>2803036235.3</v>
-      </c>
-      <c r="M1776" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1776" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="1777" spans="1:15">
       <c r="A1777">
-        <v>76512</v>
+        <v>76582</v>
       </c>
       <c r="B1777">
         <v>101010204</v>
       </c>
       <c r="C1777" t="s">
-        <v>2055</v>
+        <v>1008</v>
       </c>
       <c r="D1777">
-        <v>4415000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="E1777">
         <v>0.0</v>
       </c>
       <c r="F1777">
-        <v>4415000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="G1777"/>
       <c r="H1777" t="s">
-        <v>2056</v>
+        <v>407</v>
       </c>
       <c r="I1777" t="s">
-        <v>553</v>
+        <v>2053</v>
       </c>
       <c r="J1777" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="K1777">
-        <v>2730493228.3</v>
+        <v>141443500.0</v>
       </c>
       <c r="L1777">
-        <v>2726078228.3</v>
+        <v>141143500.0</v>
       </c>
       <c r="M1777" t="s">
         <v>60</v>
       </c>
       <c r="N1777" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1778" spans="1:15">
       <c r="A1778">
-        <v>76513</v>
+        <v>76583</v>
       </c>
       <c r="B1778">
-        <v>403010100</v>
+        <v>103040207</v>
       </c>
       <c r="C1778" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D1778">
+        <v>0.0</v>
+      </c>
+      <c r="E1778">
+        <v>300000.0</v>
+      </c>
+      <c r="F1778">
+        <v>0</v>
+      </c>
+      <c r="G1778" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1778" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I1778" t="s">
+        <v>2056</v>
+      </c>
+      <c r="J1778" t="s">
+        <v>2054</v>
+      </c>
+      <c r="K1778">
+        <v>141443500.0</v>
+      </c>
+      <c r="L1778">
+        <v>141443500.0</v>
+      </c>
+      <c r="M1778" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1778" t="s">
         <v>2055</v>
-      </c>
-      <c r="D1778">
-        <v>0.0</v>
-      </c>
-      <c r="E1778">
-        <v>262500.0</v>
-      </c>
-      <c r="F1778">
-        <v>0</v>
-      </c>
-      <c r="G1778"/>
-      <c r="H1778" t="s">
-        <v>2056</v>
-      </c>
-      <c r="I1778" t="s">
-        <v>553</v>
-      </c>
-      <c r="J1778" t="s">
-        <v>2057</v>
-      </c>
-      <c r="K1778">
-        <v>2730493228.3</v>
-      </c>
-      <c r="L1778">
-        <v>2726340728.3</v>
-      </c>
-      <c r="M1778" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1778" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="1779" spans="1:15">
-      <c r="A1779">
-        <v>76514</v>
-      </c>
-      <c r="B1779">
-        <v>101060202</v>
-      </c>
-      <c r="C1779" t="s">
-        <v>2055</v>
-      </c>
-      <c r="D1779">
-        <v>0.0</v>
-      </c>
-      <c r="E1779">
-        <v>4152500.0</v>
-      </c>
-      <c r="F1779">
-        <v>0</v>
-      </c>
-      <c r="G1779" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1779" t="s">
-        <v>2056</v>
-      </c>
-      <c r="I1779" t="s">
-        <v>553</v>
-      </c>
-      <c r="J1779" t="s">
-        <v>2057</v>
-      </c>
-      <c r="K1779">
-        <v>2730493228.3</v>
-      </c>
-      <c r="L1779">
-        <v>2730493228.3</v>
-      </c>
-      <c r="M1779" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1779" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="1780" spans="1:15">
-      <c r="A1780">
-        <v>76515</v>
-      </c>
-      <c r="B1780">
-        <v>101010101</v>
-      </c>
-      <c r="C1780" t="s">
-        <v>2055</v>
-      </c>
-      <c r="D1780">
-        <v>-15000.0</v>
-      </c>
-      <c r="E1780">
-        <v>0.0</v>
-      </c>
-      <c r="F1780">
-        <v>0</v>
-      </c>
-      <c r="G1780"/>
-      <c r="H1780" t="s">
-        <v>2059</v>
-      </c>
-      <c r="I1780" t="s">
-        <v>553</v>
-      </c>
-      <c r="J1780" t="s">
-        <v>2060</v>
-      </c>
-      <c r="K1780">
-        <v>2730478228.3</v>
-      </c>
-      <c r="L1780">
-        <v>2730493228.3</v>
-      </c>
-      <c r="M1780" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1780" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="1781" spans="1:15">
-      <c r="A1781">
-        <v>76516</v>
-      </c>
-      <c r="B1781">
-        <v>403010100</v>
-      </c>
-      <c r="C1781" t="s">
-        <v>2055</v>
-      </c>
-      <c r="D1781">
-        <v>0.0</v>
-      </c>
-      <c r="E1781">
-        <v>0.0</v>
-      </c>
-      <c r="F1781">
-        <v>0.0</v>
-      </c>
-      <c r="G1781"/>
-      <c r="H1781" t="s">
-        <v>2059</v>
-      </c>
-      <c r="I1781" t="s">
-        <v>553</v>
-      </c>
-      <c r="J1781" t="s">
-        <v>2060</v>
-      </c>
-      <c r="K1781">
-        <v>2730478228.3</v>
-      </c>
-      <c r="L1781">
-        <v>2730493228.3</v>
-      </c>
-      <c r="M1781" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1781" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="1782" spans="1:15">
-      <c r="A1782">
-        <v>76517</v>
-      </c>
-      <c r="B1782">
-        <v>101060202</v>
-      </c>
-      <c r="C1782" t="s">
-        <v>2055</v>
-      </c>
-      <c r="D1782">
-        <v>0.0</v>
-      </c>
-      <c r="E1782">
-        <v>-15000.0</v>
-      </c>
-      <c r="F1782">
-        <v>15000.0</v>
-      </c>
-      <c r="G1782" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1782" t="s">
-        <v>2059</v>
-      </c>
-      <c r="I1782" t="s">
-        <v>553</v>
-      </c>
-      <c r="J1782" t="s">
-        <v>2060</v>
-      </c>
-      <c r="K1782">
-        <v>2730478228.3</v>
-      </c>
-      <c r="L1782">
-        <v>2730478228.3</v>
-      </c>
-      <c r="M1782" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1782" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:15">
-      <c r="A1783">
-        <v>76518</v>
-      </c>
-      <c r="B1783">
-        <v>101010204</v>
-      </c>
-      <c r="C1783" t="s">
-        <v>2044</v>
-      </c>
-      <c r="D1783">
-        <v>1100000.0</v>
-      </c>
-      <c r="E1783">
-        <v>0.0</v>
-      </c>
-      <c r="F1783">
-        <v>1100000.0</v>
-      </c>
-      <c r="G1783"/>
-      <c r="H1783" t="s">
-        <v>2062</v>
-      </c>
-      <c r="I1783" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1783" t="s">
-        <v>2063</v>
-      </c>
-      <c r="K1783">
-        <v>2733445228.3</v>
-      </c>
-      <c r="L1783">
-        <v>2732345228.3</v>
-      </c>
-      <c r="M1783" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1783" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="1784" spans="1:15">
-      <c r="A1784">
-        <v>76519</v>
-      </c>
-      <c r="B1784">
-        <v>403010100</v>
-      </c>
-      <c r="C1784" t="s">
-        <v>2044</v>
-      </c>
-      <c r="D1784">
-        <v>0.0</v>
-      </c>
-      <c r="E1784">
-        <v>200000.0</v>
-      </c>
-      <c r="F1784">
-        <v>0</v>
-      </c>
-      <c r="G1784"/>
-      <c r="H1784" t="s">
-        <v>2062</v>
-      </c>
-      <c r="I1784" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1784" t="s">
-        <v>2063</v>
-      </c>
-      <c r="K1784">
-        <v>2733445228.3</v>
-      </c>
-      <c r="L1784">
-        <v>2732545228.3</v>
-      </c>
-      <c r="M1784" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1784" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:15">
-      <c r="A1785">
-        <v>76520</v>
-      </c>
-      <c r="B1785">
-        <v>101060207</v>
-      </c>
-      <c r="C1785" t="s">
-        <v>2044</v>
-      </c>
-      <c r="D1785">
-        <v>0.0</v>
-      </c>
-      <c r="E1785">
-        <v>900000.0</v>
-      </c>
-      <c r="F1785">
-        <v>0</v>
-      </c>
-      <c r="G1785" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1785" t="s">
-        <v>2062</v>
-      </c>
-      <c r="I1785" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1785" t="s">
-        <v>2063</v>
-      </c>
-      <c r="K1785">
-        <v>2733445228.3</v>
-      </c>
-      <c r="L1785">
-        <v>2733445228.3</v>
-      </c>
-      <c r="M1785" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1785" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="1786" spans="1:15">
-      <c r="A1786">
-        <v>76521</v>
-      </c>
-      <c r="B1786">
-        <v>101010204</v>
-      </c>
-      <c r="C1786" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D1786">
-        <v>1500000.0</v>
-      </c>
-      <c r="E1786">
-        <v>0.0</v>
-      </c>
-      <c r="F1786">
-        <v>1500000.0</v>
-      </c>
-      <c r="G1786"/>
-      <c r="H1786" t="s">
-        <v>2066</v>
-      </c>
-      <c r="I1786" t="s">
-        <v>926</v>
-      </c>
-      <c r="J1786" t="s">
-        <v>2067</v>
-      </c>
-      <c r="K1786">
-        <v>2734945228.3</v>
-      </c>
-      <c r="L1786">
-        <v>2733445228.3</v>
-      </c>
-      <c r="M1786" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1786" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="1787" spans="1:15">
-      <c r="A1787">
-        <v>76522</v>
-      </c>
-      <c r="B1787">
-        <v>403010100</v>
-      </c>
-      <c r="C1787" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D1787">
-        <v>0.0</v>
-      </c>
-      <c r="E1787">
-        <v>750000.0</v>
-      </c>
-      <c r="F1787">
-        <v>0</v>
-      </c>
-      <c r="G1787"/>
-      <c r="H1787" t="s">
-        <v>2066</v>
-      </c>
-      <c r="I1787" t="s">
-        <v>926</v>
-      </c>
-      <c r="J1787" t="s">
-        <v>2067</v>
-      </c>
-      <c r="K1787">
-        <v>2734945228.3</v>
-      </c>
-      <c r="L1787">
-        <v>2734195228.3</v>
-      </c>
-      <c r="M1787" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1787" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="1788" spans="1:15">
-      <c r="A1788">
-        <v>76523</v>
-      </c>
-      <c r="B1788">
-        <v>101060202</v>
-      </c>
-      <c r="C1788" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D1788">
-        <v>0.0</v>
-      </c>
-      <c r="E1788">
-        <v>750000.0</v>
-      </c>
-      <c r="F1788">
-        <v>0</v>
-      </c>
-      <c r="G1788" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1788" t="s">
-        <v>2066</v>
-      </c>
-      <c r="I1788" t="s">
-        <v>926</v>
-      </c>
-      <c r="J1788" t="s">
-        <v>2067</v>
-      </c>
-      <c r="K1788">
-        <v>2734945228.3</v>
-      </c>
-      <c r="L1788">
-        <v>2734945228.3</v>
-      </c>
-      <c r="M1788" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1788" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="1789" spans="1:15">
-      <c r="A1789">
-        <v>76524</v>
-      </c>
-      <c r="B1789">
-        <v>101010204</v>
-      </c>
-      <c r="C1789" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D1789">
-        <v>2209000.0</v>
-      </c>
-      <c r="E1789">
-        <v>0.0</v>
-      </c>
-      <c r="F1789">
-        <v>2209000.0</v>
-      </c>
-      <c r="G1789"/>
-      <c r="H1789" t="s">
-        <v>2069</v>
-      </c>
-      <c r="I1789" t="s">
-        <v>309</v>
-      </c>
-      <c r="J1789" t="s">
-        <v>2070</v>
-      </c>
-      <c r="K1789">
-        <v>2790004228.3</v>
-      </c>
-      <c r="L1789">
-        <v>2787795228.3</v>
-      </c>
-      <c r="M1789" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1789" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="1790" spans="1:15">
-      <c r="A1790">
-        <v>76525</v>
-      </c>
-      <c r="B1790">
-        <v>403010100</v>
-      </c>
-      <c r="C1790" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D1790">
-        <v>0.0</v>
-      </c>
-      <c r="E1790">
-        <v>125000.0</v>
-      </c>
-      <c r="F1790">
-        <v>0</v>
-      </c>
-      <c r="G1790"/>
-      <c r="H1790" t="s">
-        <v>2069</v>
-      </c>
-      <c r="I1790" t="s">
-        <v>309</v>
-      </c>
-      <c r="J1790" t="s">
-        <v>2070</v>
-      </c>
-      <c r="K1790">
-        <v>2790004228.3</v>
-      </c>
-      <c r="L1790">
-        <v>2787920228.3</v>
-      </c>
-      <c r="M1790" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1790" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="1791" spans="1:15">
-      <c r="A1791">
-        <v>76526</v>
-      </c>
-      <c r="B1791">
-        <v>101060202</v>
-      </c>
-      <c r="C1791" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D1791">
-        <v>0.0</v>
-      </c>
-      <c r="E1791">
-        <v>2084000.0</v>
-      </c>
-      <c r="F1791">
-        <v>0</v>
-      </c>
-      <c r="G1791" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1791" t="s">
-        <v>2069</v>
-      </c>
-      <c r="I1791" t="s">
-        <v>309</v>
-      </c>
-      <c r="J1791" t="s">
-        <v>2070</v>
-      </c>
-      <c r="K1791">
-        <v>2790004228.3</v>
-      </c>
-      <c r="L1791">
-        <v>2790004228.3</v>
-      </c>
-      <c r="M1791" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1791" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="1792" spans="1:15">
-      <c r="A1792">
-        <v>76530</v>
-      </c>
-      <c r="B1792">
-        <v>101010204</v>
-      </c>
-      <c r="C1792" t="s">
-        <v>2048</v>
-      </c>
-      <c r="D1792">
-        <v>3500000.0</v>
-      </c>
-      <c r="E1792">
-        <v>0.0</v>
-      </c>
-      <c r="F1792">
-        <v>3500000.0</v>
-      </c>
-      <c r="G1792"/>
-      <c r="H1792" t="s">
-        <v>2072</v>
-      </c>
-      <c r="I1792" t="s">
-        <v>352</v>
-      </c>
-      <c r="J1792" t="s">
-        <v>2073</v>
-      </c>
-      <c r="K1792">
-        <v>2782145228.3</v>
-      </c>
-      <c r="L1792">
-        <v>2778645228.3</v>
-      </c>
-      <c r="M1792" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1792" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:15">
-      <c r="A1793">
-        <v>76531</v>
-      </c>
-      <c r="B1793">
-        <v>403010100</v>
-      </c>
-      <c r="C1793" t="s">
-        <v>2048</v>
-      </c>
-      <c r="D1793">
-        <v>0.0</v>
-      </c>
-      <c r="E1793">
-        <v>750000.0</v>
-      </c>
-      <c r="F1793">
-        <v>0</v>
-      </c>
-      <c r="G1793"/>
-      <c r="H1793" t="s">
-        <v>2072</v>
-      </c>
-      <c r="I1793" t="s">
-        <v>352</v>
-      </c>
-      <c r="J1793" t="s">
-        <v>2073</v>
-      </c>
-      <c r="K1793">
-        <v>2782145228.3</v>
-      </c>
-      <c r="L1793">
-        <v>2779395228.3</v>
-      </c>
-      <c r="M1793" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1793" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="1794" spans="1:15">
-      <c r="A1794">
-        <v>76532</v>
-      </c>
-      <c r="B1794">
-        <v>101060203</v>
-      </c>
-      <c r="C1794" t="s">
-        <v>2048</v>
-      </c>
-      <c r="D1794">
-        <v>0.0</v>
-      </c>
-      <c r="E1794">
-        <v>2750000.0</v>
-      </c>
-      <c r="F1794">
-        <v>0</v>
-      </c>
-      <c r="G1794" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1794" t="s">
-        <v>2072</v>
-      </c>
-      <c r="I1794" t="s">
-        <v>352</v>
-      </c>
-      <c r="J1794" t="s">
-        <v>2073</v>
-      </c>
-      <c r="K1794">
-        <v>2782145228.3</v>
-      </c>
-      <c r="L1794">
-        <v>2782145228.3</v>
-      </c>
-      <c r="M1794" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1794" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="1795" spans="1:15">
-      <c r="A1795">
-        <v>76533</v>
-      </c>
-      <c r="B1795">
-        <v>101010204</v>
-      </c>
-      <c r="C1795" t="s">
-        <v>1982</v>
-      </c>
-      <c r="D1795">
-        <v>3000000.0</v>
-      </c>
-      <c r="E1795">
-        <v>0.0</v>
-      </c>
-      <c r="F1795">
-        <v>3000000.0</v>
-      </c>
-      <c r="G1795"/>
-      <c r="H1795" t="s">
-        <v>2075</v>
-      </c>
-      <c r="I1795" t="s">
-        <v>1219</v>
-      </c>
-      <c r="J1795" t="s">
-        <v>2076</v>
-      </c>
-      <c r="K1795">
-        <v>2726078228.3</v>
-      </c>
-      <c r="L1795">
-        <v>2723078228.3</v>
-      </c>
-      <c r="M1795" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1795" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="1796" spans="1:15">
-      <c r="A1796">
-        <v>76534</v>
-      </c>
-      <c r="B1796">
-        <v>403010100</v>
-      </c>
-      <c r="C1796" t="s">
-        <v>1982</v>
-      </c>
-      <c r="D1796">
-        <v>0.0</v>
-      </c>
-      <c r="E1796">
-        <v>262500.0</v>
-      </c>
-      <c r="F1796">
-        <v>0</v>
-      </c>
-      <c r="G1796"/>
-      <c r="H1796" t="s">
-        <v>2075</v>
-      </c>
-      <c r="I1796" t="s">
-        <v>1219</v>
-      </c>
-      <c r="J1796" t="s">
-        <v>2076</v>
-      </c>
-      <c r="K1796">
-        <v>2726078228.3</v>
-      </c>
-      <c r="L1796">
-        <v>2723340728.3</v>
-      </c>
-      <c r="M1796" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1796" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="1797" spans="1:15">
-      <c r="A1797">
-        <v>76535</v>
-      </c>
-      <c r="B1797">
-        <v>101060207</v>
-      </c>
-      <c r="C1797" t="s">
-        <v>1982</v>
-      </c>
-      <c r="D1797">
-        <v>0.0</v>
-      </c>
-      <c r="E1797">
-        <v>2737500.0</v>
-      </c>
-      <c r="F1797">
-        <v>0</v>
-      </c>
-      <c r="G1797" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1797" t="s">
-        <v>2075</v>
-      </c>
-      <c r="I1797" t="s">
-        <v>1219</v>
-      </c>
-      <c r="J1797" t="s">
-        <v>2076</v>
-      </c>
-      <c r="K1797">
-        <v>2726078228.3</v>
-      </c>
-      <c r="L1797">
-        <v>2726078228.3</v>
-      </c>
-      <c r="M1797" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1797" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="1798" spans="1:15">
-      <c r="A1798">
-        <v>76536</v>
-      </c>
-      <c r="B1798">
-        <v>101010204</v>
-      </c>
-      <c r="C1798" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D1798">
-        <v>300000.0</v>
-      </c>
-      <c r="E1798">
-        <v>0.0</v>
-      </c>
-      <c r="F1798">
-        <v>300000.0</v>
-      </c>
-      <c r="G1798"/>
-      <c r="H1798" t="s">
-        <v>2078</v>
-      </c>
-      <c r="I1798" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1798" t="s">
-        <v>2079</v>
-      </c>
-      <c r="K1798">
-        <v>2735245228.3</v>
-      </c>
-      <c r="L1798">
-        <v>2734945228.3</v>
-      </c>
-      <c r="M1798" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1798" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="1799" spans="1:15">
-      <c r="A1799">
-        <v>76537</v>
-      </c>
-      <c r="B1799">
-        <v>403010100</v>
-      </c>
-      <c r="C1799" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D1799">
-        <v>0.0</v>
-      </c>
-      <c r="E1799">
-        <v>0.0</v>
-      </c>
-      <c r="F1799">
-        <v>0.0</v>
-      </c>
-      <c r="G1799"/>
-      <c r="H1799" t="s">
-        <v>2078</v>
-      </c>
-      <c r="I1799" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1799" t="s">
-        <v>2079</v>
-      </c>
-      <c r="K1799">
-        <v>2735245228.3</v>
-      </c>
-      <c r="L1799">
-        <v>2734945228.3</v>
-      </c>
-      <c r="M1799" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1799" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="1800" spans="1:15">
-      <c r="A1800">
-        <v>76538</v>
-      </c>
-      <c r="B1800">
-        <v>101060202</v>
-      </c>
-      <c r="C1800" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D1800">
-        <v>0.0</v>
-      </c>
-      <c r="E1800">
-        <v>300000.0</v>
-      </c>
-      <c r="F1800">
-        <v>0</v>
-      </c>
-      <c r="G1800" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1800" t="s">
-        <v>2078</v>
-      </c>
-      <c r="I1800" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1800" t="s">
-        <v>2079</v>
-      </c>
-      <c r="K1800">
-        <v>2735245228.3</v>
-      </c>
-      <c r="L1800">
-        <v>2735245228.3</v>
-      </c>
-      <c r="M1800" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1800" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="1801" spans="1:15">
-      <c r="A1801">
-        <v>76541</v>
-      </c>
-      <c r="B1801">
-        <v>411010100</v>
-      </c>
-      <c r="C1801" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1801">
-        <v>9162770.19</v>
-      </c>
-      <c r="E1801">
-        <v>0.0</v>
-      </c>
-      <c r="F1801">
-        <v>9162770.19</v>
-      </c>
-      <c r="G1801"/>
-      <c r="H1801" t="s">
-        <v>1405</v>
-      </c>
-      <c r="I1801" t="s">
-        <v>2081</v>
-      </c>
-      <c r="J1801" t="s">
-        <v>2082</v>
-      </c>
-      <c r="K1801">
-        <v>2826955005.49</v>
-      </c>
-      <c r="L1801">
-        <v>2817792235.3</v>
-      </c>
-      <c r="M1801" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1801" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="1802" spans="1:15">
-      <c r="A1802">
-        <v>76542</v>
-      </c>
-      <c r="B1802">
-        <v>101070100</v>
-      </c>
-      <c r="C1802" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1802">
-        <v>0.0</v>
-      </c>
-      <c r="E1802">
-        <v>9162770.19</v>
-      </c>
-      <c r="F1802">
-        <v>0</v>
-      </c>
-      <c r="G1802" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1802" t="s">
-        <v>1401</v>
-      </c>
-      <c r="I1802" t="s">
-        <v>2081</v>
-      </c>
-      <c r="J1802" t="s">
-        <v>2082</v>
-      </c>
-      <c r="K1802">
-        <v>2826955005.49</v>
-      </c>
-      <c r="L1802">
-        <v>2826955005.49</v>
-      </c>
-      <c r="M1802" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1802" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="1803" spans="1:15">
-      <c r="A1803">
-        <v>76543</v>
-      </c>
-      <c r="B1803">
-        <v>411020200</v>
-      </c>
-      <c r="C1803" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1803">
-        <v>16885068.01</v>
-      </c>
-      <c r="E1803">
-        <v>0.0</v>
-      </c>
-      <c r="F1803">
-        <v>16885068.01</v>
-      </c>
-      <c r="G1803"/>
-      <c r="H1803" t="s">
-        <v>1406</v>
-      </c>
-      <c r="I1803" t="s">
-        <v>2084</v>
-      </c>
-      <c r="J1803" t="s">
-        <v>2085</v>
-      </c>
-      <c r="K1803">
-        <v>2843840073.5</v>
-      </c>
-      <c r="L1803">
-        <v>2826955005.49</v>
-      </c>
-      <c r="M1803" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1803" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="1804" spans="1:15">
-      <c r="A1804">
-        <v>76544</v>
-      </c>
-      <c r="B1804">
-        <v>101070200</v>
-      </c>
-      <c r="C1804" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1804">
-        <v>0.0</v>
-      </c>
-      <c r="E1804">
-        <v>16885068.01</v>
-      </c>
-      <c r="F1804">
-        <v>0</v>
-      </c>
-      <c r="G1804" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1804" t="s">
-        <v>1410</v>
-      </c>
-      <c r="I1804" t="s">
-        <v>2084</v>
-      </c>
-      <c r="J1804" t="s">
-        <v>2085</v>
-      </c>
-      <c r="K1804">
-        <v>2843840073.5</v>
-      </c>
-      <c r="L1804">
-        <v>2843840073.5</v>
-      </c>
-      <c r="M1804" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1804" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="1805" spans="1:15">
-      <c r="A1805">
-        <v>76545</v>
-      </c>
-      <c r="B1805">
-        <v>411030300</v>
-      </c>
-      <c r="C1805" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1805">
-        <v>1035661.44</v>
-      </c>
-      <c r="E1805">
-        <v>0.0</v>
-      </c>
-      <c r="F1805">
-        <v>1035661.44</v>
-      </c>
-      <c r="G1805"/>
-      <c r="H1805" t="s">
-        <v>1415</v>
-      </c>
-      <c r="I1805" t="s">
-        <v>2087</v>
-      </c>
-      <c r="J1805" t="s">
-        <v>2088</v>
-      </c>
-      <c r="K1805">
-        <v>2844875734.94</v>
-      </c>
-      <c r="L1805">
-        <v>2843840073.5</v>
-      </c>
-      <c r="M1805" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1805" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="1806" spans="1:15">
-      <c r="A1806">
-        <v>76546</v>
-      </c>
-      <c r="B1806">
-        <v>101070300</v>
-      </c>
-      <c r="C1806" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1806">
-        <v>0.0</v>
-      </c>
-      <c r="E1806">
-        <v>1035661.44</v>
-      </c>
-      <c r="F1806">
-        <v>0</v>
-      </c>
-      <c r="G1806" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1806" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I1806" t="s">
-        <v>2087</v>
-      </c>
-      <c r="J1806" t="s">
-        <v>2088</v>
-      </c>
-      <c r="K1806">
-        <v>2844875734.94</v>
-      </c>
-      <c r="L1806">
-        <v>2844875734.94</v>
-      </c>
-      <c r="M1806" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1806" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="1807" spans="1:15">
-      <c r="A1807">
-        <v>76547</v>
-      </c>
-      <c r="B1807">
-        <v>101070400</v>
-      </c>
-      <c r="C1807" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1807">
-        <v>78471.7</v>
-      </c>
-      <c r="E1807">
-        <v>0.0</v>
-      </c>
-      <c r="F1807">
-        <v>78471.7</v>
-      </c>
-      <c r="G1807"/>
-      <c r="H1807" t="s">
-        <v>1420</v>
-      </c>
-      <c r="I1807" t="s">
-        <v>2090</v>
-      </c>
-      <c r="J1807" t="s">
-        <v>2091</v>
-      </c>
-      <c r="K1807">
-        <v>2844954206.64</v>
-      </c>
-      <c r="L1807">
-        <v>2844875734.94</v>
-      </c>
-      <c r="M1807" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1807" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="1808" spans="1:15">
-      <c r="A1808">
-        <v>76548</v>
-      </c>
-      <c r="B1808">
-        <v>411040400</v>
-      </c>
-      <c r="C1808" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1808">
-        <v>0.0</v>
-      </c>
-      <c r="E1808">
-        <v>78471.7</v>
-      </c>
-      <c r="F1808">
-        <v>0</v>
-      </c>
-      <c r="G1808" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1808" t="s">
-        <v>1416</v>
-      </c>
-      <c r="I1808" t="s">
-        <v>2090</v>
-      </c>
-      <c r="J1808" t="s">
-        <v>2091</v>
-      </c>
-      <c r="K1808">
-        <v>2844954206.64</v>
-      </c>
-      <c r="L1808">
-        <v>2844954206.64</v>
-      </c>
-      <c r="M1808" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1808" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="1809" spans="1:15">
-      <c r="A1809">
-        <v>76549</v>
-      </c>
-      <c r="B1809">
-        <v>411050500</v>
-      </c>
-      <c r="C1809" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1809">
-        <v>5301553.06</v>
-      </c>
-      <c r="E1809">
-        <v>0.0</v>
-      </c>
-      <c r="F1809">
-        <v>5301553.06</v>
-      </c>
-      <c r="G1809"/>
-      <c r="H1809" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I1809" t="s">
-        <v>2093</v>
-      </c>
-      <c r="J1809" t="s">
-        <v>2094</v>
-      </c>
-      <c r="K1809">
-        <v>2850255759.7</v>
-      </c>
-      <c r="L1809">
-        <v>2844954206.64</v>
-      </c>
-      <c r="M1809" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1809" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="1810" spans="1:15">
-      <c r="A1810">
-        <v>76550</v>
-      </c>
-      <c r="B1810">
-        <v>101070500</v>
-      </c>
-      <c r="C1810" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1810">
-        <v>0.0</v>
-      </c>
-      <c r="E1810">
-        <v>5301553.06</v>
-      </c>
-      <c r="F1810">
-        <v>0</v>
-      </c>
-      <c r="G1810" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1810" t="s">
-        <v>1421</v>
-      </c>
-      <c r="I1810" t="s">
-        <v>2093</v>
-      </c>
-      <c r="J1810" t="s">
-        <v>2094</v>
-      </c>
-      <c r="K1810">
-        <v>2850255759.7</v>
-      </c>
-      <c r="L1810">
-        <v>2850255759.7</v>
-      </c>
-      <c r="M1810" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1810" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="1811" spans="1:15">
-      <c r="A1811">
-        <v>76551</v>
-      </c>
-      <c r="B1811">
-        <v>411060600</v>
-      </c>
-      <c r="C1811" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1811">
-        <v>8088889.08</v>
-      </c>
-      <c r="E1811">
-        <v>0.0</v>
-      </c>
-      <c r="F1811">
-        <v>8088889.08</v>
-      </c>
-      <c r="G1811"/>
-      <c r="H1811" t="s">
-        <v>1426</v>
-      </c>
-      <c r="I1811" t="s">
-        <v>2096</v>
-      </c>
-      <c r="J1811" t="s">
-        <v>2097</v>
-      </c>
-      <c r="K1811">
-        <v>2858344648.78</v>
-      </c>
-      <c r="L1811">
-        <v>2850255759.7</v>
-      </c>
-      <c r="M1811" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1811" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="1812" spans="1:15">
-      <c r="A1812">
-        <v>76552</v>
-      </c>
-      <c r="B1812">
-        <v>101070600</v>
-      </c>
-      <c r="C1812" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1812">
-        <v>0.0</v>
-      </c>
-      <c r="E1812">
-        <v>8088889.08</v>
-      </c>
-      <c r="F1812">
-        <v>0</v>
-      </c>
-      <c r="G1812" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1812" t="s">
-        <v>1430</v>
-      </c>
-      <c r="I1812" t="s">
-        <v>2096</v>
-      </c>
-      <c r="J1812" t="s">
-        <v>2097</v>
-      </c>
-      <c r="K1812">
-        <v>2858344648.78</v>
-      </c>
-      <c r="L1812">
-        <v>2858344648.78</v>
-      </c>
-      <c r="M1812" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1812" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="1813" spans="1:15">
-      <c r="A1813">
-        <v>76553</v>
-      </c>
-      <c r="B1813">
-        <v>101070700</v>
-      </c>
-      <c r="C1813" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1813">
-        <v>27591959.77</v>
-      </c>
-      <c r="E1813">
-        <v>0.0</v>
-      </c>
-      <c r="F1813">
-        <v>27591959.77</v>
-      </c>
-      <c r="G1813"/>
-      <c r="H1813" t="s">
-        <v>1431</v>
-      </c>
-      <c r="I1813" t="s">
-        <v>2099</v>
-      </c>
-      <c r="J1813" t="s">
-        <v>2100</v>
-      </c>
-      <c r="K1813">
-        <v>2885936608.55</v>
-      </c>
-      <c r="L1813">
-        <v>2858344648.78</v>
-      </c>
-      <c r="M1813" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1813" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="1814" spans="1:15">
-      <c r="A1814">
-        <v>76554</v>
-      </c>
-      <c r="B1814">
-        <v>411070700</v>
-      </c>
-      <c r="C1814" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1814">
-        <v>0.0</v>
-      </c>
-      <c r="E1814">
-        <v>27591959.77</v>
-      </c>
-      <c r="F1814">
-        <v>0</v>
-      </c>
-      <c r="G1814" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1814" t="s">
-        <v>1435</v>
-      </c>
-      <c r="I1814" t="s">
-        <v>2099</v>
-      </c>
-      <c r="J1814" t="s">
-        <v>2100</v>
-      </c>
-      <c r="K1814">
-        <v>2885936608.55</v>
-      </c>
-      <c r="L1814">
-        <v>2885936608.55</v>
-      </c>
-      <c r="M1814" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1814" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="1815" spans="1:15">
-      <c r="A1815">
-        <v>76555</v>
-      </c>
-      <c r="B1815">
-        <v>101070800</v>
-      </c>
-      <c r="C1815" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1815">
-        <v>0.0</v>
-      </c>
-      <c r="E1815">
-        <v>0.0</v>
-      </c>
-      <c r="F1815">
-        <v>0.0</v>
-      </c>
-      <c r="G1815" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1815" t="s">
-        <v>2102</v>
-      </c>
-      <c r="I1815" t="s">
-        <v>2103</v>
-      </c>
-      <c r="J1815" t="s">
-        <v>2104</v>
-      </c>
-      <c r="K1815">
-        <v>2885936608.55</v>
-      </c>
-      <c r="L1815">
-        <v>2885936608.55</v>
-      </c>
-      <c r="M1815" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1815" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="1816" spans="1:15">
-      <c r="A1816">
-        <v>76556</v>
-      </c>
-      <c r="B1816">
-        <v>411080800</v>
-      </c>
-      <c r="C1816" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1816">
-        <v>0.0</v>
-      </c>
-      <c r="E1816">
-        <v>0.0</v>
-      </c>
-      <c r="F1816">
-        <v>0.0</v>
-      </c>
-      <c r="G1816" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1816" t="s">
-        <v>2106</v>
-      </c>
-      <c r="I1816" t="s">
-        <v>2103</v>
-      </c>
-      <c r="J1816" t="s">
-        <v>2104</v>
-      </c>
-      <c r="K1816">
-        <v>2885936608.55</v>
-      </c>
-      <c r="L1816">
-        <v>2885936608.55</v>
-      </c>
-      <c r="M1816" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1816" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="1817" spans="1:15">
-      <c r="A1817">
-        <v>76559</v>
-      </c>
-      <c r="B1817">
-        <v>407010000</v>
-      </c>
-      <c r="C1817" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1817">
-        <v>83540.01</v>
-      </c>
-      <c r="E1817">
-        <v>0.0</v>
-      </c>
-      <c r="F1817">
-        <v>83540.01</v>
-      </c>
-      <c r="G1817"/>
-      <c r="H1817" t="s">
-        <v>403</v>
-      </c>
-      <c r="I1817" t="s">
-        <v>2107</v>
-      </c>
-      <c r="J1817" t="s">
-        <v>2108</v>
-      </c>
-      <c r="K1817">
-        <v>2886020148.56</v>
-      </c>
-      <c r="L1817">
-        <v>2885936608.55</v>
-      </c>
-      <c r="M1817" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1817" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="1818" spans="1:15">
-      <c r="A1818">
-        <v>76560</v>
-      </c>
-      <c r="B1818">
-        <v>101010201</v>
-      </c>
-      <c r="C1818" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1818">
-        <v>0.0</v>
-      </c>
-      <c r="E1818">
-        <v>83540.01</v>
-      </c>
-      <c r="F1818">
-        <v>0</v>
-      </c>
-      <c r="G1818" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1818" t="s">
-        <v>400</v>
-      </c>
-      <c r="I1818" t="s">
-        <v>2107</v>
-      </c>
-      <c r="J1818" t="s">
-        <v>2108</v>
-      </c>
-      <c r="K1818">
-        <v>2886020148.56</v>
-      </c>
-      <c r="L1818">
-        <v>2886020148.56</v>
-      </c>
-      <c r="M1818" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1818" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="1819" spans="1:15">
-      <c r="A1819">
-        <v>76561</v>
-      </c>
-      <c r="B1819">
-        <v>101010101</v>
-      </c>
-      <c r="C1819" t="s">
-        <v>1958</v>
-      </c>
-      <c r="D1819">
-        <v>10238000.0</v>
-      </c>
-      <c r="E1819">
-        <v>0.0</v>
-      </c>
-      <c r="F1819">
-        <v>10238000.0</v>
-      </c>
-      <c r="G1819"/>
-      <c r="H1819" t="s">
-        <v>2110</v>
-      </c>
-      <c r="I1819" t="s">
-        <v>603</v>
-      </c>
-      <c r="J1819" t="s">
-        <v>2111</v>
-      </c>
-      <c r="K1819">
-        <v>2714434228.3</v>
-      </c>
-      <c r="L1819">
-        <v>2704196228.3</v>
-      </c>
-      <c r="M1819" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1819" t="s">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="1820" spans="1:15">
-      <c r="A1820">
-        <v>76562</v>
-      </c>
-      <c r="B1820">
-        <v>403010100</v>
-      </c>
-      <c r="C1820" t="s">
-        <v>1958</v>
-      </c>
-      <c r="D1820">
-        <v>0.0</v>
-      </c>
-      <c r="E1820">
-        <v>0.0</v>
-      </c>
-      <c r="F1820">
-        <v>0.0</v>
-      </c>
-      <c r="G1820"/>
-      <c r="H1820" t="s">
-        <v>2110</v>
-      </c>
-      <c r="I1820" t="s">
-        <v>603</v>
-      </c>
-      <c r="J1820" t="s">
-        <v>2111</v>
-      </c>
-      <c r="K1820">
-        <v>2714434228.3</v>
-      </c>
-      <c r="L1820">
-        <v>2704196228.3</v>
-      </c>
-      <c r="M1820" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1820" t="s">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="1821" spans="1:15">
-      <c r="A1821">
-        <v>76563</v>
-      </c>
-      <c r="B1821">
-        <v>101060202</v>
-      </c>
-      <c r="C1821" t="s">
-        <v>1958</v>
-      </c>
-      <c r="D1821">
-        <v>0.0</v>
-      </c>
-      <c r="E1821">
-        <v>10238000.0</v>
-      </c>
-      <c r="F1821">
-        <v>0</v>
-      </c>
-      <c r="G1821" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1821" t="s">
-        <v>2110</v>
-      </c>
-      <c r="I1821" t="s">
-        <v>603</v>
-      </c>
-      <c r="J1821" t="s">
-        <v>2111</v>
-      </c>
-      <c r="K1821">
-        <v>2714434228.3</v>
-      </c>
-      <c r="L1821">
-        <v>2714434228.3</v>
-      </c>
-      <c r="M1821" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1821" t="s">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="1822" spans="1:15">
-      <c r="A1822">
-        <v>76564</v>
-      </c>
-      <c r="B1822">
-        <v>101120000</v>
-      </c>
-      <c r="C1822" t="s">
-        <v>1920</v>
-      </c>
-      <c r="D1822">
-        <v>65000000.0</v>
-      </c>
-      <c r="E1822">
-        <v>0.0</v>
-      </c>
-      <c r="F1822">
-        <v>65000000.0</v>
-      </c>
-      <c r="G1822"/>
-      <c r="H1822" t="s">
-        <v>414</v>
-      </c>
-      <c r="I1822" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J1822" t="s">
-        <v>2114</v>
-      </c>
-      <c r="K1822">
-        <v>2621128728.3</v>
-      </c>
-      <c r="L1822">
-        <v>2556128728.3</v>
-      </c>
-      <c r="M1822" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1822" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="1823" spans="1:15">
-      <c r="A1823">
-        <v>76565</v>
-      </c>
-      <c r="B1823">
-        <v>101010101</v>
-      </c>
-      <c r="C1823" t="s">
-        <v>1920</v>
-      </c>
-      <c r="D1823">
-        <v>0.0</v>
-      </c>
-      <c r="E1823">
-        <v>65000000.0</v>
-      </c>
-      <c r="F1823">
-        <v>0</v>
-      </c>
-      <c r="G1823" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1823" t="s">
-        <v>415</v>
-      </c>
-      <c r="I1823" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J1823" t="s">
-        <v>2114</v>
-      </c>
-      <c r="K1823">
-        <v>2621128728.3</v>
-      </c>
-      <c r="L1823">
-        <v>2621128728.3</v>
-      </c>
-      <c r="M1823" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1823" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="1824" spans="1:15">
-      <c r="A1824">
-        <v>76566</v>
-      </c>
-      <c r="B1824">
-        <v>101010204</v>
-      </c>
-      <c r="C1824" t="s">
-        <v>1920</v>
-      </c>
-      <c r="D1824">
-        <v>65000000.0</v>
-      </c>
-      <c r="E1824">
-        <v>0.0</v>
-      </c>
-      <c r="F1824">
-        <v>65000000.0</v>
-      </c>
-      <c r="G1824"/>
-      <c r="H1824" t="s">
-        <v>407</v>
-      </c>
-      <c r="I1824" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J1824" t="s">
-        <v>2116</v>
-      </c>
-      <c r="K1824">
-        <v>2686128728.3</v>
-      </c>
-      <c r="L1824">
-        <v>2621128728.3</v>
-      </c>
-      <c r="M1824" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1824" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:15">
-      <c r="A1825">
-        <v>76567</v>
-      </c>
-      <c r="B1825">
-        <v>101120000</v>
-      </c>
-      <c r="C1825" t="s">
-        <v>1920</v>
-      </c>
-      <c r="D1825">
-        <v>0.0</v>
-      </c>
-      <c r="E1825">
-        <v>65000000.0</v>
-      </c>
-      <c r="F1825">
-        <v>0</v>
-      </c>
-      <c r="G1825" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1825" t="s">
-        <v>414</v>
-      </c>
-      <c r="I1825" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J1825" t="s">
-        <v>2116</v>
-      </c>
-      <c r="K1825">
-        <v>2686128728.3</v>
-      </c>
-      <c r="L1825">
-        <v>2686128728.3</v>
-      </c>
-      <c r="M1825" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1825" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="1826" spans="1:15">
-      <c r="A1826">
-        <v>76568</v>
-      </c>
-      <c r="B1826">
-        <v>101010204</v>
-      </c>
-      <c r="C1826" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D1826">
-        <v>428756.0</v>
-      </c>
-      <c r="E1826">
-        <v>0.0</v>
-      </c>
-      <c r="F1826">
-        <v>428756.0</v>
-      </c>
-      <c r="G1826"/>
-      <c r="H1826" t="s">
-        <v>407</v>
-      </c>
-      <c r="I1826" t="s">
-        <v>2118</v>
-      </c>
-      <c r="J1826" t="s">
-        <v>2119</v>
-      </c>
-      <c r="K1826">
-        <v>2790432984.3</v>
-      </c>
-      <c r="L1826">
-        <v>2790004228.3</v>
-      </c>
-      <c r="M1826" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1826" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="1827" spans="1:15">
-      <c r="A1827">
-        <v>76569</v>
-      </c>
-      <c r="B1827">
-        <v>403020100</v>
-      </c>
-      <c r="C1827" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D1827">
-        <v>0.0</v>
-      </c>
-      <c r="E1827">
-        <v>428756.0</v>
-      </c>
-      <c r="F1827">
-        <v>0</v>
-      </c>
-      <c r="G1827" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1827" t="s">
-        <v>406</v>
-      </c>
-      <c r="I1827" t="s">
-        <v>2118</v>
-      </c>
-      <c r="J1827" t="s">
-        <v>2119</v>
-      </c>
-      <c r="K1827">
-        <v>2790432984.3</v>
-      </c>
-      <c r="L1827">
-        <v>2790432984.3</v>
-      </c>
-      <c r="M1827" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1827" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="1828" spans="1:15">
-      <c r="A1828">
-        <v>76570</v>
-      </c>
-      <c r="B1828">
-        <v>407010000</v>
-      </c>
-      <c r="C1828" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D1828">
-        <v>87251.0</v>
-      </c>
-      <c r="E1828">
-        <v>0.0</v>
-      </c>
-      <c r="F1828">
-        <v>87251.0</v>
-      </c>
-      <c r="G1828"/>
-      <c r="H1828" t="s">
-        <v>403</v>
-      </c>
-      <c r="I1828" t="s">
-        <v>2107</v>
-      </c>
-      <c r="J1828" t="s">
-        <v>2121</v>
-      </c>
-      <c r="K1828">
-        <v>2790520235.3</v>
-      </c>
-      <c r="L1828">
-        <v>2790432984.3</v>
-      </c>
-      <c r="M1828" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1828" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="1829" spans="1:15">
-      <c r="A1829">
-        <v>76571</v>
-      </c>
-      <c r="B1829">
-        <v>101010204</v>
-      </c>
-      <c r="C1829" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D1829">
-        <v>0.0</v>
-      </c>
-      <c r="E1829">
-        <v>87251.0</v>
-      </c>
-      <c r="F1829">
-        <v>0</v>
-      </c>
-      <c r="G1829" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1829" t="s">
-        <v>407</v>
-      </c>
-      <c r="I1829" t="s">
-        <v>2107</v>
-      </c>
-      <c r="J1829" t="s">
-        <v>2121</v>
-      </c>
-      <c r="K1829">
-        <v>2790520235.3</v>
-      </c>
-      <c r="L1829">
-        <v>2790520235.3</v>
-      </c>
-      <c r="M1829" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1829" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:15">
-      <c r="A1830">
-        <v>76572</v>
-      </c>
-      <c r="B1830">
-        <v>101010204</v>
-      </c>
-      <c r="C1830" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D1830">
-        <v>20000000.0</v>
-      </c>
-      <c r="E1830">
-        <v>0.0</v>
-      </c>
-      <c r="F1830">
-        <v>20000000.0</v>
-      </c>
-      <c r="G1830"/>
-      <c r="H1830" t="s">
-        <v>407</v>
-      </c>
-      <c r="I1830" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J1830" t="s">
-        <v>2123</v>
-      </c>
-      <c r="K1830">
-        <v>2755245228.3</v>
-      </c>
-      <c r="L1830">
-        <v>2735245228.3</v>
-      </c>
-      <c r="M1830" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1830" t="s">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="1831" spans="1:15">
-      <c r="A1831">
-        <v>76573</v>
-      </c>
-      <c r="B1831">
-        <v>101120000</v>
-      </c>
-      <c r="C1831" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D1831">
-        <v>0.0</v>
-      </c>
-      <c r="E1831">
-        <v>20000000.0</v>
-      </c>
-      <c r="F1831">
-        <v>0</v>
-      </c>
-      <c r="G1831" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1831" t="s">
-        <v>414</v>
-      </c>
-      <c r="I1831" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J1831" t="s">
-        <v>2123</v>
-      </c>
-      <c r="K1831">
-        <v>2755245228.3</v>
-      </c>
-      <c r="L1831">
-        <v>2755245228.3</v>
-      </c>
-      <c r="M1831" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1831" t="s">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="1832" spans="1:15">
-      <c r="A1832">
-        <v>76574</v>
-      </c>
-      <c r="B1832">
-        <v>101120000</v>
-      </c>
-      <c r="C1832" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D1832">
-        <v>20000000.0</v>
-      </c>
-      <c r="E1832">
-        <v>0.0</v>
-      </c>
-      <c r="F1832">
-        <v>20000000.0</v>
-      </c>
-      <c r="G1832"/>
-      <c r="H1832" t="s">
-        <v>414</v>
-      </c>
-      <c r="I1832" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J1832" t="s">
-        <v>2125</v>
-      </c>
-      <c r="K1832">
-        <v>2775245228.3</v>
-      </c>
-      <c r="L1832">
-        <v>2755245228.3</v>
-      </c>
-      <c r="M1832" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1832" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="1833" spans="1:15">
-      <c r="A1833">
-        <v>76575</v>
-      </c>
-      <c r="B1833">
-        <v>101010101</v>
-      </c>
-      <c r="C1833" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D1833">
-        <v>0.0</v>
-      </c>
-      <c r="E1833">
-        <v>20000000.0</v>
-      </c>
-      <c r="F1833">
-        <v>0</v>
-      </c>
-      <c r="G1833" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1833" t="s">
-        <v>415</v>
-      </c>
-      <c r="I1833" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J1833" t="s">
-        <v>2125</v>
-      </c>
-      <c r="K1833">
-        <v>2775245228.3</v>
-      </c>
-      <c r="L1833">
-        <v>2775245228.3</v>
-      </c>
-      <c r="M1833" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1833" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="1834" spans="1:15">
-      <c r="A1834">
-        <v>76576</v>
-      </c>
-      <c r="B1834">
-        <v>407010000</v>
-      </c>
-      <c r="C1834" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D1834">
-        <v>200000.0</v>
-      </c>
-      <c r="E1834">
-        <v>0.0</v>
-      </c>
-      <c r="F1834">
-        <v>200000.0</v>
-      </c>
-      <c r="G1834"/>
-      <c r="H1834" t="s">
-        <v>403</v>
-      </c>
-      <c r="I1834" t="s">
-        <v>2107</v>
-      </c>
-      <c r="J1834" t="s">
-        <v>2127</v>
-      </c>
-      <c r="K1834">
-        <v>2689328728.3</v>
-      </c>
-      <c r="L1834">
-        <v>2689128728.3</v>
-      </c>
-      <c r="M1834" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1834" t="s">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="1835" spans="1:15">
-      <c r="A1835">
-        <v>76577</v>
-      </c>
-      <c r="B1835">
-        <v>101010204</v>
-      </c>
-      <c r="C1835" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D1835">
-        <v>0.0</v>
-      </c>
-      <c r="E1835">
-        <v>200000.0</v>
-      </c>
-      <c r="F1835">
-        <v>0</v>
-      </c>
-      <c r="G1835" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1835" t="s">
-        <v>407</v>
-      </c>
-      <c r="I1835" t="s">
-        <v>2107</v>
-      </c>
-      <c r="J1835" t="s">
-        <v>2127</v>
-      </c>
-      <c r="K1835">
-        <v>2689328728.3</v>
-      </c>
-      <c r="L1835">
-        <v>2689328728.3</v>
-      </c>
-      <c r="M1835" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1835" t="s">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="1836" spans="1:15">
-      <c r="A1836">
-        <v>76578</v>
-      </c>
-      <c r="B1836">
-        <v>101010101</v>
-      </c>
-      <c r="C1836" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D1836">
-        <v>0.0</v>
-      </c>
-      <c r="E1836">
-        <v>0.0</v>
-      </c>
-      <c r="F1836">
-        <v>0.0</v>
-      </c>
-      <c r="G1836" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1836" t="s">
-        <v>415</v>
-      </c>
-      <c r="I1836" t="s">
-        <v>2107</v>
-      </c>
-      <c r="J1836" t="s">
-        <v>2129</v>
-      </c>
-      <c r="K1836">
-        <v>2465233228.3</v>
-      </c>
-      <c r="L1836">
-        <v>2465233228.3</v>
-      </c>
-      <c r="M1836" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1836" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:15">
-      <c r="A1837">
-        <v>76579</v>
-      </c>
-      <c r="B1837">
-        <v>407020000</v>
-      </c>
-      <c r="C1837" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D1837">
-        <v>0.0</v>
-      </c>
-      <c r="E1837">
-        <v>0.0</v>
-      </c>
-      <c r="F1837">
-        <v>0.0</v>
-      </c>
-      <c r="G1837" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1837" t="s">
-        <v>1378</v>
-      </c>
-      <c r="I1837" t="s">
-        <v>2107</v>
-      </c>
-      <c r="J1837" t="s">
-        <v>2129</v>
-      </c>
-      <c r="K1837">
-        <v>2465233228.3</v>
-      </c>
-      <c r="L1837">
-        <v>2465233228.3</v>
-      </c>
-      <c r="M1837" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1837" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="1838" spans="1:15">
-      <c r="A1838">
-        <v>76580</v>
-      </c>
-      <c r="B1838">
-        <v>101010201</v>
-      </c>
-      <c r="C1838" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1838">
-        <v>292700.07</v>
-      </c>
-      <c r="E1838">
-        <v>0.0</v>
-      </c>
-      <c r="F1838">
-        <v>292700.07</v>
-      </c>
-      <c r="G1838"/>
-      <c r="H1838" t="s">
-        <v>400</v>
-      </c>
-      <c r="I1838" t="s">
-        <v>2131</v>
-      </c>
-      <c r="J1838" t="s">
-        <v>2132</v>
-      </c>
-      <c r="K1838">
-        <v>2886312848.63</v>
-      </c>
-      <c r="L1838">
-        <v>2886020148.56</v>
-      </c>
-      <c r="M1838" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1838" t="s">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="1839" spans="1:15">
-      <c r="A1839">
-        <v>76581</v>
-      </c>
-      <c r="B1839">
-        <v>403020100</v>
-      </c>
-      <c r="C1839" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1839">
-        <v>0.0</v>
-      </c>
-      <c r="E1839">
-        <v>292700.07</v>
-      </c>
-      <c r="F1839">
-        <v>0</v>
-      </c>
-      <c r="G1839" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1839" t="s">
-        <v>406</v>
-      </c>
-      <c r="I1839" t="s">
-        <v>2131</v>
-      </c>
-      <c r="J1839" t="s">
-        <v>2132</v>
-      </c>
-      <c r="K1839">
-        <v>2886312848.63</v>
-      </c>
-      <c r="L1839">
-        <v>2886312848.63</v>
-      </c>
-      <c r="M1839" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1839" t="s">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="1840" spans="1:15">
-      <c r="A1840">
-        <v>76582</v>
-      </c>
-      <c r="B1840">
-        <v>101010204</v>
-      </c>
-      <c r="C1840" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D1840">
-        <v>300000.0</v>
-      </c>
-      <c r="E1840">
-        <v>0.0</v>
-      </c>
-      <c r="F1840">
-        <v>300000.0</v>
-      </c>
-      <c r="G1840"/>
-      <c r="H1840" t="s">
-        <v>407</v>
-      </c>
-      <c r="I1840" t="s">
-        <v>2134</v>
-      </c>
-      <c r="J1840" t="s">
-        <v>2135</v>
-      </c>
-      <c r="K1840">
-        <v>141443500.0</v>
-      </c>
-      <c r="L1840">
-        <v>141143500.0</v>
-      </c>
-      <c r="M1840" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1840" t="s">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="1841" spans="1:15">
-      <c r="A1841">
-        <v>76583</v>
-      </c>
-      <c r="B1841">
-        <v>103040207</v>
-      </c>
-      <c r="C1841" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D1841">
-        <v>0.0</v>
-      </c>
-      <c r="E1841">
-        <v>300000.0</v>
-      </c>
-      <c r="F1841">
-        <v>0</v>
-      </c>
-      <c r="G1841" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1841" t="s">
-        <v>1861</v>
-      </c>
-      <c r="I1841" t="s">
-        <v>2137</v>
-      </c>
-      <c r="J1841" t="s">
-        <v>2135</v>
-      </c>
-      <c r="K1841">
-        <v>141443500.0</v>
-      </c>
-      <c r="L1841">
-        <v>141443500.0</v>
-      </c>
-      <c r="M1841" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1841" t="s">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="1842" spans="1:15">
-      <c r="A1842">
-        <v>76597</v>
-      </c>
-      <c r="B1842">
-        <v>103050700</v>
-      </c>
-      <c r="C1842" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1842">
-        <v>300000.0</v>
-      </c>
-      <c r="E1842">
-        <v>0.0</v>
-      </c>
-      <c r="F1842">
-        <v>300000.0</v>
-      </c>
-      <c r="G1842"/>
-      <c r="H1842" t="s">
-        <v>1801</v>
-      </c>
-      <c r="I1842" t="s">
-        <v>2138</v>
-      </c>
-      <c r="J1842" t="s">
-        <v>2139</v>
-      </c>
-      <c r="K1842">
-        <v>2886612848.63</v>
-      </c>
-      <c r="L1842">
-        <v>2886312848.63</v>
-      </c>
-      <c r="M1842" t="s">
-        <v>419</v>
-      </c>
-      <c r="N1842" t="s">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="1843" spans="1:15">
-      <c r="A1843">
-        <v>76598</v>
-      </c>
-      <c r="B1843">
-        <v>411070700</v>
-      </c>
-      <c r="C1843" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D1843">
-        <v>0.0</v>
-      </c>
-      <c r="E1843">
-        <v>300000.0</v>
-      </c>
-      <c r="F1843">
-        <v>0</v>
-      </c>
-      <c r="G1843" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1843" t="s">
-        <v>1435</v>
-      </c>
-      <c r="I1843" t="s">
-        <v>2138</v>
-      </c>
-      <c r="J1843" t="s">
-        <v>2139</v>
-      </c>
-      <c r="K1843">
-        <v>2886612848.63</v>
-      </c>
-      <c r="L1843">
-        <v>2886612848.63</v>
-      </c>
-      <c r="M1843" t="s">
-        <v>419</v>
-      </c>
-      <c r="N1843" t="s">
-        <v>2140</v>
       </c>
     </row>
   </sheetData>

--- a/storage/jurnal-opex-2022.xlsx
+++ b/storage/jurnal-opex-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2639">
   <si>
     <t>No ID</t>
   </si>
@@ -7596,250 +7596,343 @@
     <t>2022-09-22 09:20:24</t>
   </si>
   <si>
+    <t>2022-09-14</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 14/09/2022 pk 5097</t>
+  </si>
+  <si>
+    <t>2022-09-14/Normal/1663813479/M02PK5097</t>
+  </si>
+  <si>
+    <t>2022-09-22 09:24:39</t>
+  </si>
+  <si>
+    <t>2022-09-15</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 15/09/2022 pk 5086</t>
+  </si>
+  <si>
+    <t>2022-09-15/Normal/1663813592/M03PK5086</t>
+  </si>
+  <si>
+    <t>2022-09-22 09:26:32</t>
+  </si>
+  <si>
+    <t>2022-09-19</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 19/09/2022 pk 5090</t>
+  </si>
+  <si>
+    <t>2022-09-19/Normal/1663813725/M03PK5090</t>
+  </si>
+  <si>
+    <t>2022-09-22 09:28:45</t>
+  </si>
+  <si>
+    <t>2022-09-20</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 20/09/2022 pk 5087</t>
+  </si>
+  <si>
+    <t>2022-09-20/Normal/1663813938/M03PK5087</t>
+  </si>
+  <si>
+    <t>2022-09-22 09:32:18</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 20/09/2022 pk 5074</t>
+  </si>
+  <si>
+    <t>2022-09-20/Normal/1663814055/M03PK5074</t>
+  </si>
+  <si>
+    <t>2022-09-22 09:34:15</t>
+  </si>
+  <si>
+    <t>pinjaman sektor perdagangan september 2022</t>
+  </si>
+  <si>
+    <t>2022-09-15/1663814285/tjsl</t>
+  </si>
+  <si>
+    <t>2022-09-22 04:38:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aktiva Lancar/Piutang Mitra Binaan/Pinjaman/Sektor Peternakan </t>
+  </si>
+  <si>
+    <t>pinjaman sektor peternakan september 2022</t>
+  </si>
+  <si>
+    <t>2022-09-15/1663814719/tjsl</t>
+  </si>
+  <si>
+    <t>2022-09-22 04:45:19</t>
+  </si>
+  <si>
+    <t>2022-09-22</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 22/09/2022 pk 5091</t>
+  </si>
+  <si>
+    <t>2022-09-22/Normal/1663816731/M03PK5091</t>
+  </si>
+  <si>
+    <t>2022-09-22 10:18:51</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 15/07/2022 pk 5080</t>
+  </si>
+  <si>
+    <t>2022-07-15/Normal/1663905708/M03PK5080</t>
+  </si>
+  <si>
+    <t>2022-09-23 11:01:48</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 30/08/2022 pk 5080</t>
+  </si>
+  <si>
+    <t>2022-08-30/Normal/1663905857/M03PK5080</t>
+  </si>
+  <si>
+    <t>2022-09-23 11:04:17</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 04/07/2022 pk 5098</t>
+  </si>
+  <si>
+    <t>2022-07-04/Normal/1663906865/M03PK5098</t>
+  </si>
+  <si>
+    <t>2022-09-23 11:21:05</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 22/08/2022 pk 5098</t>
+  </si>
+  <si>
+    <t>2022-08-22/Normal/1663906932/M03PK5098</t>
+  </si>
+  <si>
+    <t>2022-09-23 11:22:12</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 30/07/2022 pk 5064</t>
+  </si>
+  <si>
+    <t>Gunawan</t>
+  </si>
+  <si>
+    <t>2022-07-30/Normal/1663907742/M03PK5064</t>
+  </si>
+  <si>
+    <t>2022-09-23 11:35:42</t>
+  </si>
+  <si>
+    <t>2022-08-28</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 28/08/2022 pk 5064</t>
+  </si>
+  <si>
+    <t>2022-08-28/Normal/1663907794/M03PK5064</t>
+  </si>
+  <si>
+    <t>2022-09-23 11:36:34</t>
+  </si>
+  <si>
+    <t>2022-09-25</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 25/09/2022 pk 5121</t>
+  </si>
+  <si>
+    <t>2022-09-25/normal/1664160675/M03PK5121</t>
+  </si>
+  <si>
+    <t>2022-09-26 09:51:15</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok Tgl 22/09/2022 pk 4811</t>
+  </si>
+  <si>
+    <t>2022-09-22/Normal/1664160838/M02PK4811</t>
+  </si>
+  <si>
+    <t>2022-09-26 09:53:58</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 05/08/2022 pk 5124</t>
+  </si>
+  <si>
+    <t>Dida Garnida</t>
+  </si>
+  <si>
+    <t>2022-08-05/normal/1664163382/M03PK5124</t>
+  </si>
+  <si>
+    <t>2022-09-26 10:36:22</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 05/09/2022 pk 5124</t>
+  </si>
+  <si>
+    <t>2022-09-05/normal/1664163442/M03PK5124</t>
+  </si>
+  <si>
+    <t>2022-09-26 10:37:22</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 22/09/2022 pk 5063</t>
+  </si>
+  <si>
+    <t>2022-09-22/Normal/1664163937/M03PK5063</t>
+  </si>
+  <si>
+    <t>2022-09-26 10:45:38</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 22/09/2022 pk 5096</t>
+  </si>
+  <si>
+    <t>2022-09-22/Normal/1664164110/M03PK5096</t>
+  </si>
+  <si>
+    <t>2022-09-26 10:48:30</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 22/09/2022 pk 5108</t>
+  </si>
+  <si>
+    <t>2022-09-22/Normal/1664164328/M01PK5108</t>
+  </si>
+  <si>
+    <t>2022-09-26 10:52:08</t>
+  </si>
+  <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 26/09/2022 pk 4913</t>
+  </si>
+  <si>
+    <t>2022-09-26/Normal/1664333872/M03PK4913</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2022-09-28 09:57:52</t>
+  </si>
+  <si>
+    <t>2022-09-13</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 13/09/2022 pk 5111</t>
+  </si>
+  <si>
+    <t>2022-09-13/Normal/1664417000/M03PK5111</t>
+  </si>
+  <si>
+    <t>2022-09-29 09:03:20</t>
+  </si>
+  <si>
     <t>2022-09-12</t>
   </si>
   <si>
-    <t>Angsuran Pokok dan Jasa Tgl 12/09/2022 pk 5111</t>
-  </si>
-  <si>
-    <t>2022-09-12/Normal/1663813335/M03PK5111</t>
-  </si>
-  <si>
-    <t>2022-09-22 09:22:15</t>
-  </si>
-  <si>
-    <t>2022-09-14</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 14/09/2022 pk 5097</t>
-  </si>
-  <si>
-    <t>2022-09-14/Normal/1663813479/M02PK5097</t>
-  </si>
-  <si>
-    <t>2022-09-22 09:24:39</t>
-  </si>
-  <si>
-    <t>2022-09-15</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 15/09/2022 pk 5086</t>
-  </si>
-  <si>
-    <t>2022-09-15/Normal/1663813592/M03PK5086</t>
-  </si>
-  <si>
-    <t>2022-09-22 09:26:32</t>
-  </si>
-  <si>
-    <t>2022-09-19</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 19/09/2022 pk 5090</t>
-  </si>
-  <si>
-    <t>2022-09-19/Normal/1663813725/M03PK5090</t>
-  </si>
-  <si>
-    <t>2022-09-22 09:28:45</t>
-  </si>
-  <si>
-    <t>2022-09-20</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 20/09/2022 pk 5087</t>
-  </si>
-  <si>
-    <t>2022-09-20/Normal/1663813938/M03PK5087</t>
-  </si>
-  <si>
-    <t>2022-09-22 09:32:18</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 20/09/2022 pk 5074</t>
-  </si>
-  <si>
-    <t>2022-09-20/Normal/1663814055/M03PK5074</t>
-  </si>
-  <si>
-    <t>2022-09-22 09:34:15</t>
-  </si>
-  <si>
-    <t>pinjaman sektor perdagangan september 2022</t>
-  </si>
-  <si>
-    <t>2022-09-15/1663814285/tjsl</t>
-  </si>
-  <si>
-    <t>2022-09-22 04:38:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aktiva Lancar/Piutang Mitra Binaan/Pinjaman/Sektor Peternakan </t>
-  </si>
-  <si>
-    <t>pinjaman sektor peternakan september 2022</t>
-  </si>
-  <si>
-    <t>2022-09-15/1663814719/tjsl</t>
-  </si>
-  <si>
-    <t>2022-09-22 04:45:19</t>
-  </si>
-  <si>
-    <t>2022-09-22</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 22/09/2022 pk 5091</t>
-  </si>
-  <si>
-    <t>2022-09-22/Normal/1663816731/M03PK5091</t>
-  </si>
-  <si>
-    <t>2022-09-22 10:18:51</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 15/07/2022 pk 5080</t>
-  </si>
-  <si>
-    <t>2022-07-15/Normal/1663905708/M03PK5080</t>
-  </si>
-  <si>
-    <t>2022-09-23 11:01:48</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 30/08/2022 pk 5080</t>
-  </si>
-  <si>
-    <t>2022-08-30/Normal/1663905857/M03PK5080</t>
-  </si>
-  <si>
-    <t>2022-09-23 11:04:17</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 04/07/2022 pk 5098</t>
-  </si>
-  <si>
-    <t>2022-07-04/Normal/1663906865/M03PK5098</t>
-  </si>
-  <si>
-    <t>2022-09-23 11:21:05</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 22/08/2022 pk 5098</t>
-  </si>
-  <si>
-    <t>2022-08-22/Normal/1663906932/M03PK5098</t>
-  </si>
-  <si>
-    <t>2022-09-23 11:22:12</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 30/07/2022 pk 5064</t>
-  </si>
-  <si>
-    <t>Gunawan</t>
-  </si>
-  <si>
-    <t>2022-07-30/Normal/1663907742/M03PK5064</t>
-  </si>
-  <si>
-    <t>2022-09-23 11:35:42</t>
-  </si>
-  <si>
-    <t>2022-08-28</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 28/08/2022 pk 5064</t>
-  </si>
-  <si>
-    <t>2022-08-28/Normal/1663907794/M03PK5064</t>
-  </si>
-  <si>
-    <t>2022-09-23 11:36:34</t>
-  </si>
-  <si>
-    <t>2022-09-25</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 25/09/2022 pk 5121</t>
-  </si>
-  <si>
-    <t>2022-09-25/normal/1664160675/M03PK5121</t>
-  </si>
-  <si>
-    <t>2022-09-26 09:51:15</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok Tgl 22/09/2022 pk 4811</t>
-  </si>
-  <si>
-    <t>2022-09-22/Normal/1664160838/M02PK4811</t>
-  </si>
-  <si>
-    <t>2022-09-26 09:53:58</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 05/08/2022 pk 5124</t>
-  </si>
-  <si>
-    <t>Dida Garnida</t>
-  </si>
-  <si>
-    <t>2022-08-05/normal/1664163382/M03PK5124</t>
-  </si>
-  <si>
-    <t>2022-09-26 10:36:22</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 05/09/2022 pk 5124</t>
-  </si>
-  <si>
-    <t>2022-09-05/normal/1664163442/M03PK5124</t>
-  </si>
-  <si>
-    <t>2022-09-26 10:37:22</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 22/09/2022 pk 5063</t>
-  </si>
-  <si>
-    <t>2022-09-22/Normal/1664163937/M03PK5063</t>
-  </si>
-  <si>
-    <t>2022-09-26 10:45:38</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 22/09/2022 pk 5096</t>
-  </si>
-  <si>
-    <t>2022-09-22/Normal/1664164110/M03PK5096</t>
-  </si>
-  <si>
-    <t>2022-09-26 10:48:30</t>
-  </si>
-  <si>
-    <t>Angsuran Pokok dan Jasa Tgl 22/09/2022 pk 5108</t>
-  </si>
-  <si>
-    <t>2022-09-22/Normal/1664164328/M01PK5108</t>
-  </si>
-  <si>
-    <t>2022-09-26 10:52:08</t>
-  </si>
-  <si>
-    <t>2022-09-26</t>
-  </si>
-  <si>
-    <t>ENJANG CARDA/Angsuran Pokok dan Jasa Tgl 26/09/2022 pk 1798</t>
-  </si>
-  <si>
-    <t>2022-09-26/MASALAH/1664179930/M03PK1798</t>
-  </si>
-  <si>
-    <t>2022-09-26 15:12:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aktiva Lain-lain/Piutang Bermasalah/Angsuran/Sektor Peternakan </t>
+    <t>Angsuran Pokok dan Jasa Tgl 12/09/2022 pk 5073</t>
+  </si>
+  <si>
+    <t>2022-09-12/Normal/1664421673/M03PK5073</t>
+  </si>
+  <si>
+    <t>2022-09-29 10:21:13</t>
+  </si>
+  <si>
+    <t>2022-09-21</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 21/09/2022 pk 5061</t>
+  </si>
+  <si>
+    <t>2022-09-21/Normal/1664421753/M03PK5061</t>
+  </si>
+  <si>
+    <t>2022-09-29 10:22:33</t>
+  </si>
+  <si>
+    <t>2022-09-27</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 27/09/2022 pk 5062</t>
+  </si>
+  <si>
+    <t>2022-09-27/Normal/1664421834/M03PK5062</t>
+  </si>
+  <si>
+    <t>2022-09-29 10:23:54</t>
+  </si>
+  <si>
+    <t>2022-09-28</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 28/09/2022 pk 5077</t>
+  </si>
+  <si>
+    <t>2022-09-28/Normal/1664421921/M03PK5077</t>
+  </si>
+  <si>
+    <t>2022-09-29 10:25:21</t>
+  </si>
+  <si>
+    <t>beban adm dan umum september 2022</t>
+  </si>
+  <si>
+    <t>2022-09-09/1664422666/tjsl</t>
+  </si>
+  <si>
+    <t>2022-09-29 05:37:46</t>
+  </si>
+  <si>
+    <t>beban adm dan umum September 2022</t>
+  </si>
+  <si>
+    <t>2022-09-25/1664422852/tjsl</t>
+  </si>
+  <si>
+    <t>2022-09-29 05:40:52</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 26/09/2022 pk 5103</t>
+  </si>
+  <si>
+    <t>2022-09-26/Normal/1664505051/M03PK5103</t>
+  </si>
+  <si>
+    <t>2022-09-30 09:30:51</t>
+  </si>
+  <si>
+    <t>Pendapatan Jasa Giro september 2022</t>
+  </si>
+  <si>
+    <t>2022-09-25/1664421105/tjsl/tjsl/2022-09-25/1664506012</t>
+  </si>
+  <si>
+    <t>2022-09-30 04:46:52</t>
+  </si>
+  <si>
+    <t>Angsuran Pokok dan Jasa Tgl 31/03/2022 pk 4229</t>
+  </si>
+  <si>
+    <t>2022-03-31/Normal/1664512230/M01PK4229</t>
+  </si>
+  <si>
+    <t>2022-09-30 11:30:30</t>
   </si>
 </sst>
 </file>
@@ -8175,7 +8268,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O2233"/>
+  <dimension ref="A1:O2258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -100676,29 +100769,29 @@
     </row>
     <row r="2168" spans="1:15">
       <c r="A2168">
-        <v>77270</v>
+        <v>77273</v>
       </c>
       <c r="B2168">
-        <v>101010204</v>
+        <v>101010201</v>
       </c>
       <c r="C2168" t="s">
         <v>2526</v>
       </c>
       <c r="D2168">
-        <v>2500000.0</v>
+        <v>4450000.0</v>
       </c>
       <c r="E2168">
         <v>0.0</v>
       </c>
       <c r="F2168">
-        <v>2500000.0</v>
+        <v>4450000.0</v>
       </c>
       <c r="G2168"/>
       <c r="H2168" t="s">
         <v>2527</v>
       </c>
       <c r="I2168" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="J2168" t="s">
         <v>2528</v>
@@ -100718,7 +100811,7 @@
     </row>
     <row r="2169" spans="1:15">
       <c r="A2169">
-        <v>77271</v>
+        <v>77274</v>
       </c>
       <c r="B2169">
         <v>403010100</v>
@@ -100730,7 +100823,7 @@
         <v>0.0</v>
       </c>
       <c r="E2169">
-        <v>250000.0</v>
+        <v>475000.0</v>
       </c>
       <c r="F2169">
         <v>0</v>
@@ -100740,7 +100833,7 @@
         <v>2527</v>
       </c>
       <c r="I2169" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="J2169" t="s">
         <v>2528</v>
@@ -100760,7 +100853,7 @@
     </row>
     <row r="2170" spans="1:15">
       <c r="A2170">
-        <v>77272</v>
+        <v>77275</v>
       </c>
       <c r="B2170">
         <v>101060202</v>
@@ -100772,7 +100865,7 @@
         <v>0.0</v>
       </c>
       <c r="E2170">
-        <v>2250000.0</v>
+        <v>3975000.0</v>
       </c>
       <c r="F2170">
         <v>0</v>
@@ -100784,7 +100877,7 @@
         <v>2527</v>
       </c>
       <c r="I2170" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="J2170" t="s">
         <v>2528</v>
@@ -100804,29 +100897,29 @@
     </row>
     <row r="2171" spans="1:15">
       <c r="A2171">
-        <v>77273</v>
+        <v>77276</v>
       </c>
       <c r="B2171">
-        <v>101010201</v>
+        <v>101010204</v>
       </c>
       <c r="C2171" t="s">
         <v>2530</v>
       </c>
       <c r="D2171">
-        <v>4450000.0</v>
+        <v>2334000.0</v>
       </c>
       <c r="E2171">
         <v>0.0</v>
       </c>
       <c r="F2171">
-        <v>4450000.0</v>
+        <v>2334000.0</v>
       </c>
       <c r="G2171"/>
       <c r="H2171" t="s">
         <v>2531</v>
       </c>
       <c r="I2171" t="s">
-        <v>90</v>
+        <v>242</v>
       </c>
       <c r="J2171" t="s">
         <v>2532</v>
@@ -100846,7 +100939,7 @@
     </row>
     <row r="2172" spans="1:15">
       <c r="A2172">
-        <v>77274</v>
+        <v>77277</v>
       </c>
       <c r="B2172">
         <v>403010100</v>
@@ -100858,7 +100951,7 @@
         <v>0.0</v>
       </c>
       <c r="E2172">
-        <v>475000.0</v>
+        <v>250000.0</v>
       </c>
       <c r="F2172">
         <v>0</v>
@@ -100868,7 +100961,7 @@
         <v>2531</v>
       </c>
       <c r="I2172" t="s">
-        <v>90</v>
+        <v>242</v>
       </c>
       <c r="J2172" t="s">
         <v>2532</v>
@@ -100888,10 +100981,10 @@
     </row>
     <row r="2173" spans="1:15">
       <c r="A2173">
-        <v>77275</v>
+        <v>77278</v>
       </c>
       <c r="B2173">
-        <v>101060202</v>
+        <v>101060201</v>
       </c>
       <c r="C2173" t="s">
         <v>2530</v>
@@ -100900,7 +100993,7 @@
         <v>0.0</v>
       </c>
       <c r="E2173">
-        <v>3975000.0</v>
+        <v>2084000.0</v>
       </c>
       <c r="F2173">
         <v>0</v>
@@ -100912,7 +101005,7 @@
         <v>2531</v>
       </c>
       <c r="I2173" t="s">
-        <v>90</v>
+        <v>242</v>
       </c>
       <c r="J2173" t="s">
         <v>2532</v>
@@ -100932,7 +101025,7 @@
     </row>
     <row r="2174" spans="1:15">
       <c r="A2174">
-        <v>77276</v>
+        <v>77279</v>
       </c>
       <c r="B2174">
         <v>101010204</v>
@@ -100941,20 +101034,20 @@
         <v>2534</v>
       </c>
       <c r="D2174">
-        <v>2334000.0</v>
+        <v>2250000.0</v>
       </c>
       <c r="E2174">
         <v>0.0</v>
       </c>
       <c r="F2174">
-        <v>2334000.0</v>
+        <v>2250000.0</v>
       </c>
       <c r="G2174"/>
       <c r="H2174" t="s">
         <v>2535</v>
       </c>
       <c r="I2174" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="J2174" t="s">
         <v>2536</v>
@@ -100974,7 +101067,7 @@
     </row>
     <row r="2175" spans="1:15">
       <c r="A2175">
-        <v>77277</v>
+        <v>77280</v>
       </c>
       <c r="B2175">
         <v>403010100</v>
@@ -100986,7 +101079,7 @@
         <v>0.0</v>
       </c>
       <c r="E2175">
-        <v>250000.0</v>
+        <v>225000.0</v>
       </c>
       <c r="F2175">
         <v>0</v>
@@ -100996,7 +101089,7 @@
         <v>2535</v>
       </c>
       <c r="I2175" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="J2175" t="s">
         <v>2536</v>
@@ -101016,7 +101109,7 @@
     </row>
     <row r="2176" spans="1:15">
       <c r="A2176">
-        <v>77278</v>
+        <v>77281</v>
       </c>
       <c r="B2176">
         <v>101060201</v>
@@ -101028,7 +101121,7 @@
         <v>0.0</v>
       </c>
       <c r="E2176">
-        <v>2084000.0</v>
+        <v>2025000.0</v>
       </c>
       <c r="F2176">
         <v>0</v>
@@ -101040,7 +101133,7 @@
         <v>2535</v>
       </c>
       <c r="I2176" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="J2176" t="s">
         <v>2536</v>
@@ -101060,7 +101153,7 @@
     </row>
     <row r="2177" spans="1:15">
       <c r="A2177">
-        <v>77279</v>
+        <v>77282</v>
       </c>
       <c r="B2177">
         <v>101010204</v>
@@ -101069,20 +101162,20 @@
         <v>2538</v>
       </c>
       <c r="D2177">
-        <v>2250000.0</v>
+        <v>1400000.0</v>
       </c>
       <c r="E2177">
         <v>0.0</v>
       </c>
       <c r="F2177">
-        <v>2250000.0</v>
+        <v>1400000.0</v>
       </c>
       <c r="G2177"/>
       <c r="H2177" t="s">
         <v>2539</v>
       </c>
       <c r="I2177" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="J2177" t="s">
         <v>2540</v>
@@ -101102,7 +101195,7 @@
     </row>
     <row r="2178" spans="1:15">
       <c r="A2178">
-        <v>77280</v>
+        <v>77283</v>
       </c>
       <c r="B2178">
         <v>403010100</v>
@@ -101114,7 +101207,7 @@
         <v>0.0</v>
       </c>
       <c r="E2178">
-        <v>225000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="F2178">
         <v>0</v>
@@ -101124,7 +101217,7 @@
         <v>2539</v>
       </c>
       <c r="I2178" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="J2178" t="s">
         <v>2540</v>
@@ -101144,10 +101237,10 @@
     </row>
     <row r="2179" spans="1:15">
       <c r="A2179">
-        <v>77281</v>
+        <v>77284</v>
       </c>
       <c r="B2179">
-        <v>101060201</v>
+        <v>101060202</v>
       </c>
       <c r="C2179" t="s">
         <v>2538</v>
@@ -101156,7 +101249,7 @@
         <v>0.0</v>
       </c>
       <c r="E2179">
-        <v>2025000.0</v>
+        <v>1100000.0</v>
       </c>
       <c r="F2179">
         <v>0</v>
@@ -101168,7 +101261,7 @@
         <v>2539</v>
       </c>
       <c r="I2179" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="J2179" t="s">
         <v>2540</v>
@@ -101188,32 +101281,32 @@
     </row>
     <row r="2180" spans="1:15">
       <c r="A2180">
-        <v>77282</v>
+        <v>77285</v>
       </c>
       <c r="B2180">
         <v>101010204</v>
       </c>
       <c r="C2180" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="D2180">
-        <v>1400000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="E2180">
         <v>0.0</v>
       </c>
       <c r="F2180">
-        <v>1400000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="G2180"/>
       <c r="H2180" t="s">
+        <v>2542</v>
+      </c>
+      <c r="I2180" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2180" t="s">
         <v>2543</v>
-      </c>
-      <c r="I2180" t="s">
-        <v>296</v>
-      </c>
-      <c r="J2180" t="s">
-        <v>2544</v>
       </c>
       <c r="K2180">
         <v>0.0</v>
@@ -101225,37 +101318,37 @@
         <v>2415</v>
       </c>
       <c r="N2180" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="2181" spans="1:15">
       <c r="A2181">
-        <v>77283</v>
+        <v>77286</v>
       </c>
       <c r="B2181">
         <v>403010100</v>
       </c>
       <c r="C2181" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="D2181">
         <v>0.0</v>
       </c>
       <c r="E2181">
-        <v>300000.0</v>
+        <v>250000.0</v>
       </c>
       <c r="F2181">
         <v>0</v>
       </c>
       <c r="G2181"/>
       <c r="H2181" t="s">
+        <v>2542</v>
+      </c>
+      <c r="I2181" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2181" t="s">
         <v>2543</v>
-      </c>
-      <c r="I2181" t="s">
-        <v>296</v>
-      </c>
-      <c r="J2181" t="s">
-        <v>2544</v>
       </c>
       <c r="K2181">
         <v>0.0</v>
@@ -101267,24 +101360,24 @@
         <v>2415</v>
       </c>
       <c r="N2181" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="2182" spans="1:15">
       <c r="A2182">
-        <v>77284</v>
+        <v>77287</v>
       </c>
       <c r="B2182">
         <v>101060202</v>
       </c>
       <c r="C2182" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="D2182">
         <v>0.0</v>
       </c>
       <c r="E2182">
-        <v>1100000.0</v>
+        <v>750000.0</v>
       </c>
       <c r="F2182">
         <v>0</v>
@@ -101293,13 +101386,13 @@
         <v>15</v>
       </c>
       <c r="H2182" t="s">
+        <v>2542</v>
+      </c>
+      <c r="I2182" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2182" t="s">
         <v>2543</v>
-      </c>
-      <c r="I2182" t="s">
-        <v>296</v>
-      </c>
-      <c r="J2182" t="s">
-        <v>2544</v>
       </c>
       <c r="K2182">
         <v>0.0</v>
@@ -101311,37 +101404,37 @@
         <v>2415</v>
       </c>
       <c r="N2182" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="2183" spans="1:15">
       <c r="A2183">
-        <v>77285</v>
+        <v>77288</v>
       </c>
       <c r="B2183">
-        <v>101010204</v>
+        <v>101060102</v>
       </c>
       <c r="C2183" t="s">
-        <v>2542</v>
+        <v>2530</v>
       </c>
       <c r="D2183">
-        <v>1000000.0</v>
+        <v>290000000.0</v>
       </c>
       <c r="E2183">
         <v>0.0</v>
       </c>
       <c r="F2183">
-        <v>1000000.0</v>
+        <v>290000000.0</v>
       </c>
       <c r="G2183"/>
       <c r="H2183" t="s">
+        <v>696</v>
+      </c>
+      <c r="I2183" t="s">
+        <v>2545</v>
+      </c>
+      <c r="J2183" t="s">
         <v>2546</v>
-      </c>
-      <c r="I2183" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2183" t="s">
-        <v>2547</v>
       </c>
       <c r="K2183">
         <v>0.0</v>
@@ -101353,37 +101446,39 @@
         <v>2415</v>
       </c>
       <c r="N2183" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="2184" spans="1:15">
       <c r="A2184">
-        <v>77286</v>
+        <v>77289</v>
       </c>
       <c r="B2184">
-        <v>403010100</v>
+        <v>101010204</v>
       </c>
       <c r="C2184" t="s">
-        <v>2542</v>
+        <v>2530</v>
       </c>
       <c r="D2184">
         <v>0.0</v>
       </c>
       <c r="E2184">
-        <v>250000.0</v>
+        <v>290000000.0</v>
       </c>
       <c r="F2184">
         <v>0</v>
       </c>
-      <c r="G2184"/>
+      <c r="G2184" t="s">
+        <v>15</v>
+      </c>
       <c r="H2184" t="s">
+        <v>407</v>
+      </c>
+      <c r="I2184" t="s">
+        <v>2545</v>
+      </c>
+      <c r="J2184" t="s">
         <v>2546</v>
-      </c>
-      <c r="I2184" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2184" t="s">
-        <v>2547</v>
       </c>
       <c r="K2184">
         <v>0.0</v>
@@ -101395,39 +101490,37 @@
         <v>2415</v>
       </c>
       <c r="N2184" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="2185" spans="1:15">
       <c r="A2185">
-        <v>77287</v>
+        <v>77290</v>
       </c>
       <c r="B2185">
-        <v>101060202</v>
+        <v>101060106</v>
       </c>
       <c r="C2185" t="s">
-        <v>2542</v>
+        <v>2530</v>
       </c>
       <c r="D2185">
-        <v>0.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="E2185">
-        <v>750000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F2185">
-        <v>0</v>
-      </c>
-      <c r="G2185" t="s">
-        <v>15</v>
-      </c>
+        <v>20000000.0</v>
+      </c>
+      <c r="G2185"/>
       <c r="H2185" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="I2185" t="s">
-        <v>155</v>
+        <v>2549</v>
       </c>
       <c r="J2185" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="K2185">
         <v>0.0</v>
@@ -101439,31 +101532,33 @@
         <v>2415</v>
       </c>
       <c r="N2185" t="s">
-        <v>2548</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="2186" spans="1:15">
       <c r="A2186">
-        <v>77288</v>
+        <v>77291</v>
       </c>
       <c r="B2186">
-        <v>101060102</v>
+        <v>101010204</v>
       </c>
       <c r="C2186" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
       <c r="D2186">
-        <v>290000000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2186">
-        <v>0.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="F2186">
-        <v>290000000.0</v>
-      </c>
-      <c r="G2186"/>
+        <v>0</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>15</v>
+      </c>
       <c r="H2186" t="s">
-        <v>696</v>
+        <v>407</v>
       </c>
       <c r="I2186" t="s">
         <v>2549</v>
@@ -101486,34 +101581,32 @@
     </row>
     <row r="2187" spans="1:15">
       <c r="A2187">
-        <v>77289</v>
+        <v>77292</v>
       </c>
       <c r="B2187">
         <v>101010204</v>
       </c>
       <c r="C2187" t="s">
-        <v>2534</v>
+        <v>2552</v>
       </c>
       <c r="D2187">
-        <v>0.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="E2187">
-        <v>290000000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F2187">
-        <v>0</v>
-      </c>
-      <c r="G2187" t="s">
-        <v>15</v>
-      </c>
+        <v>1200000.0</v>
+      </c>
+      <c r="G2187"/>
       <c r="H2187" t="s">
-        <v>407</v>
+        <v>2553</v>
       </c>
       <c r="I2187" t="s">
-        <v>2549</v>
+        <v>230</v>
       </c>
       <c r="J2187" t="s">
-        <v>2550</v>
+        <v>2554</v>
       </c>
       <c r="K2187">
         <v>0.0</v>
@@ -101525,34 +101618,34 @@
         <v>2415</v>
       </c>
       <c r="N2187" t="s">
-        <v>2551</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="2188" spans="1:15">
       <c r="A2188">
-        <v>77290</v>
+        <v>77293</v>
       </c>
       <c r="B2188">
-        <v>101060106</v>
+        <v>403010100</v>
       </c>
       <c r="C2188" t="s">
-        <v>2534</v>
+        <v>2552</v>
       </c>
       <c r="D2188">
-        <v>20000000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2188">
-        <v>0.0</v>
+        <v>200000.0</v>
       </c>
       <c r="F2188">
-        <v>20000000.0</v>
+        <v>0</v>
       </c>
       <c r="G2188"/>
       <c r="H2188" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="I2188" t="s">
-        <v>2553</v>
+        <v>230</v>
       </c>
       <c r="J2188" t="s">
         <v>2554</v>
@@ -101572,19 +101665,19 @@
     </row>
     <row r="2189" spans="1:15">
       <c r="A2189">
-        <v>77291</v>
+        <v>77294</v>
       </c>
       <c r="B2189">
-        <v>101010204</v>
+        <v>101060207</v>
       </c>
       <c r="C2189" t="s">
-        <v>2534</v>
+        <v>2552</v>
       </c>
       <c r="D2189">
         <v>0.0</v>
       </c>
       <c r="E2189">
-        <v>20000000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="F2189">
         <v>0</v>
@@ -101593,10 +101686,10 @@
         <v>15</v>
       </c>
       <c r="H2189" t="s">
-        <v>407</v>
+        <v>2553</v>
       </c>
       <c r="I2189" t="s">
-        <v>2553</v>
+        <v>230</v>
       </c>
       <c r="J2189" t="s">
         <v>2554</v>
@@ -101616,32 +101709,32 @@
     </row>
     <row r="2190" spans="1:15">
       <c r="A2190">
-        <v>77292</v>
+        <v>77304</v>
       </c>
       <c r="B2190">
         <v>101010204</v>
       </c>
       <c r="C2190" t="s">
-        <v>2556</v>
+        <v>1961</v>
       </c>
       <c r="D2190">
-        <v>1200000.0</v>
+        <v>3500000.0</v>
       </c>
       <c r="E2190">
         <v>0.0</v>
       </c>
       <c r="F2190">
-        <v>1200000.0</v>
+        <v>3500000.0</v>
       </c>
       <c r="G2190"/>
       <c r="H2190" t="s">
+        <v>2556</v>
+      </c>
+      <c r="I2190" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2190" t="s">
         <v>2557</v>
-      </c>
-      <c r="I2190" t="s">
-        <v>230</v>
-      </c>
-      <c r="J2190" t="s">
-        <v>2558</v>
       </c>
       <c r="K2190">
         <v>0.0</v>
@@ -101653,37 +101746,37 @@
         <v>2415</v>
       </c>
       <c r="N2190" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="2191" spans="1:15">
       <c r="A2191">
-        <v>77293</v>
+        <v>77305</v>
       </c>
       <c r="B2191">
         <v>403010100</v>
       </c>
       <c r="C2191" t="s">
-        <v>2556</v>
+        <v>1961</v>
       </c>
       <c r="D2191">
         <v>0.0</v>
       </c>
       <c r="E2191">
-        <v>200000.0</v>
+        <v>375000.0</v>
       </c>
       <c r="F2191">
         <v>0</v>
       </c>
       <c r="G2191"/>
       <c r="H2191" t="s">
+        <v>2556</v>
+      </c>
+      <c r="I2191" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2191" t="s">
         <v>2557</v>
-      </c>
-      <c r="I2191" t="s">
-        <v>230</v>
-      </c>
-      <c r="J2191" t="s">
-        <v>2558</v>
       </c>
       <c r="K2191">
         <v>0.0</v>
@@ -101695,24 +101788,24 @@
         <v>2415</v>
       </c>
       <c r="N2191" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="2192" spans="1:15">
       <c r="A2192">
-        <v>77294</v>
+        <v>77306</v>
       </c>
       <c r="B2192">
-        <v>101060207</v>
+        <v>101060205</v>
       </c>
       <c r="C2192" t="s">
-        <v>2556</v>
+        <v>1961</v>
       </c>
       <c r="D2192">
         <v>0.0</v>
       </c>
       <c r="E2192">
-        <v>1000000.0</v>
+        <v>3125000.0</v>
       </c>
       <c r="F2192">
         <v>0</v>
@@ -101721,13 +101814,13 @@
         <v>15</v>
       </c>
       <c r="H2192" t="s">
+        <v>2556</v>
+      </c>
+      <c r="I2192" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2192" t="s">
         <v>2557</v>
-      </c>
-      <c r="I2192" t="s">
-        <v>230</v>
-      </c>
-      <c r="J2192" t="s">
-        <v>2558</v>
       </c>
       <c r="K2192">
         <v>0.0</v>
@@ -101739,18 +101832,18 @@
         <v>2415</v>
       </c>
       <c r="N2192" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="2193" spans="1:15">
       <c r="A2193">
-        <v>77304</v>
+        <v>77307</v>
       </c>
       <c r="B2193">
         <v>101010204</v>
       </c>
       <c r="C2193" t="s">
-        <v>1961</v>
+        <v>2319</v>
       </c>
       <c r="D2193">
         <v>3500000.0</v>
@@ -101763,13 +101856,13 @@
       </c>
       <c r="G2193"/>
       <c r="H2193" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="I2193" t="s">
         <v>264</v>
       </c>
       <c r="J2193" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="K2193">
         <v>0.0</v>
@@ -101781,18 +101874,18 @@
         <v>2415</v>
       </c>
       <c r="N2193" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="2194" spans="1:15">
       <c r="A2194">
-        <v>77305</v>
+        <v>77308</v>
       </c>
       <c r="B2194">
         <v>403010100</v>
       </c>
       <c r="C2194" t="s">
-        <v>1961</v>
+        <v>2319</v>
       </c>
       <c r="D2194">
         <v>0.0</v>
@@ -101805,13 +101898,13 @@
       </c>
       <c r="G2194"/>
       <c r="H2194" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="I2194" t="s">
         <v>264</v>
       </c>
       <c r="J2194" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="K2194">
         <v>0.0</v>
@@ -101823,18 +101916,18 @@
         <v>2415</v>
       </c>
       <c r="N2194" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="2195" spans="1:15">
       <c r="A2195">
-        <v>77306</v>
+        <v>77309</v>
       </c>
       <c r="B2195">
         <v>101060205</v>
       </c>
       <c r="C2195" t="s">
-        <v>1961</v>
+        <v>2319</v>
       </c>
       <c r="D2195">
         <v>0.0</v>
@@ -101849,13 +101942,13 @@
         <v>15</v>
       </c>
       <c r="H2195" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="I2195" t="s">
         <v>264</v>
       </c>
       <c r="J2195" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="K2195">
         <v>0.0</v>
@@ -101867,37 +101960,37 @@
         <v>2415</v>
       </c>
       <c r="N2195" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="2196" spans="1:15">
       <c r="A2196">
-        <v>77307</v>
+        <v>77310</v>
       </c>
       <c r="B2196">
         <v>101010204</v>
       </c>
       <c r="C2196" t="s">
-        <v>2319</v>
+        <v>1839</v>
       </c>
       <c r="D2196">
-        <v>3500000.0</v>
+        <v>934000.0</v>
       </c>
       <c r="E2196">
         <v>0.0</v>
       </c>
       <c r="F2196">
-        <v>3500000.0</v>
+        <v>934000.0</v>
       </c>
       <c r="G2196"/>
       <c r="H2196" t="s">
+        <v>2562</v>
+      </c>
+      <c r="I2196" t="s">
+        <v>574</v>
+      </c>
+      <c r="J2196" t="s">
         <v>2563</v>
-      </c>
-      <c r="I2196" t="s">
-        <v>264</v>
-      </c>
-      <c r="J2196" t="s">
-        <v>2564</v>
       </c>
       <c r="K2196">
         <v>0.0</v>
@@ -101909,37 +102002,37 @@
         <v>2415</v>
       </c>
       <c r="N2196" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="2197" spans="1:15">
       <c r="A2197">
-        <v>77308</v>
+        <v>77311</v>
       </c>
       <c r="B2197">
         <v>403010100</v>
       </c>
       <c r="C2197" t="s">
-        <v>2319</v>
+        <v>1839</v>
       </c>
       <c r="D2197">
         <v>0.0</v>
       </c>
       <c r="E2197">
-        <v>375000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="F2197">
         <v>0</v>
       </c>
       <c r="G2197"/>
       <c r="H2197" t="s">
+        <v>2562</v>
+      </c>
+      <c r="I2197" t="s">
+        <v>574</v>
+      </c>
+      <c r="J2197" t="s">
         <v>2563</v>
-      </c>
-      <c r="I2197" t="s">
-        <v>264</v>
-      </c>
-      <c r="J2197" t="s">
-        <v>2564</v>
       </c>
       <c r="K2197">
         <v>0.0</v>
@@ -101951,24 +102044,24 @@
         <v>2415</v>
       </c>
       <c r="N2197" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="2198" spans="1:15">
       <c r="A2198">
-        <v>77309</v>
+        <v>77312</v>
       </c>
       <c r="B2198">
-        <v>101060205</v>
+        <v>101060207</v>
       </c>
       <c r="C2198" t="s">
-        <v>2319</v>
+        <v>1839</v>
       </c>
       <c r="D2198">
         <v>0.0</v>
       </c>
       <c r="E2198">
-        <v>3125000.0</v>
+        <v>734000.0</v>
       </c>
       <c r="F2198">
         <v>0</v>
@@ -101977,13 +102070,13 @@
         <v>15</v>
       </c>
       <c r="H2198" t="s">
+        <v>2562</v>
+      </c>
+      <c r="I2198" t="s">
+        <v>574</v>
+      </c>
+      <c r="J2198" t="s">
         <v>2563</v>
-      </c>
-      <c r="I2198" t="s">
-        <v>264</v>
-      </c>
-      <c r="J2198" t="s">
-        <v>2564</v>
       </c>
       <c r="K2198">
         <v>0.0</v>
@@ -101995,18 +102088,18 @@
         <v>2415</v>
       </c>
       <c r="N2198" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="2199" spans="1:15">
       <c r="A2199">
-        <v>77310</v>
+        <v>77313</v>
       </c>
       <c r="B2199">
         <v>101010204</v>
       </c>
       <c r="C2199" t="s">
-        <v>1839</v>
+        <v>2255</v>
       </c>
       <c r="D2199">
         <v>934000.0</v>
@@ -102019,13 +102112,13 @@
       </c>
       <c r="G2199"/>
       <c r="H2199" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="I2199" t="s">
         <v>574</v>
       </c>
       <c r="J2199" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="K2199">
         <v>0.0</v>
@@ -102037,37 +102130,37 @@
         <v>2415</v>
       </c>
       <c r="N2199" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="2200" spans="1:15">
       <c r="A2200">
-        <v>77311</v>
+        <v>77314</v>
       </c>
       <c r="B2200">
         <v>403010100</v>
       </c>
       <c r="C2200" t="s">
-        <v>1839</v>
+        <v>2255</v>
       </c>
       <c r="D2200">
         <v>0.0</v>
       </c>
       <c r="E2200">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="F2200">
         <v>0</v>
       </c>
       <c r="G2200"/>
       <c r="H2200" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="I2200" t="s">
         <v>574</v>
       </c>
       <c r="J2200" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="K2200">
         <v>0.0</v>
@@ -102079,24 +102172,24 @@
         <v>2415</v>
       </c>
       <c r="N2200" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="2201" spans="1:15">
       <c r="A2201">
-        <v>77312</v>
+        <v>77315</v>
       </c>
       <c r="B2201">
         <v>101060207</v>
       </c>
       <c r="C2201" t="s">
-        <v>1839</v>
+        <v>2255</v>
       </c>
       <c r="D2201">
         <v>0.0</v>
       </c>
       <c r="E2201">
-        <v>734000.0</v>
+        <v>834000.0</v>
       </c>
       <c r="F2201">
         <v>0</v>
@@ -102105,13 +102198,13 @@
         <v>15</v>
       </c>
       <c r="H2201" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="I2201" t="s">
         <v>574</v>
       </c>
       <c r="J2201" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="K2201">
         <v>0.0</v>
@@ -102123,34 +102216,34 @@
         <v>2415</v>
       </c>
       <c r="N2201" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="2202" spans="1:15">
       <c r="A2202">
-        <v>77313</v>
+        <v>77316</v>
       </c>
       <c r="B2202">
         <v>101010204</v>
       </c>
       <c r="C2202" t="s">
-        <v>2255</v>
+        <v>2011</v>
       </c>
       <c r="D2202">
-        <v>934000.0</v>
+        <v>1350000.0</v>
       </c>
       <c r="E2202">
         <v>0.0</v>
       </c>
       <c r="F2202">
-        <v>934000.0</v>
+        <v>1350000.0</v>
       </c>
       <c r="G2202"/>
       <c r="H2202" t="s">
+        <v>2568</v>
+      </c>
+      <c r="I2202" t="s">
         <v>2569</v>
-      </c>
-      <c r="I2202" t="s">
-        <v>574</v>
       </c>
       <c r="J2202" t="s">
         <v>2570</v>
@@ -102170,29 +102263,29 @@
     </row>
     <row r="2203" spans="1:15">
       <c r="A2203">
-        <v>77314</v>
+        <v>77317</v>
       </c>
       <c r="B2203">
         <v>403010100</v>
       </c>
       <c r="C2203" t="s">
-        <v>2255</v>
+        <v>2011</v>
       </c>
       <c r="D2203">
         <v>0.0</v>
       </c>
       <c r="E2203">
-        <v>100000.0</v>
+        <v>150000.0</v>
       </c>
       <c r="F2203">
         <v>0</v>
       </c>
       <c r="G2203"/>
       <c r="H2203" t="s">
+        <v>2568</v>
+      </c>
+      <c r="I2203" t="s">
         <v>2569</v>
-      </c>
-      <c r="I2203" t="s">
-        <v>574</v>
       </c>
       <c r="J2203" t="s">
         <v>2570</v>
@@ -102212,19 +102305,19 @@
     </row>
     <row r="2204" spans="1:15">
       <c r="A2204">
-        <v>77315</v>
+        <v>77318</v>
       </c>
       <c r="B2204">
-        <v>101060207</v>
+        <v>101060202</v>
       </c>
       <c r="C2204" t="s">
-        <v>2255</v>
+        <v>2011</v>
       </c>
       <c r="D2204">
         <v>0.0</v>
       </c>
       <c r="E2204">
-        <v>834000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="F2204">
         <v>0</v>
@@ -102233,10 +102326,10 @@
         <v>15</v>
       </c>
       <c r="H2204" t="s">
+        <v>2568</v>
+      </c>
+      <c r="I2204" t="s">
         <v>2569</v>
-      </c>
-      <c r="I2204" t="s">
-        <v>574</v>
       </c>
       <c r="J2204" t="s">
         <v>2570</v>
@@ -102256,29 +102349,29 @@
     </row>
     <row r="2205" spans="1:15">
       <c r="A2205">
-        <v>77316</v>
+        <v>77319</v>
       </c>
       <c r="B2205">
         <v>101010204</v>
       </c>
       <c r="C2205" t="s">
-        <v>2011</v>
+        <v>2572</v>
       </c>
       <c r="D2205">
-        <v>1350000.0</v>
+        <v>2650000.0</v>
       </c>
       <c r="E2205">
         <v>0.0</v>
       </c>
       <c r="F2205">
-        <v>1350000.0</v>
+        <v>2650000.0</v>
       </c>
       <c r="G2205"/>
       <c r="H2205" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="I2205" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="J2205" t="s">
         <v>2574</v>
@@ -102298,13 +102391,13 @@
     </row>
     <row r="2206" spans="1:15">
       <c r="A2206">
-        <v>77317</v>
+        <v>77320</v>
       </c>
       <c r="B2206">
         <v>403010100</v>
       </c>
       <c r="C2206" t="s">
-        <v>2011</v>
+        <v>2572</v>
       </c>
       <c r="D2206">
         <v>0.0</v>
@@ -102317,10 +102410,10 @@
       </c>
       <c r="G2206"/>
       <c r="H2206" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="I2206" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="J2206" t="s">
         <v>2574</v>
@@ -102340,19 +102433,19 @@
     </row>
     <row r="2207" spans="1:15">
       <c r="A2207">
-        <v>77318</v>
+        <v>77321</v>
       </c>
       <c r="B2207">
         <v>101060202</v>
       </c>
       <c r="C2207" t="s">
-        <v>2011</v>
+        <v>2572</v>
       </c>
       <c r="D2207">
         <v>0.0</v>
       </c>
       <c r="E2207">
-        <v>1200000.0</v>
+        <v>2500000.0</v>
       </c>
       <c r="F2207">
         <v>0</v>
@@ -102361,10 +102454,10 @@
         <v>15</v>
       </c>
       <c r="H2207" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="I2207" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="J2207" t="s">
         <v>2574</v>
@@ -102384,7 +102477,7 @@
     </row>
     <row r="2208" spans="1:15">
       <c r="A2208">
-        <v>77319</v>
+        <v>77342</v>
       </c>
       <c r="B2208">
         <v>101010204</v>
@@ -102393,20 +102486,20 @@
         <v>2576</v>
       </c>
       <c r="D2208">
-        <v>2650000.0</v>
+        <v>1900000.0</v>
       </c>
       <c r="E2208">
         <v>0.0</v>
       </c>
       <c r="F2208">
-        <v>2650000.0</v>
+        <v>1900000.0</v>
       </c>
       <c r="G2208"/>
       <c r="H2208" t="s">
         <v>2577</v>
       </c>
       <c r="I2208" t="s">
-        <v>2573</v>
+        <v>2271</v>
       </c>
       <c r="J2208" t="s">
         <v>2578</v>
@@ -102426,7 +102519,7 @@
     </row>
     <row r="2209" spans="1:15">
       <c r="A2209">
-        <v>77320</v>
+        <v>77343</v>
       </c>
       <c r="B2209">
         <v>403010100</v>
@@ -102438,7 +102531,7 @@
         <v>0.0</v>
       </c>
       <c r="E2209">
-        <v>150000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="F2209">
         <v>0</v>
@@ -102448,7 +102541,7 @@
         <v>2577</v>
       </c>
       <c r="I2209" t="s">
-        <v>2573</v>
+        <v>2271</v>
       </c>
       <c r="J2209" t="s">
         <v>2578</v>
@@ -102468,10 +102561,10 @@
     </row>
     <row r="2210" spans="1:15">
       <c r="A2210">
-        <v>77321</v>
+        <v>77344</v>
       </c>
       <c r="B2210">
-        <v>101060202</v>
+        <v>101060201</v>
       </c>
       <c r="C2210" t="s">
         <v>2576</v>
@@ -102480,7 +102573,7 @@
         <v>0.0</v>
       </c>
       <c r="E2210">
-        <v>2500000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="F2210">
         <v>0</v>
@@ -102492,7 +102585,7 @@
         <v>2577</v>
       </c>
       <c r="I2210" t="s">
-        <v>2573</v>
+        <v>2271</v>
       </c>
       <c r="J2210" t="s">
         <v>2578</v>
@@ -102512,32 +102605,32 @@
     </row>
     <row r="2211" spans="1:15">
       <c r="A2211">
-        <v>77342</v>
+        <v>77345</v>
       </c>
       <c r="B2211">
-        <v>101010204</v>
+        <v>101010201</v>
       </c>
       <c r="C2211" t="s">
-        <v>2580</v>
+        <v>2552</v>
       </c>
       <c r="D2211">
-        <v>1900000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="E2211">
         <v>0.0</v>
       </c>
       <c r="F2211">
-        <v>1900000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="G2211"/>
       <c r="H2211" t="s">
+        <v>2580</v>
+      </c>
+      <c r="I2211" t="s">
+        <v>1946</v>
+      </c>
+      <c r="J2211" t="s">
         <v>2581</v>
-      </c>
-      <c r="I2211" t="s">
-        <v>2271</v>
-      </c>
-      <c r="J2211" t="s">
-        <v>2582</v>
       </c>
       <c r="K2211">
         <v>0.0</v>
@@ -102549,37 +102642,37 @@
         <v>2415</v>
       </c>
       <c r="N2211" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="2212" spans="1:15">
       <c r="A2212">
-        <v>77343</v>
+        <v>77346</v>
       </c>
       <c r="B2212">
         <v>403010100</v>
       </c>
       <c r="C2212" t="s">
-        <v>2580</v>
+        <v>2552</v>
       </c>
       <c r="D2212">
         <v>0.0</v>
       </c>
       <c r="E2212">
-        <v>200000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F2212">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G2212"/>
       <c r="H2212" t="s">
+        <v>2580</v>
+      </c>
+      <c r="I2212" t="s">
+        <v>1946</v>
+      </c>
+      <c r="J2212" t="s">
         <v>2581</v>
-      </c>
-      <c r="I2212" t="s">
-        <v>2271</v>
-      </c>
-      <c r="J2212" t="s">
-        <v>2582</v>
       </c>
       <c r="K2212">
         <v>0.0</v>
@@ -102591,24 +102684,24 @@
         <v>2415</v>
       </c>
       <c r="N2212" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="2213" spans="1:15">
       <c r="A2213">
-        <v>77344</v>
+        <v>77347</v>
       </c>
       <c r="B2213">
-        <v>101060201</v>
+        <v>101060202</v>
       </c>
       <c r="C2213" t="s">
-        <v>2580</v>
+        <v>2552</v>
       </c>
       <c r="D2213">
         <v>0.0</v>
       </c>
       <c r="E2213">
-        <v>1700000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="F2213">
         <v>0</v>
@@ -102617,13 +102710,13 @@
         <v>15</v>
       </c>
       <c r="H2213" t="s">
+        <v>2580</v>
+      </c>
+      <c r="I2213" t="s">
+        <v>1946</v>
+      </c>
+      <c r="J2213" t="s">
         <v>2581</v>
-      </c>
-      <c r="I2213" t="s">
-        <v>2271</v>
-      </c>
-      <c r="J2213" t="s">
-        <v>2582</v>
       </c>
       <c r="K2213">
         <v>0.0</v>
@@ -102635,34 +102728,34 @@
         <v>2415</v>
       </c>
       <c r="N2213" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="2214" spans="1:15">
       <c r="A2214">
-        <v>77345</v>
+        <v>77348</v>
       </c>
       <c r="B2214">
-        <v>101010201</v>
+        <v>101010204</v>
       </c>
       <c r="C2214" t="s">
-        <v>2556</v>
+        <v>2179</v>
       </c>
       <c r="D2214">
-        <v>500000.0</v>
+        <v>2334000.0</v>
       </c>
       <c r="E2214">
         <v>0.0</v>
       </c>
       <c r="F2214">
-        <v>500000.0</v>
+        <v>2334000.0</v>
       </c>
       <c r="G2214"/>
       <c r="H2214" t="s">
+        <v>2583</v>
+      </c>
+      <c r="I2214" t="s">
         <v>2584</v>
-      </c>
-      <c r="I2214" t="s">
-        <v>1946</v>
       </c>
       <c r="J2214" t="s">
         <v>2585</v>
@@ -102682,29 +102775,29 @@
     </row>
     <row r="2215" spans="1:15">
       <c r="A2215">
-        <v>77346</v>
+        <v>77349</v>
       </c>
       <c r="B2215">
         <v>403010100</v>
       </c>
       <c r="C2215" t="s">
-        <v>2556</v>
+        <v>2179</v>
       </c>
       <c r="D2215">
         <v>0.0</v>
       </c>
       <c r="E2215">
-        <v>0.0</v>
+        <v>250000.0</v>
       </c>
       <c r="F2215">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2215"/>
       <c r="H2215" t="s">
+        <v>2583</v>
+      </c>
+      <c r="I2215" t="s">
         <v>2584</v>
-      </c>
-      <c r="I2215" t="s">
-        <v>1946</v>
       </c>
       <c r="J2215" t="s">
         <v>2585</v>
@@ -102724,19 +102817,19 @@
     </row>
     <row r="2216" spans="1:15">
       <c r="A2216">
-        <v>77347</v>
+        <v>77350</v>
       </c>
       <c r="B2216">
-        <v>101060202</v>
+        <v>101060207</v>
       </c>
       <c r="C2216" t="s">
-        <v>2556</v>
+        <v>2179</v>
       </c>
       <c r="D2216">
         <v>0.0</v>
       </c>
       <c r="E2216">
-        <v>500000.0</v>
+        <v>2084000.0</v>
       </c>
       <c r="F2216">
         <v>0</v>
@@ -102745,10 +102838,10 @@
         <v>15</v>
       </c>
       <c r="H2216" t="s">
+        <v>2583</v>
+      </c>
+      <c r="I2216" t="s">
         <v>2584</v>
-      </c>
-      <c r="I2216" t="s">
-        <v>1946</v>
       </c>
       <c r="J2216" t="s">
         <v>2585</v>
@@ -102768,13 +102861,13 @@
     </row>
     <row r="2217" spans="1:15">
       <c r="A2217">
-        <v>77348</v>
+        <v>77351</v>
       </c>
       <c r="B2217">
         <v>101010204</v>
       </c>
       <c r="C2217" t="s">
-        <v>2179</v>
+        <v>2445</v>
       </c>
       <c r="D2217">
         <v>2334000.0</v>
@@ -102790,10 +102883,10 @@
         <v>2587</v>
       </c>
       <c r="I2217" t="s">
+        <v>2584</v>
+      </c>
+      <c r="J2217" t="s">
         <v>2588</v>
-      </c>
-      <c r="J2217" t="s">
-        <v>2589</v>
       </c>
       <c r="K2217">
         <v>0.0</v>
@@ -102805,18 +102898,18 @@
         <v>2415</v>
       </c>
       <c r="N2217" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="2218" spans="1:15">
       <c r="A2218">
-        <v>77349</v>
+        <v>77352</v>
       </c>
       <c r="B2218">
         <v>403010100</v>
       </c>
       <c r="C2218" t="s">
-        <v>2179</v>
+        <v>2445</v>
       </c>
       <c r="D2218">
         <v>0.0</v>
@@ -102832,10 +102925,10 @@
         <v>2587</v>
       </c>
       <c r="I2218" t="s">
+        <v>2584</v>
+      </c>
+      <c r="J2218" t="s">
         <v>2588</v>
-      </c>
-      <c r="J2218" t="s">
-        <v>2589</v>
       </c>
       <c r="K2218">
         <v>0.0</v>
@@ -102847,18 +102940,18 @@
         <v>2415</v>
       </c>
       <c r="N2218" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="2219" spans="1:15">
       <c r="A2219">
-        <v>77350</v>
+        <v>77353</v>
       </c>
       <c r="B2219">
         <v>101060207</v>
       </c>
       <c r="C2219" t="s">
-        <v>2179</v>
+        <v>2445</v>
       </c>
       <c r="D2219">
         <v>0.0</v>
@@ -102876,10 +102969,10 @@
         <v>2587</v>
       </c>
       <c r="I2219" t="s">
+        <v>2584</v>
+      </c>
+      <c r="J2219" t="s">
         <v>2588</v>
-      </c>
-      <c r="J2219" t="s">
-        <v>2589</v>
       </c>
       <c r="K2219">
         <v>0.0</v>
@@ -102891,37 +102984,37 @@
         <v>2415</v>
       </c>
       <c r="N2219" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="2220" spans="1:15">
       <c r="A2220">
-        <v>77351</v>
+        <v>77354</v>
       </c>
       <c r="B2220">
         <v>101010204</v>
       </c>
       <c r="C2220" t="s">
-        <v>2445</v>
+        <v>2552</v>
       </c>
       <c r="D2220">
-        <v>2334000.0</v>
+        <v>2650000.0</v>
       </c>
       <c r="E2220">
         <v>0.0</v>
       </c>
       <c r="F2220">
-        <v>2334000.0</v>
+        <v>2650000.0</v>
       </c>
       <c r="G2220"/>
       <c r="H2220" t="s">
+        <v>2590</v>
+      </c>
+      <c r="I2220" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2220" t="s">
         <v>2591</v>
-      </c>
-      <c r="I2220" t="s">
-        <v>2588</v>
-      </c>
-      <c r="J2220" t="s">
-        <v>2592</v>
       </c>
       <c r="K2220">
         <v>0.0</v>
@@ -102933,37 +103026,37 @@
         <v>2415</v>
       </c>
       <c r="N2220" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="2221" spans="1:15">
       <c r="A2221">
-        <v>77352</v>
+        <v>77355</v>
       </c>
       <c r="B2221">
         <v>403010100</v>
       </c>
       <c r="C2221" t="s">
-        <v>2445</v>
+        <v>2552</v>
       </c>
       <c r="D2221">
         <v>0.0</v>
       </c>
       <c r="E2221">
-        <v>250000.0</v>
+        <v>150000.0</v>
       </c>
       <c r="F2221">
         <v>0</v>
       </c>
       <c r="G2221"/>
       <c r="H2221" t="s">
+        <v>2590</v>
+      </c>
+      <c r="I2221" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2221" t="s">
         <v>2591</v>
-      </c>
-      <c r="I2221" t="s">
-        <v>2588</v>
-      </c>
-      <c r="J2221" t="s">
-        <v>2592</v>
       </c>
       <c r="K2221">
         <v>0.0</v>
@@ -102975,24 +103068,24 @@
         <v>2415</v>
       </c>
       <c r="N2221" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="2222" spans="1:15">
       <c r="A2222">
-        <v>77353</v>
+        <v>77356</v>
       </c>
       <c r="B2222">
-        <v>101060207</v>
+        <v>101060202</v>
       </c>
       <c r="C2222" t="s">
-        <v>2445</v>
+        <v>2552</v>
       </c>
       <c r="D2222">
         <v>0.0</v>
       </c>
       <c r="E2222">
-        <v>2084000.0</v>
+        <v>2500000.0</v>
       </c>
       <c r="F2222">
         <v>0</v>
@@ -103001,13 +103094,13 @@
         <v>15</v>
       </c>
       <c r="H2222" t="s">
+        <v>2590</v>
+      </c>
+      <c r="I2222" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2222" t="s">
         <v>2591</v>
-      </c>
-      <c r="I2222" t="s">
-        <v>2588</v>
-      </c>
-      <c r="J2222" t="s">
-        <v>2592</v>
       </c>
       <c r="K2222">
         <v>0.0</v>
@@ -103019,37 +103112,37 @@
         <v>2415</v>
       </c>
       <c r="N2222" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="2223" spans="1:15">
       <c r="A2223">
-        <v>77354</v>
+        <v>77357</v>
       </c>
       <c r="B2223">
         <v>101010204</v>
       </c>
       <c r="C2223" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
       <c r="D2223">
-        <v>2650000.0</v>
+        <v>3734000.0</v>
       </c>
       <c r="E2223">
         <v>0.0</v>
       </c>
       <c r="F2223">
-        <v>2650000.0</v>
+        <v>3734000.0</v>
       </c>
       <c r="G2223"/>
       <c r="H2223" t="s">
+        <v>2593</v>
+      </c>
+      <c r="I2223" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2223" t="s">
         <v>2594</v>
-      </c>
-      <c r="I2223" t="s">
-        <v>246</v>
-      </c>
-      <c r="J2223" t="s">
-        <v>2595</v>
       </c>
       <c r="K2223">
         <v>0.0</v>
@@ -103061,37 +103154,37 @@
         <v>2415</v>
       </c>
       <c r="N2223" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="2224" spans="1:15">
       <c r="A2224">
-        <v>77355</v>
+        <v>77358</v>
       </c>
       <c r="B2224">
         <v>403010100</v>
       </c>
       <c r="C2224" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
       <c r="D2224">
         <v>0.0</v>
       </c>
       <c r="E2224">
-        <v>150000.0</v>
+        <v>400000.0</v>
       </c>
       <c r="F2224">
         <v>0</v>
       </c>
       <c r="G2224"/>
       <c r="H2224" t="s">
+        <v>2593</v>
+      </c>
+      <c r="I2224" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2224" t="s">
         <v>2594</v>
-      </c>
-      <c r="I2224" t="s">
-        <v>246</v>
-      </c>
-      <c r="J2224" t="s">
-        <v>2595</v>
       </c>
       <c r="K2224">
         <v>0.0</v>
@@ -103103,24 +103196,24 @@
         <v>2415</v>
       </c>
       <c r="N2224" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="2225" spans="1:15">
       <c r="A2225">
-        <v>77356</v>
+        <v>77359</v>
       </c>
       <c r="B2225">
         <v>101060202</v>
       </c>
       <c r="C2225" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
       <c r="D2225">
         <v>0.0</v>
       </c>
       <c r="E2225">
-        <v>2500000.0</v>
+        <v>3334000.0</v>
       </c>
       <c r="F2225">
         <v>0</v>
@@ -103129,13 +103222,13 @@
         <v>15</v>
       </c>
       <c r="H2225" t="s">
+        <v>2593</v>
+      </c>
+      <c r="I2225" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2225" t="s">
         <v>2594</v>
-      </c>
-      <c r="I2225" t="s">
-        <v>246</v>
-      </c>
-      <c r="J2225" t="s">
-        <v>2595</v>
       </c>
       <c r="K2225">
         <v>0.0</v>
@@ -103147,37 +103240,37 @@
         <v>2415</v>
       </c>
       <c r="N2225" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="2226" spans="1:15">
       <c r="A2226">
-        <v>77357</v>
+        <v>77360</v>
       </c>
       <c r="B2226">
-        <v>101010204</v>
+        <v>101010101</v>
       </c>
       <c r="C2226" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
       <c r="D2226">
-        <v>3734000.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="E2226">
         <v>0.0</v>
       </c>
       <c r="F2226">
-        <v>3734000.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="G2226"/>
       <c r="H2226" t="s">
+        <v>2596</v>
+      </c>
+      <c r="I2226" t="s">
+        <v>388</v>
+      </c>
+      <c r="J2226" t="s">
         <v>2597</v>
-      </c>
-      <c r="I2226" t="s">
-        <v>255</v>
-      </c>
-      <c r="J2226" t="s">
-        <v>2598</v>
       </c>
       <c r="K2226">
         <v>0.0</v>
@@ -103189,37 +103282,37 @@
         <v>2415</v>
       </c>
       <c r="N2226" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="2227" spans="1:15">
       <c r="A2227">
-        <v>77358</v>
+        <v>77361</v>
       </c>
       <c r="B2227">
         <v>403010100</v>
       </c>
       <c r="C2227" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
       <c r="D2227">
         <v>0.0</v>
       </c>
       <c r="E2227">
-        <v>400000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="F2227">
         <v>0</v>
       </c>
       <c r="G2227"/>
       <c r="H2227" t="s">
+        <v>2596</v>
+      </c>
+      <c r="I2227" t="s">
+        <v>388</v>
+      </c>
+      <c r="J2227" t="s">
         <v>2597</v>
-      </c>
-      <c r="I2227" t="s">
-        <v>255</v>
-      </c>
-      <c r="J2227" t="s">
-        <v>2598</v>
       </c>
       <c r="K2227">
         <v>0.0</v>
@@ -103231,24 +103324,24 @@
         <v>2415</v>
       </c>
       <c r="N2227" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="2228" spans="1:15">
       <c r="A2228">
-        <v>77359</v>
+        <v>77362</v>
       </c>
       <c r="B2228">
-        <v>101060202</v>
+        <v>101060207</v>
       </c>
       <c r="C2228" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
       <c r="D2228">
         <v>0.0</v>
       </c>
       <c r="E2228">
-        <v>3334000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="F2228">
         <v>0</v>
@@ -103257,13 +103350,13 @@
         <v>15</v>
       </c>
       <c r="H2228" t="s">
+        <v>2596</v>
+      </c>
+      <c r="I2228" t="s">
+        <v>388</v>
+      </c>
+      <c r="J2228" t="s">
         <v>2597</v>
-      </c>
-      <c r="I2228" t="s">
-        <v>255</v>
-      </c>
-      <c r="J2228" t="s">
-        <v>2598</v>
       </c>
       <c r="K2228">
         <v>0.0</v>
@@ -103275,34 +103368,34 @@
         <v>2415</v>
       </c>
       <c r="N2228" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="2229" spans="1:15">
       <c r="A2229">
-        <v>77360</v>
+        <v>77394</v>
       </c>
       <c r="B2229">
-        <v>101010101</v>
+        <v>101010204</v>
       </c>
       <c r="C2229" t="s">
-        <v>2556</v>
+        <v>2599</v>
       </c>
       <c r="D2229">
-        <v>2000000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="E2229">
         <v>0.0</v>
       </c>
       <c r="F2229">
-        <v>2000000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="G2229"/>
       <c r="H2229" t="s">
         <v>2600</v>
       </c>
       <c r="I2229" t="s">
-        <v>388</v>
+        <v>109</v>
       </c>
       <c r="J2229" t="s">
         <v>2601</v>
@@ -103314,37 +103407,37 @@
         <v>0.0</v>
       </c>
       <c r="M2229" t="s">
-        <v>2415</v>
+        <v>2602</v>
       </c>
       <c r="N2229" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="2230" spans="1:15">
       <c r="A2230">
-        <v>77361</v>
+        <v>77395</v>
       </c>
       <c r="B2230">
         <v>403010100</v>
       </c>
       <c r="C2230" t="s">
-        <v>2556</v>
+        <v>2599</v>
       </c>
       <c r="D2230">
         <v>0.0</v>
       </c>
       <c r="E2230">
-        <v>200000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F2230">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G2230"/>
       <c r="H2230" t="s">
         <v>2600</v>
       </c>
       <c r="I2230" t="s">
-        <v>388</v>
+        <v>109</v>
       </c>
       <c r="J2230" t="s">
         <v>2601</v>
@@ -103356,27 +103449,27 @@
         <v>0.0</v>
       </c>
       <c r="M2230" t="s">
-        <v>2415</v>
+        <v>2602</v>
       </c>
       <c r="N2230" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="2231" spans="1:15">
       <c r="A2231">
-        <v>77362</v>
+        <v>77396</v>
       </c>
       <c r="B2231">
-        <v>101060207</v>
+        <v>101060202</v>
       </c>
       <c r="C2231" t="s">
-        <v>2556</v>
+        <v>2599</v>
       </c>
       <c r="D2231">
         <v>0.0</v>
       </c>
       <c r="E2231">
-        <v>1800000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="F2231">
         <v>0</v>
@@ -103388,7 +103481,7 @@
         <v>2600</v>
       </c>
       <c r="I2231" t="s">
-        <v>388</v>
+        <v>109</v>
       </c>
       <c r="J2231" t="s">
         <v>2601</v>
@@ -103400,21 +103493,21 @@
         <v>0.0</v>
       </c>
       <c r="M2231" t="s">
-        <v>2415</v>
+        <v>2602</v>
       </c>
       <c r="N2231" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="2232" spans="1:15">
       <c r="A2232">
-        <v>77363</v>
+        <v>77397</v>
       </c>
       <c r="B2232">
         <v>101010204</v>
       </c>
       <c r="C2232" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="D2232">
         <v>2500000.0</v>
@@ -103427,13 +103520,13 @@
       </c>
       <c r="G2232"/>
       <c r="H2232" t="s">
-        <v>407</v>
+        <v>2605</v>
       </c>
       <c r="I2232" t="s">
-        <v>2604</v>
+        <v>234</v>
       </c>
       <c r="J2232" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="K2232">
         <v>0.0</v>
@@ -103442,54 +103535,1122 @@
         <v>0.0</v>
       </c>
       <c r="M2232" t="s">
-        <v>2415</v>
+        <v>2602</v>
       </c>
       <c r="N2232" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="2233" spans="1:15">
       <c r="A2233">
-        <v>77364</v>
+        <v>77398</v>
       </c>
       <c r="B2233">
-        <v>103040206</v>
+        <v>403010100</v>
       </c>
       <c r="C2233" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="D2233">
         <v>0.0</v>
       </c>
       <c r="E2233">
+        <v>250000.0</v>
+      </c>
+      <c r="F2233">
+        <v>0</v>
+      </c>
+      <c r="G2233"/>
+      <c r="H2233" t="s">
+        <v>2605</v>
+      </c>
+      <c r="I2233" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2233" t="s">
+        <v>2606</v>
+      </c>
+      <c r="K2233">
+        <v>0.0</v>
+      </c>
+      <c r="L2233">
+        <v>0.0</v>
+      </c>
+      <c r="M2233" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2233" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:15">
+      <c r="A2234">
+        <v>77399</v>
+      </c>
+      <c r="B2234">
+        <v>101060202</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D2234">
+        <v>0.0</v>
+      </c>
+      <c r="E2234">
+        <v>2250000.0</v>
+      </c>
+      <c r="F2234">
+        <v>0</v>
+      </c>
+      <c r="G2234" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2234" t="s">
+        <v>2605</v>
+      </c>
+      <c r="I2234" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2234" t="s">
+        <v>2606</v>
+      </c>
+      <c r="K2234">
+        <v>0.0</v>
+      </c>
+      <c r="L2234">
+        <v>0.0</v>
+      </c>
+      <c r="M2234" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2234" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:15">
+      <c r="A2235">
+        <v>77400</v>
+      </c>
+      <c r="B2235">
+        <v>101010204</v>
+      </c>
+      <c r="C2235" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D2235">
+        <v>1105000.0</v>
+      </c>
+      <c r="E2235">
+        <v>0.0</v>
+      </c>
+      <c r="F2235">
+        <v>1105000.0</v>
+      </c>
+      <c r="G2235"/>
+      <c r="H2235" t="s">
+        <v>2609</v>
+      </c>
+      <c r="I2235" t="s">
+        <v>322</v>
+      </c>
+      <c r="J2235" t="s">
+        <v>2610</v>
+      </c>
+      <c r="K2235">
+        <v>0.0</v>
+      </c>
+      <c r="L2235">
+        <v>0.0</v>
+      </c>
+      <c r="M2235" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2235" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:15">
+      <c r="A2236">
+        <v>77401</v>
+      </c>
+      <c r="B2236">
+        <v>403010100</v>
+      </c>
+      <c r="C2236" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D2236">
+        <v>0.0</v>
+      </c>
+      <c r="E2236">
+        <v>62500.0</v>
+      </c>
+      <c r="F2236">
+        <v>0</v>
+      </c>
+      <c r="G2236"/>
+      <c r="H2236" t="s">
+        <v>2609</v>
+      </c>
+      <c r="I2236" t="s">
+        <v>322</v>
+      </c>
+      <c r="J2236" t="s">
+        <v>2610</v>
+      </c>
+      <c r="K2236">
+        <v>0.0</v>
+      </c>
+      <c r="L2236">
+        <v>0.0</v>
+      </c>
+      <c r="M2236" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2236" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:15">
+      <c r="A2237">
+        <v>77402</v>
+      </c>
+      <c r="B2237">
+        <v>101060202</v>
+      </c>
+      <c r="C2237" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D2237">
+        <v>0.0</v>
+      </c>
+      <c r="E2237">
+        <v>1042500.0</v>
+      </c>
+      <c r="F2237">
+        <v>0</v>
+      </c>
+      <c r="G2237" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2237" t="s">
+        <v>2609</v>
+      </c>
+      <c r="I2237" t="s">
+        <v>322</v>
+      </c>
+      <c r="J2237" t="s">
+        <v>2610</v>
+      </c>
+      <c r="K2237">
+        <v>0.0</v>
+      </c>
+      <c r="L2237">
+        <v>0.0</v>
+      </c>
+      <c r="M2237" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2237" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:15">
+      <c r="A2238">
+        <v>77403</v>
+      </c>
+      <c r="B2238">
+        <v>101010204</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D2238">
+        <v>2650000.0</v>
+      </c>
+      <c r="E2238">
+        <v>0.0</v>
+      </c>
+      <c r="F2238">
+        <v>2650000.0</v>
+      </c>
+      <c r="G2238"/>
+      <c r="H2238" t="s">
+        <v>2613</v>
+      </c>
+      <c r="I2238" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2238" t="s">
+        <v>2614</v>
+      </c>
+      <c r="K2238">
+        <v>0.0</v>
+      </c>
+      <c r="L2238">
+        <v>0.0</v>
+      </c>
+      <c r="M2238" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2238" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:15">
+      <c r="A2239">
+        <v>77404</v>
+      </c>
+      <c r="B2239">
+        <v>403010100</v>
+      </c>
+      <c r="C2239" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D2239">
+        <v>0.0</v>
+      </c>
+      <c r="E2239">
+        <v>150000.0</v>
+      </c>
+      <c r="F2239">
+        <v>0</v>
+      </c>
+      <c r="G2239"/>
+      <c r="H2239" t="s">
+        <v>2613</v>
+      </c>
+      <c r="I2239" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2239" t="s">
+        <v>2614</v>
+      </c>
+      <c r="K2239">
+        <v>0.0</v>
+      </c>
+      <c r="L2239">
+        <v>0.0</v>
+      </c>
+      <c r="M2239" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2239" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:15">
+      <c r="A2240">
+        <v>77405</v>
+      </c>
+      <c r="B2240">
+        <v>101060202</v>
+      </c>
+      <c r="C2240" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D2240">
+        <v>0.0</v>
+      </c>
+      <c r="E2240">
         <v>2500000.0</v>
       </c>
-      <c r="F2233">
-        <v>0</v>
-      </c>
-      <c r="G2233" t="s">
+      <c r="F2240">
+        <v>0</v>
+      </c>
+      <c r="G2240" t="s">
         <v>15</v>
       </c>
-      <c r="H2233" t="s">
-        <v>2607</v>
-      </c>
-      <c r="I2233" t="s">
-        <v>2604</v>
-      </c>
-      <c r="J2233" t="s">
-        <v>2605</v>
-      </c>
-      <c r="K2233">
-        <v>0.0</v>
-      </c>
-      <c r="L2233">
-        <v>0.0</v>
-      </c>
-      <c r="M2233" t="s">
-        <v>2415</v>
-      </c>
-      <c r="N2233" t="s">
-        <v>2606</v>
+      <c r="H2240" t="s">
+        <v>2613</v>
+      </c>
+      <c r="I2240" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2240" t="s">
+        <v>2614</v>
+      </c>
+      <c r="K2240">
+        <v>0.0</v>
+      </c>
+      <c r="L2240">
+        <v>0.0</v>
+      </c>
+      <c r="M2240" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2240" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:15">
+      <c r="A2241">
+        <v>77406</v>
+      </c>
+      <c r="B2241">
+        <v>101010204</v>
+      </c>
+      <c r="C2241" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D2241">
+        <v>2250000.0</v>
+      </c>
+      <c r="E2241">
+        <v>0.0</v>
+      </c>
+      <c r="F2241">
+        <v>2250000.0</v>
+      </c>
+      <c r="G2241"/>
+      <c r="H2241" t="s">
+        <v>2617</v>
+      </c>
+      <c r="I2241" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2241" t="s">
+        <v>2618</v>
+      </c>
+      <c r="K2241">
+        <v>0.0</v>
+      </c>
+      <c r="L2241">
+        <v>0.0</v>
+      </c>
+      <c r="M2241" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2241" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:15">
+      <c r="A2242">
+        <v>77407</v>
+      </c>
+      <c r="B2242">
+        <v>403010100</v>
+      </c>
+      <c r="C2242" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D2242">
+        <v>0.0</v>
+      </c>
+      <c r="E2242">
+        <v>125000.0</v>
+      </c>
+      <c r="F2242">
+        <v>0</v>
+      </c>
+      <c r="G2242"/>
+      <c r="H2242" t="s">
+        <v>2617</v>
+      </c>
+      <c r="I2242" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2242" t="s">
+        <v>2618</v>
+      </c>
+      <c r="K2242">
+        <v>0.0</v>
+      </c>
+      <c r="L2242">
+        <v>0.0</v>
+      </c>
+      <c r="M2242" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2242" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:15">
+      <c r="A2243">
+        <v>77408</v>
+      </c>
+      <c r="B2243">
+        <v>101060202</v>
+      </c>
+      <c r="C2243" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D2243">
+        <v>0.0</v>
+      </c>
+      <c r="E2243">
+        <v>2125000.0</v>
+      </c>
+      <c r="F2243">
+        <v>0</v>
+      </c>
+      <c r="G2243" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2243" t="s">
+        <v>2617</v>
+      </c>
+      <c r="I2243" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2243" t="s">
+        <v>2618</v>
+      </c>
+      <c r="K2243">
+        <v>0.0</v>
+      </c>
+      <c r="L2243">
+        <v>0.0</v>
+      </c>
+      <c r="M2243" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2243" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:15">
+      <c r="A2244">
+        <v>77409</v>
+      </c>
+      <c r="B2244">
+        <v>101010204</v>
+      </c>
+      <c r="C2244" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D2244">
+        <v>2209000.0</v>
+      </c>
+      <c r="E2244">
+        <v>0.0</v>
+      </c>
+      <c r="F2244">
+        <v>2209000.0</v>
+      </c>
+      <c r="G2244"/>
+      <c r="H2244" t="s">
+        <v>2621</v>
+      </c>
+      <c r="I2244" t="s">
+        <v>309</v>
+      </c>
+      <c r="J2244" t="s">
+        <v>2622</v>
+      </c>
+      <c r="K2244">
+        <v>0.0</v>
+      </c>
+      <c r="L2244">
+        <v>0.0</v>
+      </c>
+      <c r="M2244" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2244" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:15">
+      <c r="A2245">
+        <v>77410</v>
+      </c>
+      <c r="B2245">
+        <v>403010100</v>
+      </c>
+      <c r="C2245" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D2245">
+        <v>0.0</v>
+      </c>
+      <c r="E2245">
+        <v>125000.0</v>
+      </c>
+      <c r="F2245">
+        <v>0</v>
+      </c>
+      <c r="G2245"/>
+      <c r="H2245" t="s">
+        <v>2621</v>
+      </c>
+      <c r="I2245" t="s">
+        <v>309</v>
+      </c>
+      <c r="J2245" t="s">
+        <v>2622</v>
+      </c>
+      <c r="K2245">
+        <v>0.0</v>
+      </c>
+      <c r="L2245">
+        <v>0.0</v>
+      </c>
+      <c r="M2245" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2245" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:15">
+      <c r="A2246">
+        <v>77411</v>
+      </c>
+      <c r="B2246">
+        <v>101060202</v>
+      </c>
+      <c r="C2246" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D2246">
+        <v>0.0</v>
+      </c>
+      <c r="E2246">
+        <v>2084000.0</v>
+      </c>
+      <c r="F2246">
+        <v>0</v>
+      </c>
+      <c r="G2246" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2246" t="s">
+        <v>2621</v>
+      </c>
+      <c r="I2246" t="s">
+        <v>309</v>
+      </c>
+      <c r="J2246" t="s">
+        <v>2622</v>
+      </c>
+      <c r="K2246">
+        <v>0.0</v>
+      </c>
+      <c r="L2246">
+        <v>0.0</v>
+      </c>
+      <c r="M2246" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2246" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:15">
+      <c r="A2247">
+        <v>77412</v>
+      </c>
+      <c r="B2247">
+        <v>407010000</v>
+      </c>
+      <c r="C2247" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D2247">
+        <v>200000.0</v>
+      </c>
+      <c r="E2247">
+        <v>0.0</v>
+      </c>
+      <c r="F2247">
+        <v>200000.0</v>
+      </c>
+      <c r="G2247"/>
+      <c r="H2247" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2247" t="s">
+        <v>2624</v>
+      </c>
+      <c r="J2247" t="s">
+        <v>2625</v>
+      </c>
+      <c r="K2247">
+        <v>0.0</v>
+      </c>
+      <c r="L2247">
+        <v>0.0</v>
+      </c>
+      <c r="M2247" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2247" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:15">
+      <c r="A2248">
+        <v>77413</v>
+      </c>
+      <c r="B2248">
+        <v>101010204</v>
+      </c>
+      <c r="C2248" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D2248">
+        <v>0.0</v>
+      </c>
+      <c r="E2248">
+        <v>200000.0</v>
+      </c>
+      <c r="F2248">
+        <v>0</v>
+      </c>
+      <c r="G2248" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2248" t="s">
+        <v>407</v>
+      </c>
+      <c r="I2248" t="s">
+        <v>2624</v>
+      </c>
+      <c r="J2248" t="s">
+        <v>2625</v>
+      </c>
+      <c r="K2248">
+        <v>0.0</v>
+      </c>
+      <c r="L2248">
+        <v>0.0</v>
+      </c>
+      <c r="M2248" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2248" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:15">
+      <c r="A2249">
+        <v>77414</v>
+      </c>
+      <c r="B2249">
+        <v>407010000</v>
+      </c>
+      <c r="C2249" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D2249">
+        <v>87639.0</v>
+      </c>
+      <c r="E2249">
+        <v>0.0</v>
+      </c>
+      <c r="F2249">
+        <v>87639.0</v>
+      </c>
+      <c r="G2249"/>
+      <c r="H2249" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2249" t="s">
+        <v>2627</v>
+      </c>
+      <c r="J2249" t="s">
+        <v>2628</v>
+      </c>
+      <c r="K2249">
+        <v>0.0</v>
+      </c>
+      <c r="L2249">
+        <v>0.0</v>
+      </c>
+      <c r="M2249" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2249" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:15">
+      <c r="A2250">
+        <v>77415</v>
+      </c>
+      <c r="B2250">
+        <v>101010204</v>
+      </c>
+      <c r="C2250" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D2250">
+        <v>0.0</v>
+      </c>
+      <c r="E2250">
+        <v>87639.0</v>
+      </c>
+      <c r="F2250">
+        <v>0</v>
+      </c>
+      <c r="G2250" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2250" t="s">
+        <v>407</v>
+      </c>
+      <c r="I2250" t="s">
+        <v>2627</v>
+      </c>
+      <c r="J2250" t="s">
+        <v>2628</v>
+      </c>
+      <c r="K2250">
+        <v>0.0</v>
+      </c>
+      <c r="L2250">
+        <v>0.0</v>
+      </c>
+      <c r="M2250" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2250" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:15">
+      <c r="A2251">
+        <v>77418</v>
+      </c>
+      <c r="B2251">
+        <v>101010204</v>
+      </c>
+      <c r="C2251" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D2251">
+        <v>4434000.0</v>
+      </c>
+      <c r="E2251">
+        <v>0.0</v>
+      </c>
+      <c r="F2251">
+        <v>4434000.0</v>
+      </c>
+      <c r="G2251"/>
+      <c r="H2251" t="s">
+        <v>2630</v>
+      </c>
+      <c r="I2251" t="s">
+        <v>326</v>
+      </c>
+      <c r="J2251" t="s">
+        <v>2631</v>
+      </c>
+      <c r="K2251">
+        <v>0.0</v>
+      </c>
+      <c r="L2251">
+        <v>0.0</v>
+      </c>
+      <c r="M2251" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2251" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:15">
+      <c r="A2252">
+        <v>77419</v>
+      </c>
+      <c r="B2252">
+        <v>403010100</v>
+      </c>
+      <c r="C2252" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D2252">
+        <v>0.0</v>
+      </c>
+      <c r="E2252">
+        <v>475000.0</v>
+      </c>
+      <c r="F2252">
+        <v>0</v>
+      </c>
+      <c r="G2252"/>
+      <c r="H2252" t="s">
+        <v>2630</v>
+      </c>
+      <c r="I2252" t="s">
+        <v>326</v>
+      </c>
+      <c r="J2252" t="s">
+        <v>2631</v>
+      </c>
+      <c r="K2252">
+        <v>0.0</v>
+      </c>
+      <c r="L2252">
+        <v>0.0</v>
+      </c>
+      <c r="M2252" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2252" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:15">
+      <c r="A2253">
+        <v>77420</v>
+      </c>
+      <c r="B2253">
+        <v>101060207</v>
+      </c>
+      <c r="C2253" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D2253">
+        <v>0.0</v>
+      </c>
+      <c r="E2253">
+        <v>3959000.0</v>
+      </c>
+      <c r="F2253">
+        <v>0</v>
+      </c>
+      <c r="G2253" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2253" t="s">
+        <v>2630</v>
+      </c>
+      <c r="I2253" t="s">
+        <v>326</v>
+      </c>
+      <c r="J2253" t="s">
+        <v>2631</v>
+      </c>
+      <c r="K2253">
+        <v>0.0</v>
+      </c>
+      <c r="L2253">
+        <v>0.0</v>
+      </c>
+      <c r="M2253" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2253" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:15">
+      <c r="A2254">
+        <v>77421</v>
+      </c>
+      <c r="B2254">
+        <v>101010204</v>
+      </c>
+      <c r="C2254" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D2254">
+        <v>430697.0</v>
+      </c>
+      <c r="E2254">
+        <v>0.0</v>
+      </c>
+      <c r="F2254">
+        <v>430697.0</v>
+      </c>
+      <c r="G2254"/>
+      <c r="H2254" t="s">
+        <v>407</v>
+      </c>
+      <c r="I2254" t="s">
+        <v>2633</v>
+      </c>
+      <c r="J2254" t="s">
+        <v>2634</v>
+      </c>
+      <c r="K2254">
+        <v>0.0</v>
+      </c>
+      <c r="L2254">
+        <v>0.0</v>
+      </c>
+      <c r="M2254" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2254" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:15">
+      <c r="A2255">
+        <v>77422</v>
+      </c>
+      <c r="B2255">
+        <v>403020100</v>
+      </c>
+      <c r="C2255" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D2255">
+        <v>0.0</v>
+      </c>
+      <c r="E2255">
+        <v>430697.0</v>
+      </c>
+      <c r="F2255">
+        <v>0</v>
+      </c>
+      <c r="G2255" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2255" t="s">
+        <v>406</v>
+      </c>
+      <c r="I2255" t="s">
+        <v>2633</v>
+      </c>
+      <c r="J2255" t="s">
+        <v>2634</v>
+      </c>
+      <c r="K2255">
+        <v>0.0</v>
+      </c>
+      <c r="L2255">
+        <v>0.0</v>
+      </c>
+      <c r="M2255" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2255" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:15">
+      <c r="A2256">
+        <v>77423</v>
+      </c>
+      <c r="B2256">
+        <v>101010101</v>
+      </c>
+      <c r="C2256" t="s">
+        <v>677</v>
+      </c>
+      <c r="D2256">
+        <v>1000000.0</v>
+      </c>
+      <c r="E2256">
+        <v>0.0</v>
+      </c>
+      <c r="F2256">
+        <v>1000000.0</v>
+      </c>
+      <c r="G2256"/>
+      <c r="H2256" t="s">
+        <v>2636</v>
+      </c>
+      <c r="I2256" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2256" t="s">
+        <v>2637</v>
+      </c>
+      <c r="K2256">
+        <v>0.0</v>
+      </c>
+      <c r="L2256">
+        <v>0.0</v>
+      </c>
+      <c r="M2256" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2256" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:15">
+      <c r="A2257">
+        <v>77424</v>
+      </c>
+      <c r="B2257">
+        <v>403010100</v>
+      </c>
+      <c r="C2257" t="s">
+        <v>677</v>
+      </c>
+      <c r="D2257">
+        <v>0.0</v>
+      </c>
+      <c r="E2257">
+        <v>183332.0</v>
+      </c>
+      <c r="F2257">
+        <v>0</v>
+      </c>
+      <c r="G2257"/>
+      <c r="H2257" t="s">
+        <v>2636</v>
+      </c>
+      <c r="I2257" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2257" t="s">
+        <v>2637</v>
+      </c>
+      <c r="K2257">
+        <v>0.0</v>
+      </c>
+      <c r="L2257">
+        <v>0.0</v>
+      </c>
+      <c r="M2257" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2257" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:15">
+      <c r="A2258">
+        <v>77425</v>
+      </c>
+      <c r="B2258">
+        <v>101060202</v>
+      </c>
+      <c r="C2258" t="s">
+        <v>677</v>
+      </c>
+      <c r="D2258">
+        <v>0.0</v>
+      </c>
+      <c r="E2258">
+        <v>816668.0</v>
+      </c>
+      <c r="F2258">
+        <v>0</v>
+      </c>
+      <c r="G2258" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2258" t="s">
+        <v>2636</v>
+      </c>
+      <c r="I2258" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2258" t="s">
+        <v>2637</v>
+      </c>
+      <c r="K2258">
+        <v>0.0</v>
+      </c>
+      <c r="L2258">
+        <v>0.0</v>
+      </c>
+      <c r="M2258" t="s">
+        <v>2602</v>
+      </c>
+      <c r="N2258" t="s">
+        <v>2638</v>
       </c>
     </row>
   </sheetData>
